--- a/planilha_supply1.xlsx
+++ b/planilha_supply1.xlsx
@@ -547,10 +547,10 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>-2913710</v>
+        <v>-2913704</v>
       </c>
       <c r="K2" t="n">
-        <v>-97123.7</v>
+        <v>-97123.5</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -607,10 +607,10 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>-718</v>
+        <v>-712</v>
       </c>
       <c r="K3" t="n">
-        <v>-23.9</v>
+        <v>-23.7</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>-718</v>
+        <v>-712</v>
       </c>
       <c r="K4" t="n">
-        <v>-23.9</v>
+        <v>-23.7</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>-627</v>
+        <v>-621</v>
       </c>
       <c r="K5" t="n">
-        <v>-20.9</v>
+        <v>-20.7</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -789,10 +789,10 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>-1022</v>
+        <v>-1016</v>
       </c>
       <c r="K6" t="n">
-        <v>-34.1</v>
+        <v>-33.9</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>-718</v>
+        <v>-712</v>
       </c>
       <c r="K7" t="n">
-        <v>-23.9</v>
+        <v>-23.7</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>-718</v>
+        <v>-712</v>
       </c>
       <c r="K8" t="n">
-        <v>-23.9</v>
+        <v>-23.7</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>-718</v>
+        <v>-712</v>
       </c>
       <c r="K9" t="n">
-        <v>-23.9</v>
+        <v>-23.7</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -997,10 +997,10 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>-567</v>
+        <v>-561</v>
       </c>
       <c r="K10" t="n">
-        <v>-18.9</v>
+        <v>-18.7</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1049,10 +1049,10 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>-536</v>
+        <v>-530</v>
       </c>
       <c r="K11" t="n">
-        <v>-17.9</v>
+        <v>-17.7</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1101,10 +1101,10 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>-567</v>
+        <v>-561</v>
       </c>
       <c r="K12" t="n">
-        <v>-18.9</v>
+        <v>-18.7</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1153,10 +1153,10 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>-505</v>
+        <v>-499</v>
       </c>
       <c r="K13" t="n">
-        <v>-16.8</v>
+        <v>-16.6</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>-505</v>
+        <v>-499</v>
       </c>
       <c r="K14" t="n">
-        <v>-16.8</v>
+        <v>-16.6</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1257,10 +1257,10 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>-383</v>
+        <v>-377</v>
       </c>
       <c r="K15" t="n">
-        <v>-12.8</v>
+        <v>-12.6</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>-383</v>
+        <v>-377</v>
       </c>
       <c r="K16" t="n">
-        <v>-12.8</v>
+        <v>-12.6</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1361,10 +1361,10 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>-383</v>
+        <v>-377</v>
       </c>
       <c r="K17" t="n">
-        <v>-12.8</v>
+        <v>-12.6</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1413,10 +1413,10 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>-322</v>
+        <v>-316</v>
       </c>
       <c r="K18" t="n">
-        <v>-10.7</v>
+        <v>-10.5</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1465,10 +1465,10 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>-322</v>
+        <v>-316</v>
       </c>
       <c r="K19" t="n">
-        <v>-10.7</v>
+        <v>-10.5</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1517,10 +1517,10 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>-261</v>
+        <v>-255</v>
       </c>
       <c r="K20" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.5</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1569,10 +1569,10 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>-261</v>
+        <v>-255</v>
       </c>
       <c r="K21" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.5</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1621,10 +1621,10 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>-202</v>
+        <v>-196</v>
       </c>
       <c r="K22" t="n">
-        <v>-6.7</v>
+        <v>-6.5</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1673,10 +1673,10 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>-202</v>
+        <v>-196</v>
       </c>
       <c r="K23" t="n">
-        <v>-6.7</v>
+        <v>-6.5</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1725,10 +1725,10 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>-79</v>
+        <v>-73</v>
       </c>
       <c r="K24" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1781,10 +1781,10 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>-79</v>
+        <v>-73</v>
       </c>
       <c r="K25" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1837,10 +1837,10 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>-79</v>
+        <v>-73</v>
       </c>
       <c r="K26" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1893,10 +1893,10 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>-79</v>
+        <v>-73</v>
       </c>
       <c r="K27" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K28" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2005,10 +2005,10 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K29" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2061,10 +2061,10 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K30" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2117,10 +2117,10 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K31" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2173,10 +2173,10 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K32" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>-2913710</v>
+        <v>-2913704</v>
       </c>
       <c r="K33" t="n">
-        <v>-97123.7</v>
+        <v>-97123.5</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2289,10 +2289,10 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>-261</v>
+        <v>-255</v>
       </c>
       <c r="K34" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.5</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2349,10 +2349,10 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>-261</v>
+        <v>-255</v>
       </c>
       <c r="K35" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.5</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -2409,10 +2409,10 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>-261</v>
+        <v>-255</v>
       </c>
       <c r="K36" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.5</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -2469,10 +2469,10 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>-261</v>
+        <v>-255</v>
       </c>
       <c r="K37" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.5</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -2521,10 +2521,10 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>-110</v>
+        <v>-104</v>
       </c>
       <c r="K38" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2577,10 +2577,10 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>-79</v>
+        <v>-73</v>
       </c>
       <c r="K39" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>-110</v>
+        <v>-104</v>
       </c>
       <c r="K40" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2689,10 +2689,10 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>-79</v>
+        <v>-73</v>
       </c>
       <c r="K41" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>-79</v>
+        <v>-73</v>
       </c>
       <c r="K42" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2801,10 +2801,10 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K43" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2857,10 +2857,10 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K44" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2913,10 +2913,10 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K45" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2969,10 +2969,10 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="K46" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -3025,10 +3025,10 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K47" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -3081,10 +3081,10 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="K48" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -3137,10 +3137,10 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K49" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -3193,10 +3193,10 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="K50" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -3249,10 +3249,10 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K51" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -3305,10 +3305,10 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="K52" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -3361,10 +3361,10 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="K53" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -3417,10 +3417,10 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="K54" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K55" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -3537,10 +3537,10 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>-902</v>
+        <v>-896</v>
       </c>
       <c r="K56" t="n">
-        <v>-30.1</v>
+        <v>-29.9</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -3597,10 +3597,10 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>-902</v>
+        <v>-896</v>
       </c>
       <c r="K57" t="n">
-        <v>-30.1</v>
+        <v>-29.9</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -3657,10 +3657,10 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>-902</v>
+        <v>-896</v>
       </c>
       <c r="K58" t="n">
-        <v>-30.1</v>
+        <v>-29.9</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -3719,10 +3719,10 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>-902</v>
+        <v>-896</v>
       </c>
       <c r="K59" t="n">
-        <v>-30.1</v>
+        <v>-29.9</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -3779,10 +3779,10 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>-902</v>
+        <v>-896</v>
       </c>
       <c r="K60" t="n">
-        <v>-30.1</v>
+        <v>-29.9</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -3839,10 +3839,10 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>-718</v>
+        <v>-712</v>
       </c>
       <c r="K61" t="n">
-        <v>-23.9</v>
+        <v>-23.7</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -3899,10 +3899,10 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>-1022</v>
+        <v>-1016</v>
       </c>
       <c r="K62" t="n">
-        <v>-34.1</v>
+        <v>-33.9</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -3951,10 +3951,10 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>-718</v>
+        <v>-712</v>
       </c>
       <c r="K63" t="n">
-        <v>-23.9</v>
+        <v>-23.7</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -4003,10 +4003,10 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>-718</v>
+        <v>-712</v>
       </c>
       <c r="K64" t="n">
-        <v>-23.9</v>
+        <v>-23.7</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -4055,10 +4055,10 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>-536</v>
+        <v>-530</v>
       </c>
       <c r="K65" t="n">
-        <v>-17.9</v>
+        <v>-17.7</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -4107,10 +4107,10 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>-444</v>
+        <v>-438</v>
       </c>
       <c r="K66" t="n">
-        <v>-14.8</v>
+        <v>-14.6</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -4159,10 +4159,10 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>-444</v>
+        <v>-438</v>
       </c>
       <c r="K67" t="n">
-        <v>-14.8</v>
+        <v>-14.6</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -4211,10 +4211,10 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>-444</v>
+        <v>-438</v>
       </c>
       <c r="K68" t="n">
-        <v>-14.8</v>
+        <v>-14.6</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -4263,10 +4263,10 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>-718</v>
+        <v>-712</v>
       </c>
       <c r="K69" t="n">
-        <v>-23.9</v>
+        <v>-23.7</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -4315,10 +4315,10 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>-475</v>
+        <v>-469</v>
       </c>
       <c r="K70" t="n">
-        <v>-15.8</v>
+        <v>-15.6</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -4367,10 +4367,10 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>-718</v>
+        <v>-712</v>
       </c>
       <c r="K71" t="n">
-        <v>-23.9</v>
+        <v>-23.7</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -4419,10 +4419,10 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>-718</v>
+        <v>-712</v>
       </c>
       <c r="K72" t="n">
-        <v>-23.9</v>
+        <v>-23.7</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -4471,10 +4471,10 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>-474</v>
+        <v>-468</v>
       </c>
       <c r="K73" t="n">
-        <v>-15.8</v>
+        <v>-15.6</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -4523,10 +4523,10 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>-474</v>
+        <v>-468</v>
       </c>
       <c r="K74" t="n">
-        <v>-15.8</v>
+        <v>-15.6</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -4575,10 +4575,10 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>-536</v>
+        <v>-530</v>
       </c>
       <c r="K75" t="n">
-        <v>-17.9</v>
+        <v>-17.7</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -4627,10 +4627,10 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>-475</v>
+        <v>-469</v>
       </c>
       <c r="K76" t="n">
-        <v>-15.8</v>
+        <v>-15.6</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -4679,10 +4679,10 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>-536</v>
+        <v>-530</v>
       </c>
       <c r="K77" t="n">
-        <v>-17.9</v>
+        <v>-17.7</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -4731,10 +4731,10 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>-352</v>
+        <v>-346</v>
       </c>
       <c r="K78" t="n">
-        <v>-11.7</v>
+        <v>-11.5</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -4783,10 +4783,10 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>-536</v>
+        <v>-530</v>
       </c>
       <c r="K79" t="n">
-        <v>-17.9</v>
+        <v>-17.7</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -4835,10 +4835,10 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>-475</v>
+        <v>-469</v>
       </c>
       <c r="K80" t="n">
-        <v>-15.8</v>
+        <v>-15.6</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -4887,10 +4887,10 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>-536</v>
+        <v>-530</v>
       </c>
       <c r="K81" t="n">
-        <v>-17.9</v>
+        <v>-17.7</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -4939,10 +4939,10 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>-536</v>
+        <v>-530</v>
       </c>
       <c r="K82" t="n">
-        <v>-17.9</v>
+        <v>-17.7</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -4991,10 +4991,10 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>-536</v>
+        <v>-530</v>
       </c>
       <c r="K83" t="n">
-        <v>-17.9</v>
+        <v>-17.7</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -5043,10 +5043,10 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>-352</v>
+        <v>-346</v>
       </c>
       <c r="K84" t="n">
-        <v>-11.7</v>
+        <v>-11.5</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -5095,10 +5095,10 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>-352</v>
+        <v>-346</v>
       </c>
       <c r="K85" t="n">
-        <v>-11.7</v>
+        <v>-11.5</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -5147,10 +5147,10 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>-444</v>
+        <v>-438</v>
       </c>
       <c r="K86" t="n">
-        <v>-14.8</v>
+        <v>-14.6</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -5199,10 +5199,10 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>-444</v>
+        <v>-438</v>
       </c>
       <c r="K87" t="n">
-        <v>-14.8</v>
+        <v>-14.6</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -5251,10 +5251,10 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>-444</v>
+        <v>-438</v>
       </c>
       <c r="K88" t="n">
-        <v>-14.8</v>
+        <v>-14.6</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>-352</v>
+        <v>-346</v>
       </c>
       <c r="K89" t="n">
-        <v>-11.7</v>
+        <v>-11.5</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -5355,10 +5355,10 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>-352</v>
+        <v>-346</v>
       </c>
       <c r="K90" t="n">
-        <v>-11.7</v>
+        <v>-11.5</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -5407,10 +5407,10 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>-352</v>
+        <v>-346</v>
       </c>
       <c r="K91" t="n">
-        <v>-11.7</v>
+        <v>-11.5</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -5459,10 +5459,10 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>-352</v>
+        <v>-346</v>
       </c>
       <c r="K92" t="n">
-        <v>-11.7</v>
+        <v>-11.5</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -5511,10 +5511,10 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>-352</v>
+        <v>-346</v>
       </c>
       <c r="K93" t="n">
-        <v>-11.7</v>
+        <v>-11.5</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -5563,10 +5563,10 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>-202</v>
+        <v>-196</v>
       </c>
       <c r="K94" t="n">
-        <v>-6.7</v>
+        <v>-6.5</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -5615,10 +5615,10 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>-291</v>
+        <v>-285</v>
       </c>
       <c r="K95" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.5</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -5667,10 +5667,10 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>-291</v>
+        <v>-285</v>
       </c>
       <c r="K96" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.5</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -5719,10 +5719,10 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>-291</v>
+        <v>-285</v>
       </c>
       <c r="K97" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.5</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -5771,10 +5771,10 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>-352</v>
+        <v>-346</v>
       </c>
       <c r="K98" t="n">
-        <v>-11.7</v>
+        <v>-11.5</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -5823,10 +5823,10 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>-202</v>
+        <v>-196</v>
       </c>
       <c r="K99" t="n">
-        <v>-6.7</v>
+        <v>-6.5</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -5875,10 +5875,10 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>-291</v>
+        <v>-285</v>
       </c>
       <c r="K100" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.5</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>-291</v>
+        <v>-285</v>
       </c>
       <c r="K101" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.5</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -5979,10 +5979,10 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>-291</v>
+        <v>-285</v>
       </c>
       <c r="K102" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.5</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -6031,10 +6031,10 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>-291</v>
+        <v>-285</v>
       </c>
       <c r="K103" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.5</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -6083,10 +6083,10 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>-291</v>
+        <v>-285</v>
       </c>
       <c r="K104" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.5</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -6135,10 +6135,10 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>-171</v>
+        <v>-165</v>
       </c>
       <c r="K105" t="n">
-        <v>-5.7</v>
+        <v>-5.5</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -6191,10 +6191,10 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>-171</v>
+        <v>-165</v>
       </c>
       <c r="K106" t="n">
-        <v>-5.7</v>
+        <v>-5.5</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -6247,10 +6247,10 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>-261</v>
+        <v>-255</v>
       </c>
       <c r="K107" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.5</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -6299,10 +6299,10 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>-261</v>
+        <v>-255</v>
       </c>
       <c r="K108" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.5</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -6351,10 +6351,10 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>-110</v>
+        <v>-104</v>
       </c>
       <c r="K109" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -6407,10 +6407,10 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>-110</v>
+        <v>-104</v>
       </c>
       <c r="K110" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -6463,10 +6463,10 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>-110</v>
+        <v>-104</v>
       </c>
       <c r="K111" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -6519,10 +6519,10 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>-110</v>
+        <v>-104</v>
       </c>
       <c r="K112" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -6575,10 +6575,10 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>-110</v>
+        <v>-104</v>
       </c>
       <c r="K113" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -6631,10 +6631,10 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>-110</v>
+        <v>-104</v>
       </c>
       <c r="K114" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -6687,10 +6687,10 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>-110</v>
+        <v>-104</v>
       </c>
       <c r="K115" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
@@ -6743,10 +6743,10 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>-110</v>
+        <v>-104</v>
       </c>
       <c r="K116" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="L116" t="inlineStr">
         <is>
@@ -6799,10 +6799,10 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="K117" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -6855,10 +6855,10 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="K118" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K119" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -6967,10 +6967,10 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="K120" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -7023,10 +7023,10 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="K121" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -7079,10 +7079,10 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K122" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -7135,10 +7135,10 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K123" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="L123" t="inlineStr">
         <is>
@@ -7191,10 +7191,10 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>-291</v>
+        <v>-285</v>
       </c>
       <c r="K124" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.5</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -7251,10 +7251,10 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>-171</v>
+        <v>-165</v>
       </c>
       <c r="K125" t="n">
-        <v>-5.7</v>
+        <v>-5.5</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -7315,10 +7315,10 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>-171</v>
+        <v>-165</v>
       </c>
       <c r="K126" t="n">
-        <v>-5.7</v>
+        <v>-5.5</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -7379,10 +7379,10 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>-49</v>
+        <v>-43</v>
       </c>
       <c r="K127" t="n">
-        <v>-1.6</v>
+        <v>-1.4</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -7443,10 +7443,10 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>-79</v>
+        <v>-73</v>
       </c>
       <c r="K128" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -7499,10 +7499,10 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>-110</v>
+        <v>-104</v>
       </c>
       <c r="K129" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
@@ -7555,10 +7555,10 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>-79</v>
+        <v>-73</v>
       </c>
       <c r="K130" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -7611,10 +7611,10 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="K131" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -7667,10 +7667,10 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K132" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="L132" t="inlineStr">
         <is>
@@ -7723,10 +7723,10 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K133" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="L133" t="inlineStr">
         <is>
@@ -7779,10 +7779,10 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K134" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -7835,10 +7835,10 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K135" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L135" t="inlineStr">
         <is>
@@ -7891,10 +7891,10 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K136" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -7947,10 +7947,10 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K137" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L137" t="inlineStr">
         <is>
@@ -8003,10 +8003,10 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K138" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -8059,10 +8059,10 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K139" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -8115,10 +8115,10 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K140" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -8171,10 +8171,10 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K141" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L141" t="inlineStr">
         <is>
@@ -8227,10 +8227,10 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K142" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L142" t="inlineStr">
         <is>
@@ -8283,10 +8283,10 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K143" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="L143" t="inlineStr">
         <is>
@@ -8339,10 +8339,10 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K144" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L144" t="inlineStr">
         <is>
@@ -8395,10 +8395,10 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K145" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L145" t="inlineStr">
         <is>
@@ -8451,10 +8451,10 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K146" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L146" t="inlineStr">
         <is>
@@ -8507,10 +8507,10 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K147" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="L147" t="inlineStr">
         <is>
@@ -8563,10 +8563,10 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="K148" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="L148" t="inlineStr">
         <is>
@@ -8619,10 +8619,10 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K149" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="L149" t="inlineStr">
         <is>
@@ -8675,10 +8675,10 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="K150" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -8731,10 +8731,10 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="K151" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -8787,10 +8787,10 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="K152" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -8843,10 +8843,10 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="K153" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -8899,10 +8899,10 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="K154" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -8955,10 +8955,10 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="K155" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -9011,10 +9011,10 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="K156" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -9067,10 +9067,10 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="K157" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -9123,10 +9123,10 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="K158" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -9179,10 +9179,10 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="K159" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -9235,10 +9235,10 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="K160" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="L160" t="inlineStr">
         <is>
@@ -9291,10 +9291,10 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="K161" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -9347,10 +9347,10 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="K162" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="L162" t="inlineStr">
         <is>
@@ -9403,10 +9403,10 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="K163" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -9459,10 +9459,10 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="K164" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -9515,10 +9515,10 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>-536</v>
+        <v>-530</v>
       </c>
       <c r="K165" t="n">
-        <v>-17.9</v>
+        <v>-17.7</v>
       </c>
       <c r="L165" t="inlineStr">
         <is>
@@ -9575,10 +9575,10 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>-414</v>
+        <v>-408</v>
       </c>
       <c r="K166" t="n">
-        <v>-13.8</v>
+        <v>-13.6</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -9635,10 +9635,10 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>-414</v>
+        <v>-408</v>
       </c>
       <c r="K167" t="n">
-        <v>-13.8</v>
+        <v>-13.6</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -9695,10 +9695,10 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K168" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -9751,10 +9751,10 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="K169" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -9807,10 +9807,10 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K170" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -9863,10 +9863,10 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K171" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="L171" t="inlineStr">
         <is>
@@ -9919,10 +9919,10 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>-414</v>
+        <v>-408</v>
       </c>
       <c r="K172" t="n">
-        <v>-13.8</v>
+        <v>-13.6</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -9979,10 +9979,10 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K173" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -10043,10 +10043,10 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K174" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -10099,10 +10099,10 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>-567</v>
+        <v>-561</v>
       </c>
       <c r="K175" t="n">
-        <v>-18.9</v>
+        <v>-18.7</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -10159,10 +10159,10 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>-595</v>
+        <v>-589</v>
       </c>
       <c r="K176" t="n">
-        <v>-19.8</v>
+        <v>-19.6</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -10219,10 +10219,10 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>-171</v>
+        <v>-165</v>
       </c>
       <c r="K177" t="n">
-        <v>-5.7</v>
+        <v>-5.5</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -10275,10 +10275,10 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K178" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -10331,10 +10331,10 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K179" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -10387,10 +10387,10 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K180" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -10443,10 +10443,10 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K181" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -10499,10 +10499,10 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K182" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -10555,10 +10555,10 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K183" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -10611,10 +10611,10 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K184" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -10667,10 +10667,10 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K185" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -10733,10 +10733,10 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K186" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -10789,10 +10789,10 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K187" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -10845,10 +10845,10 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K188" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -10901,10 +10901,10 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K189" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -10957,10 +10957,10 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K190" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -11013,10 +11013,10 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K191" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -11069,10 +11069,10 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>-291</v>
+        <v>-285</v>
       </c>
       <c r="K192" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.5</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -11129,10 +11129,10 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>-261</v>
+        <v>-255</v>
       </c>
       <c r="K193" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.5</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -11189,10 +11189,10 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>-322</v>
+        <v>-316</v>
       </c>
       <c r="K194" t="n">
-        <v>-10.7</v>
+        <v>-10.5</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -11241,10 +11241,10 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="K195" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -11297,10 +11297,10 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="K196" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -11353,10 +11353,10 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K197" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L197" t="inlineStr">
         <is>
@@ -11409,10 +11409,10 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K198" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L198" t="inlineStr">
         <is>
@@ -11465,10 +11465,10 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K199" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L199" t="inlineStr">
         <is>
@@ -11521,10 +11521,10 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K200" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
@@ -11577,10 +11577,10 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K201" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L201" t="inlineStr">
         <is>
@@ -11633,10 +11633,10 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K202" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L202" t="inlineStr">
         <is>
@@ -11689,10 +11689,10 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K203" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L203" t="inlineStr">
         <is>
@@ -11745,10 +11745,10 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K204" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
@@ -11801,10 +11801,10 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K205" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
@@ -11857,10 +11857,10 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K206" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="L206" t="inlineStr">
         <is>
@@ -11913,10 +11913,10 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K207" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="L207" t="inlineStr">
         <is>
@@ -11969,10 +11969,10 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K208" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
@@ -12025,10 +12025,10 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K209" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L209" t="inlineStr">
         <is>
@@ -12081,10 +12081,10 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="K210" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
@@ -12137,10 +12137,10 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K211" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="L211" t="inlineStr">
         <is>
@@ -12193,10 +12193,10 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K212" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L212" t="inlineStr">
         <is>
@@ -12249,10 +12249,10 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K213" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="L213" t="inlineStr">
         <is>
@@ -12305,10 +12305,10 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K214" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
@@ -12361,10 +12361,10 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K215" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
@@ -12417,10 +12417,10 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K216" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -12473,10 +12473,10 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="K217" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -12529,10 +12529,10 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="K218" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
@@ -12585,10 +12585,10 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="K219" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -12641,10 +12641,10 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K220" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -12697,10 +12697,10 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K221" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -12753,10 +12753,10 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="K222" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -12809,10 +12809,10 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="K223" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -12865,10 +12865,10 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="K224" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -12921,10 +12921,10 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="K225" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -12977,10 +12977,10 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="K226" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -13033,10 +13033,10 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="K227" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -13089,10 +13089,10 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="K228" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -13145,10 +13145,10 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="K229" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -13201,10 +13201,10 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="K230" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -13257,10 +13257,10 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>-291</v>
+        <v>-285</v>
       </c>
       <c r="K231" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.5</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -13317,10 +13317,10 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>-110</v>
+        <v>-104</v>
       </c>
       <c r="K232" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="L232" t="inlineStr">
         <is>
@@ -13381,10 +13381,10 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K233" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -13437,10 +13437,10 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K234" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="L234" t="inlineStr">
         <is>
@@ -13493,10 +13493,10 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K235" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="L235" t="inlineStr">
         <is>
@@ -13549,10 +13549,10 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K236" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="L236" t="inlineStr">
         <is>
@@ -13605,10 +13605,10 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K237" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -13661,10 +13661,10 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K238" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -13717,10 +13717,10 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K239" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L239" t="inlineStr">
         <is>
@@ -13773,10 +13773,10 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K240" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="L240" t="inlineStr">
         <is>
@@ -13829,10 +13829,10 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="K241" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -13885,10 +13885,10 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="K242" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
@@ -13941,10 +13941,10 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="K243" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
@@ -13997,10 +13997,10 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="K244" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -14053,10 +14053,10 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="K245" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -14109,10 +14109,10 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>-261</v>
+        <v>-255</v>
       </c>
       <c r="K246" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.5</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
@@ -14169,10 +14169,10 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>-261</v>
+        <v>-255</v>
       </c>
       <c r="K247" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.5</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
@@ -14229,10 +14229,10 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>-230</v>
+        <v>-224</v>
       </c>
       <c r="K248" t="n">
-        <v>-7.7</v>
+        <v>-7.5</v>
       </c>
       <c r="L248" t="inlineStr">
         <is>
@@ -14289,10 +14289,10 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>-291</v>
+        <v>-285</v>
       </c>
       <c r="K249" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.5</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
@@ -14341,10 +14341,10 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>-261</v>
+        <v>-255</v>
       </c>
       <c r="K250" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.5</v>
       </c>
       <c r="L250" t="inlineStr">
         <is>
@@ -14393,10 +14393,10 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="K251" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="L251" t="inlineStr">
         <is>
@@ -14449,10 +14449,10 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K252" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="L252" t="inlineStr">
         <is>
@@ -14505,10 +14505,10 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K253" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
@@ -14561,10 +14561,10 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K254" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L254" t="inlineStr">
         <is>
@@ -14617,10 +14617,10 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K255" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L255" t="inlineStr">
         <is>
@@ -14673,10 +14673,10 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K256" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L256" t="inlineStr">
         <is>
@@ -14729,10 +14729,10 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K257" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L257" t="inlineStr">
         <is>
@@ -14785,10 +14785,10 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K258" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L258" t="inlineStr">
         <is>
@@ -14841,10 +14841,10 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K259" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L259" t="inlineStr">
         <is>
@@ -14897,10 +14897,10 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="K260" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="L260" t="inlineStr">
         <is>
@@ -14953,10 +14953,10 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K261" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="L261" t="inlineStr">
         <is>
@@ -15009,10 +15009,10 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K262" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="L262" t="inlineStr">
         <is>
@@ -15065,10 +15065,10 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K263" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L263" t="inlineStr">
         <is>
@@ -15121,10 +15121,10 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K264" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="L264" t="inlineStr">
         <is>
@@ -15177,10 +15177,10 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="K265" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="L265" t="inlineStr">
         <is>
@@ -15233,10 +15233,10 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K266" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="L266" t="inlineStr">
         <is>
@@ -15289,10 +15289,10 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="K267" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="L267" t="inlineStr">
         <is>
@@ -15345,10 +15345,10 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="K268" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="L268" t="inlineStr">
         <is>
@@ -15401,10 +15401,10 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="K269" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="L269" t="inlineStr">
         <is>
@@ -15457,10 +15457,10 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="K270" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="L270" t="inlineStr">
         <is>
@@ -15513,10 +15513,10 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="K271" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="L271" t="inlineStr">
         <is>
@@ -15569,10 +15569,10 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="K272" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="L272" t="inlineStr">
         <is>
@@ -15625,10 +15625,10 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="K273" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="L273" t="inlineStr">
         <is>
@@ -15681,10 +15681,10 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="K274" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="L274" t="inlineStr">
         <is>
@@ -15737,10 +15737,10 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="K275" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="L275" t="inlineStr">
         <is>
@@ -15793,10 +15793,10 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>-230</v>
+        <v>-224</v>
       </c>
       <c r="K276" t="n">
-        <v>-7.7</v>
+        <v>-7.5</v>
       </c>
       <c r="L276" t="inlineStr">
         <is>
@@ -15853,10 +15853,10 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>-230</v>
+        <v>-224</v>
       </c>
       <c r="K277" t="n">
-        <v>-7.7</v>
+        <v>-7.5</v>
       </c>
       <c r="L277" t="inlineStr">
         <is>
@@ -15913,10 +15913,10 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>-110</v>
+        <v>-104</v>
       </c>
       <c r="K278" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="L278" t="inlineStr">
         <is>
@@ -15977,10 +15977,10 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>-110</v>
+        <v>-104</v>
       </c>
       <c r="K279" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="L279" t="inlineStr">
         <is>
@@ -16041,10 +16041,10 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>-110</v>
+        <v>-104</v>
       </c>
       <c r="K280" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="L280" t="inlineStr">
         <is>
@@ -16105,10 +16105,10 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>-110</v>
+        <v>-104</v>
       </c>
       <c r="K281" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="L281" t="inlineStr">
         <is>
@@ -16169,10 +16169,10 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="K282" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="L282" t="inlineStr">
         <is>
@@ -16233,10 +16233,10 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="K283" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="L283" t="inlineStr">
         <is>
@@ -16297,10 +16297,10 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>-110</v>
+        <v>-104</v>
       </c>
       <c r="K284" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="L284" t="inlineStr">
         <is>
@@ -16353,10 +16353,10 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>-110</v>
+        <v>-104</v>
       </c>
       <c r="K285" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="L285" t="inlineStr">
         <is>
@@ -16409,10 +16409,10 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>-79</v>
+        <v>-73</v>
       </c>
       <c r="K286" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="L286" t="inlineStr">
         <is>
@@ -16465,10 +16465,10 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>-79</v>
+        <v>-73</v>
       </c>
       <c r="K287" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="L287" t="inlineStr">
         <is>
@@ -16521,10 +16521,10 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>-49</v>
+        <v>-43</v>
       </c>
       <c r="K288" t="n">
-        <v>-1.6</v>
+        <v>-1.4</v>
       </c>
       <c r="L288" t="inlineStr">
         <is>
@@ -16577,10 +16577,10 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K289" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L289" t="inlineStr">
         <is>
@@ -16633,10 +16633,10 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K290" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L290" t="inlineStr">
         <is>
@@ -16689,10 +16689,10 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K291" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L291" t="inlineStr">
         <is>
@@ -16745,10 +16745,10 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K292" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L292" t="inlineStr">
         <is>
@@ -16801,10 +16801,10 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K293" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L293" t="inlineStr">
         <is>
@@ -16857,10 +16857,10 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K294" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L294" t="inlineStr">
         <is>
@@ -16913,10 +16913,10 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K295" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L295" t="inlineStr">
         <is>
@@ -16969,10 +16969,10 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K296" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L296" t="inlineStr">
         <is>
@@ -17025,10 +17025,10 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K297" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L297" t="inlineStr">
         <is>
@@ -17081,10 +17081,10 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K298" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L298" t="inlineStr">
         <is>
@@ -17137,10 +17137,10 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K299" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="L299" t="inlineStr">
         <is>
@@ -17193,10 +17193,10 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K300" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
@@ -17249,10 +17249,10 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="K301" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
@@ -17305,10 +17305,10 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K302" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
@@ -17361,10 +17361,10 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K303" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L303" t="inlineStr">
         <is>
@@ -17417,10 +17417,10 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="K304" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="L304" t="inlineStr">
         <is>
@@ -17473,10 +17473,10 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="K305" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="L305" t="inlineStr">
         <is>
@@ -17529,10 +17529,10 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="K306" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="L306" t="inlineStr">
         <is>
@@ -17585,10 +17585,10 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="K307" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="L307" t="inlineStr">
         <is>
@@ -17641,10 +17641,10 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="K308" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="L308" t="inlineStr">
         <is>
@@ -17697,10 +17697,10 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="K309" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="L309" t="inlineStr">
         <is>
@@ -17753,10 +17753,10 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="K310" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="L310" t="inlineStr">
         <is>
@@ -17809,10 +17809,10 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="K311" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="L311" t="inlineStr">
         <is>
@@ -17865,10 +17865,10 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="K312" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="L312" t="inlineStr">
         <is>
@@ -17921,10 +17921,10 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>-261</v>
+        <v>-255</v>
       </c>
       <c r="K313" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.5</v>
       </c>
       <c r="L313" t="inlineStr">
         <is>
@@ -17981,10 +17981,10 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>-261</v>
+        <v>-255</v>
       </c>
       <c r="K314" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.5</v>
       </c>
       <c r="L314" t="inlineStr">
         <is>
@@ -18041,10 +18041,10 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>-110</v>
+        <v>-104</v>
       </c>
       <c r="K315" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="L315" t="inlineStr">
         <is>
@@ -18105,10 +18105,10 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>-261</v>
+        <v>-255</v>
       </c>
       <c r="K316" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.5</v>
       </c>
       <c r="L316" t="inlineStr">
         <is>
@@ -18157,10 +18157,10 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>-261</v>
+        <v>-255</v>
       </c>
       <c r="K317" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.5</v>
       </c>
       <c r="L317" t="inlineStr">
         <is>
@@ -18209,10 +18209,10 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>-261</v>
+        <v>-255</v>
       </c>
       <c r="K318" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.5</v>
       </c>
       <c r="L318" t="inlineStr">
         <is>
@@ -18261,10 +18261,10 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>-291</v>
+        <v>-285</v>
       </c>
       <c r="K319" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.5</v>
       </c>
       <c r="L319" t="inlineStr">
         <is>
@@ -18313,10 +18313,10 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>-140</v>
+        <v>-134</v>
       </c>
       <c r="K320" t="n">
-        <v>-4.7</v>
+        <v>-4.5</v>
       </c>
       <c r="L320" t="inlineStr">
         <is>
@@ -18369,10 +18369,10 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>-110</v>
+        <v>-104</v>
       </c>
       <c r="K321" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="L321" t="inlineStr">
         <is>
@@ -18425,10 +18425,10 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>-79</v>
+        <v>-73</v>
       </c>
       <c r="K322" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="L322" t="inlineStr">
         <is>
@@ -18481,10 +18481,10 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>-79</v>
+        <v>-73</v>
       </c>
       <c r="K323" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="L323" t="inlineStr">
         <is>
@@ -18537,10 +18537,10 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="K324" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="L324" t="inlineStr">
         <is>
@@ -18593,10 +18593,10 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="K325" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="L325" t="inlineStr">
         <is>
@@ -18649,10 +18649,10 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="K326" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="L326" t="inlineStr">
         <is>
@@ -18705,10 +18705,10 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="K327" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="L327" t="inlineStr">
         <is>
@@ -18761,10 +18761,10 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K328" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="L328" t="inlineStr">
         <is>
@@ -18817,10 +18817,10 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K329" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L329" t="inlineStr">
         <is>
@@ -18873,10 +18873,10 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K330" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L330" t="inlineStr">
         <is>
@@ -18929,10 +18929,10 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K331" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L331" t="inlineStr">
         <is>
@@ -18985,10 +18985,10 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K332" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L332" t="inlineStr">
         <is>
@@ -19041,10 +19041,10 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K333" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L333" t="inlineStr">
         <is>
@@ -19097,10 +19097,10 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="K334" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="L334" t="inlineStr">
         <is>
@@ -19153,10 +19153,10 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K335" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L335" t="inlineStr">
         <is>
@@ -19209,10 +19209,10 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K336" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L336" t="inlineStr">
         <is>
@@ -19265,10 +19265,10 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K337" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="L337" t="inlineStr">
         <is>
@@ -19321,10 +19321,10 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K338" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="L338" t="inlineStr">
         <is>
@@ -19377,10 +19377,10 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K339" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="L339" t="inlineStr">
         <is>
@@ -19433,10 +19433,10 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K340" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L340" t="inlineStr">
         <is>
@@ -19489,10 +19489,10 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="K341" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="L341" t="inlineStr">
         <is>
@@ -19545,10 +19545,10 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K342" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L342" t="inlineStr">
         <is>
@@ -19601,10 +19601,10 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="K343" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="L343" t="inlineStr">
         <is>
@@ -19657,10 +19657,10 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="K344" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="L344" t="inlineStr">
         <is>
@@ -19713,10 +19713,10 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="K345" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="L345" t="inlineStr">
         <is>
@@ -19769,10 +19769,10 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K346" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="L346" t="inlineStr">
         <is>
@@ -19825,10 +19825,10 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="K347" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="L347" t="inlineStr">
         <is>
@@ -19881,10 +19881,10 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K348" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="L348" t="inlineStr">
         <is>
@@ -19937,10 +19937,10 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K349" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="L349" t="inlineStr">
         <is>
@@ -19993,10 +19993,10 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="K350" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="L350" t="inlineStr">
         <is>
@@ -20049,10 +20049,10 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K351" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="L351" t="inlineStr">
         <is>
@@ -20105,10 +20105,10 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="K352" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="L352" t="inlineStr">
         <is>
@@ -20161,10 +20161,10 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K353" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="L353" t="inlineStr">
         <is>
@@ -20217,10 +20217,10 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K354" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="L354" t="inlineStr">
         <is>
@@ -20273,10 +20273,10 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="K355" t="n">
-        <v>18.6</v>
+        <v>18.8</v>
       </c>
       <c r="L355" t="inlineStr">
         <is>
@@ -20329,10 +20329,10 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="K356" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="L356" t="inlineStr">
         <is>
@@ -20385,10 +20385,10 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="K357" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="L357" t="inlineStr">
         <is>
@@ -20441,10 +20441,10 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>894</v>
+        <v>900</v>
       </c>
       <c r="K358" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="L358" t="inlineStr">
         <is>
@@ -20497,10 +20497,10 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>-202</v>
+        <v>-196</v>
       </c>
       <c r="K359" t="n">
-        <v>-6.7</v>
+        <v>-6.5</v>
       </c>
       <c r="L359" t="inlineStr">
         <is>
@@ -20557,10 +20557,10 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>-140</v>
+        <v>-134</v>
       </c>
       <c r="K360" t="n">
-        <v>-4.7</v>
+        <v>-4.5</v>
       </c>
       <c r="L360" t="inlineStr">
         <is>
@@ -20621,10 +20621,10 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>-261</v>
+        <v>-255</v>
       </c>
       <c r="K361" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.5</v>
       </c>
       <c r="L361" t="inlineStr">
         <is>
@@ -20673,10 +20673,10 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>-140</v>
+        <v>-134</v>
       </c>
       <c r="K362" t="n">
-        <v>-4.7</v>
+        <v>-4.5</v>
       </c>
       <c r="L362" t="inlineStr">
         <is>
@@ -20729,10 +20729,10 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>-49</v>
+        <v>-43</v>
       </c>
       <c r="K363" t="n">
-        <v>-1.6</v>
+        <v>-1.4</v>
       </c>
       <c r="L363" t="inlineStr">
         <is>
@@ -20785,10 +20785,10 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K364" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L364" t="inlineStr">
         <is>
@@ -20841,10 +20841,10 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K365" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L365" t="inlineStr">
         <is>
@@ -20897,10 +20897,10 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K366" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L366" t="inlineStr">
         <is>
@@ -20953,10 +20953,10 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="K367" t="n">
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="L367" t="inlineStr">
         <is>
@@ -21009,10 +21009,10 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="K368" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="L368" t="inlineStr">
         <is>
@@ -21065,10 +21065,10 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>-140</v>
+        <v>-134</v>
       </c>
       <c r="K369" t="n">
-        <v>-4.7</v>
+        <v>-4.5</v>
       </c>
       <c r="L369" t="inlineStr">
         <is>
@@ -21129,10 +21129,10 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>-140</v>
+        <v>-134</v>
       </c>
       <c r="K370" t="n">
-        <v>-4.7</v>
+        <v>-4.5</v>
       </c>
       <c r="L370" t="inlineStr">
         <is>
@@ -21193,10 +21193,10 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>-140</v>
+        <v>-134</v>
       </c>
       <c r="K371" t="n">
-        <v>-4.7</v>
+        <v>-4.5</v>
       </c>
       <c r="L371" t="inlineStr">
         <is>
@@ -21257,10 +21257,10 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>-291</v>
+        <v>-285</v>
       </c>
       <c r="K372" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.5</v>
       </c>
       <c r="L372" t="inlineStr">
         <is>
@@ -21309,10 +21309,10 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>-140</v>
+        <v>-134</v>
       </c>
       <c r="K373" t="n">
-        <v>-4.7</v>
+        <v>-4.5</v>
       </c>
       <c r="L373" t="inlineStr">
         <is>
@@ -21365,10 +21365,10 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>-79</v>
+        <v>-73</v>
       </c>
       <c r="K374" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="L374" t="inlineStr">
         <is>
@@ -21421,10 +21421,10 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="K375" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="L375" t="inlineStr">
         <is>
@@ -21477,10 +21477,10 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="K376" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="L376" t="inlineStr">
         <is>
@@ -21533,10 +21533,10 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>-79</v>
+        <v>-73</v>
       </c>
       <c r="K377" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="L377" t="inlineStr">
         <is>
@@ -21589,10 +21589,10 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K378" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L378" t="inlineStr">
         <is>
@@ -21645,10 +21645,10 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K379" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L379" t="inlineStr">
         <is>
@@ -21701,10 +21701,10 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K380" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L380" t="inlineStr">
         <is>
@@ -21757,10 +21757,10 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K381" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L381" t="inlineStr">
         <is>
@@ -21813,10 +21813,10 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="K382" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="L382" t="inlineStr">
         <is>
@@ -21869,10 +21869,10 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K383" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L383" t="inlineStr">
         <is>
@@ -21925,10 +21925,10 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K384" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L384" t="inlineStr">
         <is>
@@ -21981,10 +21981,10 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K385" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L385" t="inlineStr">
         <is>
@@ -22037,10 +22037,10 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K386" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L386" t="inlineStr">
         <is>
@@ -22093,10 +22093,10 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K387" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="L387" t="inlineStr">
         <is>
@@ -22149,10 +22149,10 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K388" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="L388" t="inlineStr">
         <is>
@@ -22205,10 +22205,10 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K389" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="L389" t="inlineStr">
         <is>
@@ -22261,10 +22261,10 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="K390" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="L390" t="inlineStr">
         <is>
@@ -22317,10 +22317,10 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K391" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="L391" t="inlineStr">
         <is>
@@ -22373,10 +22373,10 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="K392" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="L392" t="inlineStr">
         <is>
@@ -22429,10 +22429,10 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="K393" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="L393" t="inlineStr">
         <is>
@@ -22485,10 +22485,10 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="K394" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="L394" t="inlineStr">
         <is>
@@ -22541,10 +22541,10 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="K395" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="L395" t="inlineStr">
         <is>
@@ -22597,10 +22597,10 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="K396" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="L396" t="inlineStr">
         <is>
@@ -22653,10 +22653,10 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="K397" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="L397" t="inlineStr">
         <is>
@@ -22709,10 +22709,10 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="K398" t="n">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="L398" t="inlineStr">
         <is>
@@ -22765,10 +22765,10 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="K399" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="L399" t="inlineStr">
         <is>
@@ -22821,10 +22821,10 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>-202</v>
+        <v>-196</v>
       </c>
       <c r="K400" t="n">
-        <v>-6.7</v>
+        <v>-6.5</v>
       </c>
       <c r="L400" t="inlineStr">
         <is>
@@ -22881,10 +22881,10 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K401" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="L401" t="inlineStr">
         <is>
@@ -22947,10 +22947,10 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>-261</v>
+        <v>-255</v>
       </c>
       <c r="K402" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.5</v>
       </c>
       <c r="L402" t="inlineStr">
         <is>
@@ -22999,10 +22999,10 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K403" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L403" t="inlineStr">
         <is>
@@ -23055,10 +23055,10 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K404" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L404" t="inlineStr">
         <is>
@@ -23111,10 +23111,10 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K405" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L405" t="inlineStr">
         <is>
@@ -23167,10 +23167,10 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K406" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L406" t="inlineStr">
         <is>
@@ -23223,10 +23223,10 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K407" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L407" t="inlineStr">
         <is>
@@ -23279,10 +23279,10 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K408" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L408" t="inlineStr">
         <is>
@@ -23335,10 +23335,10 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K409" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="L409" t="inlineStr">
         <is>
@@ -23391,10 +23391,10 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K410" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="L410" t="inlineStr">
         <is>
@@ -23447,10 +23447,10 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K411" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="L411" t="inlineStr">
         <is>
@@ -23503,10 +23503,10 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K412" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="L412" t="inlineStr">
         <is>
@@ -23559,10 +23559,10 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K413" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="L413" t="inlineStr">
         <is>
@@ -23615,10 +23615,10 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="K414" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="L414" t="inlineStr">
         <is>
@@ -23671,10 +23671,10 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="K415" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="L415" t="inlineStr">
         <is>
@@ -23727,10 +23727,10 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="K416" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="L416" t="inlineStr">
         <is>
@@ -23783,10 +23783,10 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="K417" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="L417" t="inlineStr">
         <is>
@@ -23839,10 +23839,10 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="K418" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="L418" t="inlineStr">
         <is>
@@ -23895,10 +23895,10 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="K419" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="L419" t="inlineStr">
         <is>
@@ -23951,10 +23951,10 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>-79</v>
+        <v>-73</v>
       </c>
       <c r="K420" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="L420" t="inlineStr">
         <is>
@@ -24017,10 +24017,10 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="K421" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="L421" t="inlineStr">
         <is>
@@ -24083,10 +24083,10 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>-18</v>
+        <v>-12</v>
       </c>
       <c r="K422" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="L422" t="inlineStr">
         <is>
@@ -24147,10 +24147,10 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K423" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L423" t="inlineStr">
         <is>
@@ -24213,10 +24213,10 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K424" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L424" t="inlineStr">
         <is>
@@ -24279,10 +24279,10 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>-230</v>
+        <v>-224</v>
       </c>
       <c r="K425" t="n">
-        <v>-7.7</v>
+        <v>-7.5</v>
       </c>
       <c r="L425" t="inlineStr">
         <is>
@@ -24331,10 +24331,10 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K426" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L426" t="inlineStr">
         <is>
@@ -24387,10 +24387,10 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K427" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="L427" t="inlineStr">
         <is>
@@ -24443,10 +24443,10 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K428" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L428" t="inlineStr">
         <is>
@@ -24499,10 +24499,10 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K429" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L429" t="inlineStr">
         <is>
@@ -24555,10 +24555,10 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K430" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L430" t="inlineStr">
         <is>
@@ -24611,10 +24611,10 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K431" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="L431" t="inlineStr">
         <is>
@@ -24667,10 +24667,10 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K432" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="L432" t="inlineStr">
         <is>
@@ -24723,10 +24723,10 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K433" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="L433" t="inlineStr">
         <is>
@@ -24779,10 +24779,10 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="K434" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="L434" t="inlineStr">
         <is>
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="K435" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="L435" t="inlineStr">
         <is>
@@ -24891,10 +24891,10 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="K436" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="L436" t="inlineStr">
         <is>
@@ -24947,10 +24947,10 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="K437" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="L437" t="inlineStr">
         <is>
@@ -25003,10 +25003,10 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>-110</v>
+        <v>-104</v>
       </c>
       <c r="K438" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="L438" t="inlineStr">
         <is>
@@ -25067,10 +25067,10 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>-110</v>
+        <v>-104</v>
       </c>
       <c r="K439" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="L439" t="inlineStr">
         <is>
@@ -25131,10 +25131,10 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K440" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L440" t="inlineStr">
         <is>
@@ -25187,10 +25187,10 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K441" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L441" t="inlineStr">
         <is>
@@ -25243,10 +25243,10 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K442" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L442" t="inlineStr">
         <is>
@@ -25299,10 +25299,10 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K443" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="L443" t="inlineStr">
         <is>
@@ -25355,10 +25355,10 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K444" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L444" t="inlineStr">
         <is>
@@ -25411,10 +25411,10 @@
         </is>
       </c>
       <c r="J445" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K445" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L445" t="inlineStr">
         <is>
@@ -25467,10 +25467,10 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K446" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L446" t="inlineStr">
         <is>
@@ -25523,10 +25523,10 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K447" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L447" t="inlineStr">
         <is>
@@ -25579,10 +25579,10 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K448" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L448" t="inlineStr">
         <is>
@@ -25635,10 +25635,10 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K449" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="L449" t="inlineStr">
         <is>
@@ -25691,10 +25691,10 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K450" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L450" t="inlineStr">
         <is>
@@ -25747,10 +25747,10 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="K451" t="n">
-        <v>16.7</v>
+        <v>16.9</v>
       </c>
       <c r="L451" t="inlineStr">
         <is>
@@ -25803,10 +25803,10 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="K452" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="L452" t="inlineStr">
         <is>
@@ -25859,10 +25859,10 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="K453" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="L453" t="inlineStr">
         <is>
@@ -25915,10 +25915,10 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="K454" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="L454" t="inlineStr">
         <is>
@@ -25971,10 +25971,10 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="K455" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="L455" t="inlineStr">
         <is>
@@ -26027,10 +26027,10 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="K456" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="L456" t="inlineStr">
         <is>
@@ -26083,10 +26083,10 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="K457" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="L457" t="inlineStr">
         <is>
@@ -26139,10 +26139,10 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>-202</v>
+        <v>-196</v>
       </c>
       <c r="K458" t="n">
-        <v>-6.7</v>
+        <v>-6.5</v>
       </c>
       <c r="L458" t="inlineStr">
         <is>
@@ -26199,10 +26199,10 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K459" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L459" t="inlineStr">
         <is>
@@ -26265,10 +26265,10 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>-110</v>
+        <v>-104</v>
       </c>
       <c r="K460" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="L460" t="inlineStr">
         <is>
@@ -26321,10 +26321,10 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K461" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L461" t="inlineStr">
         <is>
@@ -26377,10 +26377,10 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K462" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L462" t="inlineStr">
         <is>
@@ -26433,10 +26433,10 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K463" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L463" t="inlineStr">
         <is>
@@ -26489,10 +26489,10 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K464" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="L464" t="inlineStr">
         <is>
@@ -26545,10 +26545,10 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K465" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="L465" t="inlineStr">
         <is>
@@ -26601,10 +26601,10 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K466" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="L466" t="inlineStr">
         <is>
@@ -26657,10 +26657,10 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>-49</v>
+        <v>-43</v>
       </c>
       <c r="K467" t="n">
-        <v>-1.6</v>
+        <v>-1.4</v>
       </c>
       <c r="L467" t="inlineStr">
         <is>
@@ -26713,10 +26713,10 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K468" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="L468" t="inlineStr">
         <is>
@@ -26769,10 +26769,10 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K469" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="L469" t="inlineStr">
         <is>
@@ -26825,10 +26825,10 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K470" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="L470" t="inlineStr">
         <is>
@@ -26881,10 +26881,10 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K471" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="L471" t="inlineStr">
         <is>
@@ -26937,10 +26937,10 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K472" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="L472" t="inlineStr">
         <is>
@@ -26993,10 +26993,10 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="K473" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="L473" t="inlineStr">
         <is>
@@ -27049,10 +27049,10 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="K474" t="n">
-        <v>24.8</v>
+        <v>25</v>
       </c>
       <c r="L474" t="inlineStr">
         <is>
@@ -27105,10 +27105,10 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>-291</v>
+        <v>-285</v>
       </c>
       <c r="K475" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.5</v>
       </c>
       <c r="L475" t="inlineStr">
         <is>
@@ -27165,10 +27165,10 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>-171</v>
+        <v>-165</v>
       </c>
       <c r="K476" t="n">
-        <v>-5.7</v>
+        <v>-5.5</v>
       </c>
       <c r="L476" t="inlineStr">
         <is>
@@ -27231,10 +27231,10 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="K477" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L477" t="inlineStr">
         <is>
@@ -27287,10 +27287,10 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="K478" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="L478" t="inlineStr">
         <is>
@@ -27343,10 +27343,10 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>-475</v>
+        <v>-469</v>
       </c>
       <c r="K479" t="n">
-        <v>-15.8</v>
+        <v>-15.6</v>
       </c>
       <c r="L479" t="inlineStr">
         <is>
@@ -27403,10 +27403,10 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>-475</v>
+        <v>-469</v>
       </c>
       <c r="K480" t="n">
-        <v>-15.8</v>
+        <v>-15.6</v>
       </c>
       <c r="L480" t="inlineStr">
         <is>
@@ -27463,10 +27463,10 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>-475</v>
+        <v>-469</v>
       </c>
       <c r="K481" t="n">
-        <v>-15.8</v>
+        <v>-15.6</v>
       </c>
       <c r="L481" t="inlineStr">
         <is>
@@ -27523,10 +27523,10 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>-414</v>
+        <v>-408</v>
       </c>
       <c r="K482" t="n">
-        <v>-13.8</v>
+        <v>-13.6</v>
       </c>
       <c r="L482" t="inlineStr">
         <is>
@@ -27575,10 +27575,10 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>-322</v>
+        <v>-316</v>
       </c>
       <c r="K483" t="n">
-        <v>-10.7</v>
+        <v>-10.5</v>
       </c>
       <c r="L483" t="inlineStr">
         <is>
@@ -27627,10 +27627,10 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>-261</v>
+        <v>-255</v>
       </c>
       <c r="K484" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.5</v>
       </c>
       <c r="L484" t="inlineStr">
         <is>
@@ -27679,10 +27679,10 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>-49</v>
+        <v>-43</v>
       </c>
       <c r="K485" t="n">
-        <v>-1.6</v>
+        <v>-1.4</v>
       </c>
       <c r="L485" t="inlineStr">
         <is>
@@ -27735,10 +27735,10 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K486" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="L486" t="inlineStr">
         <is>
@@ -27791,10 +27791,10 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="K487" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="L487" t="inlineStr">
         <is>
@@ -27847,10 +27847,10 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K488" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="L488" t="inlineStr">
         <is>
@@ -27903,10 +27903,10 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K489" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="L489" t="inlineStr">
         <is>
@@ -27959,10 +27959,10 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="K490" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="L490" t="inlineStr">
         <is>
@@ -28015,10 +28015,10 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="K491" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="L491" t="inlineStr">
         <is>
@@ -28071,10 +28071,10 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K492" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="L492" t="inlineStr">
         <is>
@@ -28127,10 +28127,10 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K493" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="L493" t="inlineStr">
         <is>
@@ -28183,10 +28183,10 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="K494" t="n">
-        <v>17.6</v>
+        <v>17.8</v>
       </c>
       <c r="L494" t="inlineStr">
         <is>
@@ -28239,10 +28239,10 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="K495" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="L495" t="inlineStr">
         <is>
@@ -28295,10 +28295,10 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="K496" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="L496" t="inlineStr">
         <is>
@@ -28351,10 +28351,10 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="K497" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="L497" t="inlineStr">
         <is>
@@ -28407,10 +28407,10 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="K498" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="L498" t="inlineStr">
         <is>
@@ -28463,10 +28463,10 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>-79</v>
+        <v>-73</v>
       </c>
       <c r="K499" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="L499" t="inlineStr">
         <is>
@@ -28527,10 +28527,10 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>-79</v>
+        <v>-73</v>
       </c>
       <c r="K500" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="L500" t="inlineStr">
         <is>
@@ -28591,10 +28591,10 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>-140</v>
+        <v>-134</v>
       </c>
       <c r="K501" t="n">
-        <v>-4.7</v>
+        <v>-4.5</v>
       </c>
       <c r="L501" t="inlineStr">
         <is>
@@ -28647,10 +28647,10 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>-49</v>
+        <v>-43</v>
       </c>
       <c r="K502" t="n">
-        <v>-1.6</v>
+        <v>-1.4</v>
       </c>
       <c r="L502" t="inlineStr">
         <is>
@@ -28703,10 +28703,10 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K503" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="L503" t="inlineStr">
         <is>
@@ -28759,10 +28759,10 @@
         </is>
       </c>
       <c r="J504" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K504" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L504" t="inlineStr">
         <is>
@@ -28815,10 +28815,10 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K505" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L505" t="inlineStr">
         <is>
@@ -28871,10 +28871,10 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="K506" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L506" t="inlineStr">
         <is>
@@ -28927,10 +28927,10 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K507" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="L507" t="inlineStr">
         <is>
@@ -28983,10 +28983,10 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K508" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L508" t="inlineStr">
         <is>
@@ -29039,10 +29039,10 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K509" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="L509" t="inlineStr">
         <is>
@@ -29095,10 +29095,10 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="K510" t="n">
-        <v>25.8</v>
+        <v>26</v>
       </c>
       <c r="L510" t="inlineStr">
         <is>
@@ -29151,10 +29151,10 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="K511" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="L511" t="inlineStr">
         <is>
@@ -29207,10 +29207,10 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>-140</v>
+        <v>-134</v>
       </c>
       <c r="K512" t="n">
-        <v>-4.7</v>
+        <v>-4.5</v>
       </c>
       <c r="L512" t="inlineStr">
         <is>
@@ -29271,10 +29271,10 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="K513" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="L513" t="inlineStr">
         <is>
@@ -29327,10 +29327,10 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K514" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="L514" t="inlineStr">
         <is>
@@ -29383,10 +29383,10 @@
         </is>
       </c>
       <c r="J515" t="n">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K515" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="L515" t="inlineStr">
         <is>

--- a/planilha_supply1.xlsx
+++ b/planilha_supply1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P515"/>
+  <dimension ref="A1:Q515"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,20 +491,25 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Write off</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Plant</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BSK</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Blocked</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Destruição</t>
         </is>
@@ -557,18 +562,21 @@
           <t>9999-04-05</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -617,18 +625,21 @@
           <t>2023-10-04</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>BR01</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -677,18 +688,21 @@
           <t>2023-10-04</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -737,20 +751,23 @@
           <t>2023-07-05</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>28</v>
       </c>
-      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -799,10 +816,13 @@
           <t>2024-08-03</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -851,10 +871,13 @@
           <t>2023-10-04</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -903,10 +926,13 @@
           <t>2023-10-04</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -955,10 +981,13 @@
           <t>2023-10-04</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1007,10 +1036,13 @@
           <t>2023-05-06</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1059,10 +1091,13 @@
           <t>2023-04-05</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1111,10 +1146,13 @@
           <t>2023-05-06</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1163,10 +1201,13 @@
           <t>2023-03-05</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1215,10 +1256,13 @@
           <t>2023-03-05</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1267,10 +1311,13 @@
           <t>2022-11-03</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1319,10 +1366,13 @@
           <t>2022-11-03</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1371,10 +1421,13 @@
           <t>2022-11-03</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1423,10 +1476,13 @@
           <t>2022-09-03</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1475,10 +1531,13 @@
           <t>2022-09-03</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1527,10 +1586,13 @@
           <t>2022-07-04</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1579,10 +1641,13 @@
           <t>2022-07-04</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1631,10 +1696,13 @@
           <t>2022-05-06</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1683,10 +1751,13 @@
           <t>2022-05-06</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1735,10 +1806,13 @@
           <t>2022-01-03</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr">
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -1791,10 +1865,13 @@
           <t>2022-01-03</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr">
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -1847,10 +1924,13 @@
           <t>2022-01-03</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr">
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -1903,10 +1983,13 @@
           <t>2022-01-03</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr">
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -1959,10 +2042,13 @@
           <t>2021-07-04</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr">
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -2015,10 +2101,13 @@
           <t>2021-09-03</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr">
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -2071,10 +2160,13 @@
           <t>2021-09-03</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr">
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -2127,10 +2219,13 @@
           <t>2021-07-04</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr">
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -2183,10 +2278,13 @@
           <t>2021-05-06</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr">
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -2239,18 +2337,21 @@
           <t>9999-04-05</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2299,18 +2400,21 @@
           <t>2022-07-04</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>BR01</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2359,18 +2463,21 @@
           <t>2022-07-04</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>BR01</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2419,18 +2526,21 @@
           <t>2022-07-04</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr">
+      <c r="O36" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2479,10 +2589,13 @@
           <t>2022-07-04</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2531,10 +2644,13 @@
           <t>2022-02-03</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr">
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -2587,10 +2703,13 @@
           <t>2022-01-03</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr">
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -2643,10 +2762,13 @@
           <t>2022-02-03</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr">
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -2699,10 +2821,13 @@
           <t>2022-01-03</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr">
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -2755,10 +2880,13 @@
           <t>2022-01-03</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr">
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -2811,10 +2939,13 @@
           <t>2021-09-03</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr">
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -2867,10 +2998,13 @@
           <t>2021-09-03</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr">
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -2923,10 +3057,13 @@
           <t>2021-02-03</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr">
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -2979,10 +3116,13 @@
           <t>2020-07-04</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr">
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -3035,10 +3175,13 @@
           <t>2021-03-05</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr">
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -3091,10 +3234,13 @@
           <t>2020-07-04</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr">
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -3147,10 +3293,13 @@
           <t>2020-05-06</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr">
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -3203,10 +3352,13 @@
           <t>2020-07-04</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr">
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -3259,10 +3411,13 @@
           <t>2020-05-06</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr">
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -3315,10 +3470,13 @@
           <t>2019-09-04</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr">
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -3371,10 +3529,13 @@
           <t>2019-09-04</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr">
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -3427,10 +3588,13 @@
           <t>2019-05-06</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr">
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -3483,18 +3647,21 @@
           <t>2021-01-03</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr">
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="O55" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr">
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -3547,18 +3714,21 @@
           <t>2024-04-05</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="inlineStr">
         <is>
           <t>BR01</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="O56" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3607,18 +3777,21 @@
           <t>2024-04-05</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr">
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="O57" t="inlineStr">
         <is>
           <t>9.0</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3667,20 +3840,23 @@
           <t>2024-04-05</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr">
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="O58" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O58" t="n">
+      <c r="P58" t="n">
         <v>339</v>
       </c>
-      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3729,18 +3905,21 @@
           <t>2024-04-05</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="O59" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3789,18 +3968,21 @@
           <t>2024-04-05</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr">
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr">
+      <c r="O60" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3849,18 +4031,21 @@
           <t>2023-10-04</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr">
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr">
+      <c r="O61" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3909,10 +4094,13 @@
           <t>2024-08-03</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3961,10 +4149,13 @@
           <t>2023-10-04</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -4013,10 +4204,13 @@
           <t>2023-10-04</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -4065,10 +4259,13 @@
           <t>2023-04-05</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -4117,10 +4314,13 @@
           <t>2023-01-03</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -4169,10 +4369,13 @@
           <t>2023-01-03</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4221,10 +4424,13 @@
           <t>2023-01-03</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4273,10 +4479,13 @@
           <t>2023-10-04</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4325,10 +4534,13 @@
           <t>2023-02-03</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4377,10 +4589,13 @@
           <t>2023-10-04</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4429,10 +4644,13 @@
           <t>2023-10-04</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4481,10 +4699,13 @@
           <t>2023-02-02</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
       <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4533,10 +4754,13 @@
           <t>2023-02-02</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4585,10 +4809,13 @@
           <t>2023-04-05</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4637,10 +4864,13 @@
           <t>2023-02-03</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4689,10 +4919,13 @@
           <t>2023-04-05</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4741,10 +4974,13 @@
           <t>2022-10-03</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
       <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4793,10 +5029,13 @@
           <t>2023-04-05</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
       <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4845,10 +5084,13 @@
           <t>2023-02-03</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
       <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4897,10 +5139,13 @@
           <t>2023-04-05</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
       <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4949,10 +5194,13 @@
           <t>2023-04-05</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -5001,10 +5249,13 @@
           <t>2023-04-05</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -5053,10 +5304,13 @@
           <t>2022-10-03</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -5105,10 +5359,13 @@
           <t>2022-10-03</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -5157,10 +5414,13 @@
           <t>2023-01-03</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5209,10 +5469,13 @@
           <t>2023-01-03</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
       <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5261,10 +5524,13 @@
           <t>2023-01-03</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5313,10 +5579,13 @@
           <t>2022-10-03</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5365,10 +5634,13 @@
           <t>2022-10-03</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5417,10 +5689,13 @@
           <t>2022-10-03</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr"/>
       <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5469,10 +5744,13 @@
           <t>2022-10-03</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr"/>
       <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5521,10 +5799,13 @@
           <t>2022-10-03</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5573,10 +5854,13 @@
           <t>2022-05-06</t>
         </is>
       </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5625,10 +5909,13 @@
           <t>2022-08-03</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5677,10 +5964,13 @@
           <t>2022-08-03</t>
         </is>
       </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5729,10 +6019,13 @@
           <t>2022-08-03</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5781,10 +6074,13 @@
           <t>2022-10-03</t>
         </is>
       </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
       <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5833,10 +6129,13 @@
           <t>2022-05-06</t>
         </is>
       </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5885,10 +6184,13 @@
           <t>2022-08-03</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr"/>
       <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5937,10 +6239,13 @@
           <t>2022-08-03</t>
         </is>
       </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr"/>
       <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5989,10 +6294,13 @@
           <t>2022-08-03</t>
         </is>
       </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr"/>
       <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -6041,10 +6349,13 @@
           <t>2022-08-03</t>
         </is>
       </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr"/>
       <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -6093,10 +6404,13 @@
           <t>2022-08-03</t>
         </is>
       </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr"/>
       <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -6145,10 +6459,13 @@
           <t>2022-04-05</t>
         </is>
       </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr">
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -6201,10 +6518,13 @@
           <t>2022-04-05</t>
         </is>
       </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr">
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -6257,10 +6577,13 @@
           <t>2022-07-04</t>
         </is>
       </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr"/>
       <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6309,10 +6632,13 @@
           <t>2022-07-04</t>
         </is>
       </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr"/>
       <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6361,10 +6687,13 @@
           <t>2022-02-03</t>
         </is>
       </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr">
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -6417,10 +6746,13 @@
           <t>2022-02-03</t>
         </is>
       </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr">
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -6473,10 +6805,13 @@
           <t>2022-02-03</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr">
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -6529,10 +6864,13 @@
           <t>2022-02-03</t>
         </is>
       </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr">
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -6585,10 +6923,13 @@
           <t>2022-02-03</t>
         </is>
       </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr">
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -6641,10 +6982,13 @@
           <t>2022-02-03</t>
         </is>
       </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr">
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -6697,10 +7041,13 @@
           <t>2022-02-03</t>
         </is>
       </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr">
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -6753,10 +7100,13 @@
           <t>2022-02-03</t>
         </is>
       </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr">
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -6809,10 +7159,13 @@
           <t>2021-11-03</t>
         </is>
       </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr">
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -6865,10 +7218,13 @@
           <t>2021-11-03</t>
         </is>
       </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr">
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -6921,10 +7277,13 @@
           <t>2021-10-03</t>
         </is>
       </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr">
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -6977,10 +7336,13 @@
           <t>2021-11-03</t>
         </is>
       </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr">
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -7033,10 +7395,13 @@
           <t>2021-11-03</t>
         </is>
       </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr">
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -7089,10 +7454,13 @@
           <t>2021-10-03</t>
         </is>
       </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr">
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -7145,10 +7513,13 @@
           <t>2021-10-03</t>
         </is>
       </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr">
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -7201,18 +7572,21 @@
           <t>2022-08-03</t>
         </is>
       </c>
-      <c r="M124" t="inlineStr">
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="inlineStr">
         <is>
           <t>BR01</t>
         </is>
       </c>
-      <c r="N124" t="inlineStr">
+      <c r="O124" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="O124" t="inlineStr"/>
       <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7261,18 +7635,21 @@
           <t>2022-04-05</t>
         </is>
       </c>
-      <c r="M125" t="inlineStr">
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="inlineStr">
         <is>
           <t>BR01</t>
         </is>
       </c>
-      <c r="N125" t="inlineStr">
+      <c r="O125" t="inlineStr">
         <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr">
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -7325,18 +7702,21 @@
           <t>2022-04-05</t>
         </is>
       </c>
-      <c r="M126" t="inlineStr">
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N126" t="inlineStr">
+      <c r="O126" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr">
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -7389,18 +7769,21 @@
           <t>2021-12-04</t>
         </is>
       </c>
-      <c r="M127" t="inlineStr">
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="inlineStr">
         <is>
           <t>BR01</t>
         </is>
       </c>
-      <c r="N127" t="inlineStr">
+      <c r="O127" t="inlineStr">
         <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr">
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -7453,10 +7836,13 @@
           <t>2022-01-03</t>
         </is>
       </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr">
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -7509,10 +7895,13 @@
           <t>2022-02-03</t>
         </is>
       </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr">
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -7565,10 +7954,13 @@
           <t>2022-01-03</t>
         </is>
       </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr">
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -7621,10 +8013,13 @@
           <t>2021-11-03</t>
         </is>
       </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr">
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -7677,10 +8072,13 @@
           <t>2021-10-03</t>
         </is>
       </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr">
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -7733,10 +8131,13 @@
           <t>2021-10-03</t>
         </is>
       </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr">
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -7789,10 +8190,13 @@
           <t>2021-09-03</t>
         </is>
       </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr">
+      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -7845,10 +8249,13 @@
           <t>2021-09-03</t>
         </is>
       </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr">
+      <c r="P135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -7901,10 +8308,13 @@
           <t>2021-09-03</t>
         </is>
       </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr">
+      <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -7957,10 +8367,13 @@
           <t>2021-09-03</t>
         </is>
       </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr">
+      <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -8013,10 +8426,13 @@
           <t>2021-03-05</t>
         </is>
       </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr">
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -8069,10 +8485,13 @@
           <t>2021-03-05</t>
         </is>
       </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr">
+      <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -8125,10 +8544,13 @@
           <t>2021-02-03</t>
         </is>
       </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr">
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -8181,10 +8603,13 @@
           <t>2021-01-03</t>
         </is>
       </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr">
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -8237,10 +8662,13 @@
           <t>2021-01-03</t>
         </is>
       </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr">
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -8293,10 +8721,13 @@
           <t>2020-12-04</t>
         </is>
       </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr">
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -8349,10 +8780,13 @@
           <t>2021-01-03</t>
         </is>
       </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr">
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -8405,10 +8839,13 @@
           <t>2021-01-03</t>
         </is>
       </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr">
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -8461,10 +8898,13 @@
           <t>2021-01-03</t>
         </is>
       </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr">
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -8517,10 +8957,13 @@
           <t>2020-08-03</t>
         </is>
       </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr">
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -8573,10 +9016,13 @@
           <t>2020-07-04</t>
         </is>
       </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr">
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -8629,10 +9075,13 @@
           <t>2020-08-03</t>
         </is>
       </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr">
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -8685,10 +9134,13 @@
           <t>2020-04-05</t>
         </is>
       </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr">
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -8741,10 +9193,13 @@
           <t>2020-06-03</t>
         </is>
       </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr">
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -8797,10 +9252,13 @@
           <t>2020-06-03</t>
         </is>
       </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr">
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -8853,10 +9311,13 @@
           <t>2020-06-03</t>
         </is>
       </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr">
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -8909,10 +9370,13 @@
           <t>2020-03-05</t>
         </is>
       </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr">
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -8965,10 +9429,13 @@
           <t>2020-03-05</t>
         </is>
       </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr">
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -9021,10 +9488,13 @@
           <t>2020-03-05</t>
         </is>
       </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>0</v>
+      </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr">
+      <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -9077,10 +9547,13 @@
           <t>2019-08-04</t>
         </is>
       </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr">
+      <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -9133,10 +9606,13 @@
           <t>2019-09-04</t>
         </is>
       </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr">
+      <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -9189,10 +9665,13 @@
           <t>2019-09-04</t>
         </is>
       </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>0</v>
+      </c>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr">
+      <c r="P159" t="inlineStr"/>
+      <c r="Q159" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -9245,10 +9724,13 @@
           <t>2019-11-04</t>
         </is>
       </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr">
+      <c r="P160" t="inlineStr"/>
+      <c r="Q160" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -9301,10 +9783,13 @@
           <t>2019-11-04</t>
         </is>
       </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr">
+      <c r="P161" t="inlineStr"/>
+      <c r="Q161" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -9357,10 +9842,13 @@
           <t>2019-11-04</t>
         </is>
       </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr">
+      <c r="P162" t="inlineStr"/>
+      <c r="Q162" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -9413,10 +9901,13 @@
           <t>2019-08-04</t>
         </is>
       </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr">
+      <c r="P163" t="inlineStr"/>
+      <c r="Q163" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -9469,10 +9960,13 @@
           <t>2019-09-04</t>
         </is>
       </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>0</v>
+      </c>
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr">
+      <c r="P164" t="inlineStr"/>
+      <c r="Q164" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -9525,18 +10019,21 @@
           <t>2023-04-05</t>
         </is>
       </c>
-      <c r="M165" t="inlineStr">
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="inlineStr">
         <is>
           <t>BR01</t>
         </is>
       </c>
-      <c r="N165" t="inlineStr">
+      <c r="O165" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="O165" t="inlineStr"/>
       <c r="P165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -9585,18 +10082,21 @@
           <t>2022-12-04</t>
         </is>
       </c>
-      <c r="M166" t="inlineStr">
+      <c r="M166" t="n">
+        <v>0</v>
+      </c>
+      <c r="N166" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N166" t="inlineStr">
+      <c r="O166" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O166" t="inlineStr"/>
       <c r="P166" t="inlineStr"/>
+      <c r="Q166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -9645,18 +10145,21 @@
           <t>2022-12-04</t>
         </is>
       </c>
-      <c r="M167" t="inlineStr">
+      <c r="M167" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N167" t="inlineStr">
+      <c r="O167" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O167" t="inlineStr"/>
       <c r="P167" t="inlineStr"/>
+      <c r="Q167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -9705,10 +10208,13 @@
           <t>2021-09-03</t>
         </is>
       </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr">
+      <c r="P168" t="inlineStr"/>
+      <c r="Q168" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -9761,10 +10267,13 @@
           <t>2021-04-05</t>
         </is>
       </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr">
+      <c r="P169" t="inlineStr"/>
+      <c r="Q169" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -9817,10 +10326,13 @@
           <t>2021-03-05</t>
         </is>
       </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr">
+      <c r="P170" t="inlineStr"/>
+      <c r="Q170" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -9873,10 +10385,13 @@
           <t>2020-08-03</t>
         </is>
       </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr">
+      <c r="P171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -9929,18 +10444,21 @@
           <t>2023-08-31</t>
         </is>
       </c>
-      <c r="M172" t="inlineStr">
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N172" t="inlineStr">
+      <c r="O172" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O172" t="inlineStr"/>
       <c r="P172" t="inlineStr"/>
+      <c r="Q172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -9989,18 +10507,21 @@
           <t>2021-04-30</t>
         </is>
       </c>
-      <c r="M173" t="inlineStr">
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N173" t="inlineStr">
+      <c r="O173" t="inlineStr">
         <is>
           <t>6.0</t>
         </is>
       </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr">
+      <c r="P173" t="inlineStr"/>
+      <c r="Q173" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -10053,10 +10574,13 @@
           <t>2021-11-30</t>
         </is>
       </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr">
+      <c r="P174" t="inlineStr"/>
+      <c r="Q174" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -10109,18 +10633,21 @@
           <t>2023-05-06</t>
         </is>
       </c>
-      <c r="M175" t="inlineStr">
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N175" t="inlineStr">
+      <c r="O175" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O175" t="inlineStr"/>
       <c r="P175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -10169,18 +10696,21 @@
           <t>2023-06-03</t>
         </is>
       </c>
-      <c r="M176" t="inlineStr">
+      <c r="M176" t="n">
+        <v>530</v>
+      </c>
+      <c r="N176" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N176" t="inlineStr">
+      <c r="O176" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O176" t="inlineStr"/>
       <c r="P176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -10229,10 +10759,13 @@
           <t>2022-04-05</t>
         </is>
       </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="M177" t="n">
+        <v>0</v>
+      </c>
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr">
+      <c r="P177" t="inlineStr"/>
+      <c r="Q177" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -10285,10 +10818,13 @@
           <t>2021-06-03</t>
         </is>
       </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="M178" t="n">
+        <v>0</v>
+      </c>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr">
+      <c r="P178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -10341,10 +10877,13 @@
           <t>2021-06-03</t>
         </is>
       </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr">
+      <c r="P179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -10397,10 +10936,13 @@
           <t>2021-02-03</t>
         </is>
       </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr">
+      <c r="P180" t="inlineStr"/>
+      <c r="Q180" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -10453,10 +10995,13 @@
           <t>2021-02-03</t>
         </is>
       </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr">
+      <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -10509,10 +11054,13 @@
           <t>2021-02-03</t>
         </is>
       </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="M182" t="n">
+        <v>0</v>
+      </c>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr">
+      <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -10565,10 +11113,13 @@
           <t>2021-02-03</t>
         </is>
       </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="M183" t="n">
+        <v>0</v>
+      </c>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr">
+      <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -10621,10 +11172,13 @@
           <t>2021-02-03</t>
         </is>
       </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>0</v>
+      </c>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr">
+      <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -10677,20 +11231,21 @@
           <t>2021-05-06</t>
         </is>
       </c>
-      <c r="M185" t="inlineStr">
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N185" t="inlineStr">
+      <c r="O185" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O185" t="n">
+      <c r="P185" t="n">
         <v>47</v>
       </c>
-      <c r="P185" t="inlineStr">
+      <c r="Q185" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -10743,10 +11298,13 @@
           <t>2021-05-06</t>
         </is>
       </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>0</v>
+      </c>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr">
+      <c r="P186" t="inlineStr"/>
+      <c r="Q186" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -10799,10 +11357,13 @@
           <t>2020-09-03</t>
         </is>
       </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>0</v>
+      </c>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr">
+      <c r="P187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -10855,10 +11416,13 @@
           <t>2021-02-03</t>
         </is>
       </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>0</v>
+      </c>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr">
+      <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -10911,10 +11475,13 @@
           <t>2021-02-03</t>
         </is>
       </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>0</v>
+      </c>
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr">
+      <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -10967,10 +11534,13 @@
           <t>2021-02-03</t>
         </is>
       </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>0</v>
+      </c>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr">
+      <c r="P190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -11023,10 +11593,13 @@
           <t>2020-09-03</t>
         </is>
       </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>0</v>
+      </c>
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr">
+      <c r="P191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -11079,18 +11652,21 @@
           <t>2022-08-03</t>
         </is>
       </c>
-      <c r="M192" t="inlineStr">
+      <c r="M192" t="n">
+        <v>0</v>
+      </c>
+      <c r="N192" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N192" t="inlineStr">
+      <c r="O192" t="inlineStr">
         <is>
           <t>9.0</t>
         </is>
       </c>
-      <c r="O192" t="inlineStr"/>
       <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -11139,18 +11715,21 @@
           <t>2022-07-04</t>
         </is>
       </c>
-      <c r="M193" t="inlineStr">
+      <c r="M193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N193" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N193" t="inlineStr">
+      <c r="O193" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O193" t="inlineStr"/>
       <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -11199,10 +11778,13 @@
           <t>2022-09-03</t>
         </is>
       </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>0</v>
+      </c>
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr"/>
       <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -11251,10 +11833,13 @@
           <t>2021-11-03</t>
         </is>
       </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>0</v>
+      </c>
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr">
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -11307,10 +11892,13 @@
           <t>2021-11-03</t>
         </is>
       </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>0</v>
+      </c>
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr">
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -11363,10 +11951,13 @@
           <t>2021-09-03</t>
         </is>
       </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr">
+      <c r="P197" t="inlineStr"/>
+      <c r="Q197" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -11419,10 +12010,13 @@
           <t>2021-09-03</t>
         </is>
       </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr">
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -11475,10 +12069,13 @@
           <t>2021-09-03</t>
         </is>
       </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>0</v>
+      </c>
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr">
+      <c r="P199" t="inlineStr"/>
+      <c r="Q199" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -11531,10 +12128,13 @@
           <t>2021-08-03</t>
         </is>
       </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>0</v>
+      </c>
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr">
+      <c r="P200" t="inlineStr"/>
+      <c r="Q200" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -11587,10 +12187,13 @@
           <t>2021-09-03</t>
         </is>
       </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="M201" t="n">
+        <v>0</v>
+      </c>
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr">
+      <c r="P201" t="inlineStr"/>
+      <c r="Q201" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -11643,10 +12246,13 @@
           <t>2021-07-04</t>
         </is>
       </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="M202" t="n">
+        <v>0</v>
+      </c>
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr">
+      <c r="P202" t="inlineStr"/>
+      <c r="Q202" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -11699,10 +12305,13 @@
           <t>2021-08-03</t>
         </is>
       </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="M203" t="n">
+        <v>0</v>
+      </c>
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr">
+      <c r="P203" t="inlineStr"/>
+      <c r="Q203" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -11755,10 +12364,13 @@
           <t>2021-07-04</t>
         </is>
       </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="M204" t="n">
+        <v>0</v>
+      </c>
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr">
+      <c r="P204" t="inlineStr"/>
+      <c r="Q204" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -11811,10 +12423,13 @@
           <t>2021-06-03</t>
         </is>
       </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="M205" t="n">
+        <v>0</v>
+      </c>
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr">
+      <c r="P205" t="inlineStr"/>
+      <c r="Q205" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -11867,10 +12482,13 @@
           <t>2021-03-05</t>
         </is>
       </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="M206" t="n">
+        <v>0</v>
+      </c>
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr">
+      <c r="P206" t="inlineStr"/>
+      <c r="Q206" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -11923,10 +12541,13 @@
           <t>2021-03-05</t>
         </is>
       </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="M207" t="n">
+        <v>0</v>
+      </c>
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr">
+      <c r="P207" t="inlineStr"/>
+      <c r="Q207" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -11979,10 +12600,13 @@
           <t>2021-03-05</t>
         </is>
       </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="M208" t="n">
+        <v>0</v>
+      </c>
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr">
+      <c r="P208" t="inlineStr"/>
+      <c r="Q208" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -12035,10 +12659,13 @@
           <t>2021-01-03</t>
         </is>
       </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="M209" t="n">
+        <v>0</v>
+      </c>
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr">
+      <c r="P209" t="inlineStr"/>
+      <c r="Q209" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -12091,10 +12718,13 @@
           <t>2020-11-03</t>
         </is>
       </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="M210" t="n">
+        <v>0</v>
+      </c>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr">
+      <c r="P210" t="inlineStr"/>
+      <c r="Q210" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -12147,10 +12777,13 @@
           <t>2020-12-04</t>
         </is>
       </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>0</v>
+      </c>
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr"/>
-      <c r="P211" t="inlineStr">
+      <c r="P211" t="inlineStr"/>
+      <c r="Q211" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -12203,10 +12836,13 @@
           <t>2021-01-03</t>
         </is>
       </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="M212" t="n">
+        <v>0</v>
+      </c>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr"/>
-      <c r="P212" t="inlineStr">
+      <c r="P212" t="inlineStr"/>
+      <c r="Q212" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -12259,10 +12895,13 @@
           <t>2020-12-04</t>
         </is>
       </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="M213" t="n">
+        <v>0</v>
+      </c>
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr"/>
-      <c r="P213" t="inlineStr">
+      <c r="P213" t="inlineStr"/>
+      <c r="Q213" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -12315,10 +12954,13 @@
           <t>2020-09-03</t>
         </is>
       </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>0</v>
+      </c>
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr">
+      <c r="P214" t="inlineStr"/>
+      <c r="Q214" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -12371,10 +13013,13 @@
           <t>2020-09-03</t>
         </is>
       </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="M215" t="n">
+        <v>0</v>
+      </c>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr">
+      <c r="P215" t="inlineStr"/>
+      <c r="Q215" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -12427,10 +13072,13 @@
           <t>2020-09-03</t>
         </is>
       </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="M216" t="n">
+        <v>0</v>
+      </c>
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr">
+      <c r="P216" t="inlineStr"/>
+      <c r="Q216" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -12483,10 +13131,13 @@
           <t>2020-06-03</t>
         </is>
       </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="M217" t="n">
+        <v>0</v>
+      </c>
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr">
+      <c r="P217" t="inlineStr"/>
+      <c r="Q217" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -12539,10 +13190,13 @@
           <t>2020-06-03</t>
         </is>
       </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="M218" t="n">
+        <v>0</v>
+      </c>
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr"/>
-      <c r="P218" t="inlineStr">
+      <c r="P218" t="inlineStr"/>
+      <c r="Q218" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -12595,10 +13249,13 @@
           <t>2020-06-03</t>
         </is>
       </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="M219" t="n">
+        <v>0</v>
+      </c>
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr"/>
-      <c r="P219" t="inlineStr">
+      <c r="P219" t="inlineStr"/>
+      <c r="Q219" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -12651,10 +13308,13 @@
           <t>2020-05-06</t>
         </is>
       </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="M220" t="n">
+        <v>0</v>
+      </c>
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr"/>
-      <c r="P220" t="inlineStr">
+      <c r="P220" t="inlineStr"/>
+      <c r="Q220" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -12707,10 +13367,13 @@
           <t>2020-05-06</t>
         </is>
       </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="M221" t="n">
+        <v>0</v>
+      </c>
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr"/>
-      <c r="P221" t="inlineStr">
+      <c r="P221" t="inlineStr"/>
+      <c r="Q221" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -12763,10 +13426,13 @@
           <t>2020-03-05</t>
         </is>
       </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="M222" t="n">
+        <v>0</v>
+      </c>
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr">
+      <c r="P222" t="inlineStr"/>
+      <c r="Q222" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -12819,10 +13485,13 @@
           <t>2020-03-05</t>
         </is>
       </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="M223" t="n">
+        <v>0</v>
+      </c>
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr"/>
-      <c r="P223" t="inlineStr">
+      <c r="P223" t="inlineStr"/>
+      <c r="Q223" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -12875,10 +13544,13 @@
           <t>2020-04-05</t>
         </is>
       </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>0</v>
+      </c>
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr"/>
-      <c r="P224" t="inlineStr">
+      <c r="P224" t="inlineStr"/>
+      <c r="Q224" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -12931,10 +13603,13 @@
           <t>2020-02-04</t>
         </is>
       </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="M225" t="n">
+        <v>0</v>
+      </c>
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr"/>
-      <c r="P225" t="inlineStr">
+      <c r="P225" t="inlineStr"/>
+      <c r="Q225" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -12987,10 +13662,13 @@
           <t>2020-02-04</t>
         </is>
       </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr"/>
-      <c r="P226" t="inlineStr">
+      <c r="P226" t="inlineStr"/>
+      <c r="Q226" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -13043,10 +13721,13 @@
           <t>2020-02-04</t>
         </is>
       </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr"/>
-      <c r="P227" t="inlineStr">
+      <c r="P227" t="inlineStr"/>
+      <c r="Q227" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -13099,10 +13780,13 @@
           <t>2020-02-04</t>
         </is>
       </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="M228" t="n">
+        <v>0</v>
+      </c>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr"/>
-      <c r="P228" t="inlineStr">
+      <c r="P228" t="inlineStr"/>
+      <c r="Q228" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -13155,10 +13839,13 @@
           <t>2020-01-04</t>
         </is>
       </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr"/>
-      <c r="P229" t="inlineStr">
+      <c r="P229" t="inlineStr"/>
+      <c r="Q229" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -13211,10 +13898,13 @@
           <t>2020-01-04</t>
         </is>
       </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="M230" t="n">
+        <v>0</v>
+      </c>
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr"/>
-      <c r="P230" t="inlineStr">
+      <c r="P230" t="inlineStr"/>
+      <c r="Q230" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -13267,18 +13957,21 @@
           <t>2022-08-03</t>
         </is>
       </c>
-      <c r="M231" t="inlineStr">
+      <c r="M231" t="n">
+        <v>236</v>
+      </c>
+      <c r="N231" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N231" t="inlineStr">
+      <c r="O231" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O231" t="inlineStr"/>
       <c r="P231" t="inlineStr"/>
+      <c r="Q231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -13327,18 +14020,21 @@
           <t>2022-02-03</t>
         </is>
       </c>
-      <c r="M232" t="inlineStr">
+      <c r="M232" t="n">
+        <v>236</v>
+      </c>
+      <c r="N232" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N232" t="inlineStr">
+      <c r="O232" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O232" t="inlineStr"/>
-      <c r="P232" t="inlineStr">
+      <c r="P232" t="inlineStr"/>
+      <c r="Q232" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -13391,10 +14087,13 @@
           <t>2021-10-03</t>
         </is>
       </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="M233" t="n">
+        <v>0</v>
+      </c>
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr"/>
-      <c r="P233" t="inlineStr">
+      <c r="P233" t="inlineStr"/>
+      <c r="Q233" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -13447,10 +14146,13 @@
           <t>2021-10-03</t>
         </is>
       </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr"/>
-      <c r="P234" t="inlineStr">
+      <c r="P234" t="inlineStr"/>
+      <c r="Q234" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -13503,10 +14205,13 @@
           <t>2021-10-03</t>
         </is>
       </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>0</v>
+      </c>
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr"/>
-      <c r="P235" t="inlineStr">
+      <c r="P235" t="inlineStr"/>
+      <c r="Q235" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -13559,10 +14264,13 @@
           <t>2021-10-03</t>
         </is>
       </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>0</v>
+      </c>
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr"/>
-      <c r="P236" t="inlineStr">
+      <c r="P236" t="inlineStr"/>
+      <c r="Q236" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -13615,10 +14323,13 @@
           <t>2021-08-03</t>
         </is>
       </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>0</v>
+      </c>
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr"/>
-      <c r="P237" t="inlineStr">
+      <c r="P237" t="inlineStr"/>
+      <c r="Q237" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -13671,10 +14382,13 @@
           <t>2021-01-03</t>
         </is>
       </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>0</v>
+      </c>
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr"/>
-      <c r="P238" t="inlineStr">
+      <c r="P238" t="inlineStr"/>
+      <c r="Q238" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -13727,10 +14441,13 @@
           <t>2021-01-03</t>
         </is>
       </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>0</v>
+      </c>
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr"/>
-      <c r="P239" t="inlineStr">
+      <c r="P239" t="inlineStr"/>
+      <c r="Q239" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -13783,10 +14500,13 @@
           <t>2020-08-03</t>
         </is>
       </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr"/>
-      <c r="P240" t="inlineStr">
+      <c r="P240" t="inlineStr"/>
+      <c r="Q240" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -13839,10 +14559,13 @@
           <t>2020-02-04</t>
         </is>
       </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="M241" t="n">
+        <v>0</v>
+      </c>
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr"/>
-      <c r="P241" t="inlineStr">
+      <c r="P241" t="inlineStr"/>
+      <c r="Q241" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -13895,10 +14618,13 @@
           <t>2019-12-05</t>
         </is>
       </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="M242" t="n">
+        <v>0</v>
+      </c>
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr"/>
-      <c r="P242" t="inlineStr">
+      <c r="P242" t="inlineStr"/>
+      <c r="Q242" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -13951,10 +14677,13 @@
           <t>2019-12-05</t>
         </is>
       </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="M243" t="n">
+        <v>0</v>
+      </c>
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr"/>
-      <c r="P243" t="inlineStr">
+      <c r="P243" t="inlineStr"/>
+      <c r="Q243" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -14007,10 +14736,13 @@
           <t>2019-10-04</t>
         </is>
       </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="M244" t="n">
+        <v>0</v>
+      </c>
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr"/>
-      <c r="P244" t="inlineStr">
+      <c r="P244" t="inlineStr"/>
+      <c r="Q244" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -14063,10 +14795,13 @@
           <t>2019-10-04</t>
         </is>
       </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="M245" t="n">
+        <v>0</v>
+      </c>
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr"/>
-      <c r="P245" t="inlineStr">
+      <c r="P245" t="inlineStr"/>
+      <c r="Q245" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -14119,18 +14854,21 @@
           <t>2022-07-04</t>
         </is>
       </c>
-      <c r="M246" t="inlineStr">
+      <c r="M246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N246" t="inlineStr">
         <is>
           <t>BR01</t>
         </is>
       </c>
-      <c r="N246" t="inlineStr">
+      <c r="O246" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="O246" t="inlineStr"/>
       <c r="P246" t="inlineStr"/>
+      <c r="Q246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -14179,18 +14917,21 @@
           <t>2022-07-04</t>
         </is>
       </c>
-      <c r="M247" t="inlineStr">
+      <c r="M247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N247" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N247" t="inlineStr">
+      <c r="O247" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O247" t="inlineStr"/>
       <c r="P247" t="inlineStr"/>
+      <c r="Q247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -14239,18 +14980,21 @@
           <t>2022-06-03</t>
         </is>
       </c>
-      <c r="M248" t="inlineStr">
+      <c r="M248" t="n">
+        <v>0</v>
+      </c>
+      <c r="N248" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N248" t="inlineStr">
+      <c r="O248" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O248" t="inlineStr"/>
       <c r="P248" t="inlineStr"/>
+      <c r="Q248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -14299,10 +15043,13 @@
           <t>2022-08-03</t>
         </is>
       </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="M249" t="n">
+        <v>0</v>
+      </c>
       <c r="N249" t="inlineStr"/>
       <c r="O249" t="inlineStr"/>
       <c r="P249" t="inlineStr"/>
+      <c r="Q249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -14351,10 +15098,13 @@
           <t>2022-07-04</t>
         </is>
       </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="M250" t="n">
+        <v>0</v>
+      </c>
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr"/>
       <c r="P250" t="inlineStr"/>
+      <c r="Q250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -14403,10 +15153,13 @@
           <t>2021-11-03</t>
         </is>
       </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="M251" t="n">
+        <v>0</v>
+      </c>
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr"/>
-      <c r="P251" t="inlineStr">
+      <c r="P251" t="inlineStr"/>
+      <c r="Q251" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -14459,10 +15212,13 @@
           <t>2021-10-03</t>
         </is>
       </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="M252" t="n">
+        <v>0</v>
+      </c>
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr"/>
-      <c r="P252" t="inlineStr">
+      <c r="P252" t="inlineStr"/>
+      <c r="Q252" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -14515,10 +15271,13 @@
           <t>2021-06-03</t>
         </is>
       </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="M253" t="n">
+        <v>0</v>
+      </c>
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr"/>
-      <c r="P253" t="inlineStr">
+      <c r="P253" t="inlineStr"/>
+      <c r="Q253" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -14571,10 +15330,13 @@
           <t>2021-06-03</t>
         </is>
       </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="M254" t="n">
+        <v>0</v>
+      </c>
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr"/>
-      <c r="P254" t="inlineStr">
+      <c r="P254" t="inlineStr"/>
+      <c r="Q254" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -14627,10 +15389,13 @@
           <t>2021-02-03</t>
         </is>
       </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="M255" t="n">
+        <v>0</v>
+      </c>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr"/>
-      <c r="P255" t="inlineStr">
+      <c r="P255" t="inlineStr"/>
+      <c r="Q255" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -14683,10 +15448,13 @@
           <t>2021-02-03</t>
         </is>
       </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="M256" t="n">
+        <v>0</v>
+      </c>
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr"/>
-      <c r="P256" t="inlineStr">
+      <c r="P256" t="inlineStr"/>
+      <c r="Q256" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -14739,10 +15507,13 @@
           <t>2021-01-03</t>
         </is>
       </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="M257" t="n">
+        <v>0</v>
+      </c>
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr"/>
-      <c r="P257" t="inlineStr">
+      <c r="P257" t="inlineStr"/>
+      <c r="Q257" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -14795,10 +15566,13 @@
           <t>2021-01-03</t>
         </is>
       </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="M258" t="n">
+        <v>0</v>
+      </c>
       <c r="N258" t="inlineStr"/>
       <c r="O258" t="inlineStr"/>
-      <c r="P258" t="inlineStr">
+      <c r="P258" t="inlineStr"/>
+      <c r="Q258" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -14851,10 +15625,13 @@
           <t>2020-09-03</t>
         </is>
       </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="M259" t="n">
+        <v>0</v>
+      </c>
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr"/>
-      <c r="P259" t="inlineStr">
+      <c r="P259" t="inlineStr"/>
+      <c r="Q259" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -14907,10 +15684,13 @@
           <t>2020-11-03</t>
         </is>
       </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="M260" t="n">
+        <v>0</v>
+      </c>
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr"/>
-      <c r="P260" t="inlineStr">
+      <c r="P260" t="inlineStr"/>
+      <c r="Q260" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -14963,10 +15743,13 @@
           <t>2020-12-04</t>
         </is>
       </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="M261" t="n">
+        <v>0</v>
+      </c>
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr"/>
-      <c r="P261" t="inlineStr">
+      <c r="P261" t="inlineStr"/>
+      <c r="Q261" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -15019,10 +15802,13 @@
           <t>2020-12-04</t>
         </is>
       </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="M262" t="n">
+        <v>0</v>
+      </c>
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr"/>
-      <c r="P262" t="inlineStr">
+      <c r="P262" t="inlineStr"/>
+      <c r="Q262" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -15075,10 +15861,13 @@
           <t>2020-09-03</t>
         </is>
       </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="M263" t="n">
+        <v>0</v>
+      </c>
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr"/>
-      <c r="P263" t="inlineStr">
+      <c r="P263" t="inlineStr"/>
+      <c r="Q263" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -15131,10 +15920,13 @@
           <t>2020-08-03</t>
         </is>
       </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="M264" t="n">
+        <v>0</v>
+      </c>
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr"/>
-      <c r="P264" t="inlineStr">
+      <c r="P264" t="inlineStr"/>
+      <c r="Q264" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -15187,10 +15979,13 @@
           <t>2020-07-04</t>
         </is>
       </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="M265" t="n">
+        <v>0</v>
+      </c>
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr"/>
-      <c r="P265" t="inlineStr">
+      <c r="P265" t="inlineStr"/>
+      <c r="Q265" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -15243,10 +16038,13 @@
           <t>2020-08-03</t>
         </is>
       </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="M266" t="n">
+        <v>0</v>
+      </c>
       <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr"/>
-      <c r="P266" t="inlineStr">
+      <c r="P266" t="inlineStr"/>
+      <c r="Q266" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -15299,10 +16097,13 @@
           <t>2020-01-04</t>
         </is>
       </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="M267" t="n">
+        <v>0</v>
+      </c>
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr"/>
-      <c r="P267" t="inlineStr">
+      <c r="P267" t="inlineStr"/>
+      <c r="Q267" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -15355,10 +16156,13 @@
           <t>2019-12-05</t>
         </is>
       </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="M268" t="n">
+        <v>0</v>
+      </c>
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr"/>
-      <c r="P268" t="inlineStr">
+      <c r="P268" t="inlineStr"/>
+      <c r="Q268" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -15411,10 +16215,13 @@
           <t>2019-12-05</t>
         </is>
       </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="M269" t="n">
+        <v>0</v>
+      </c>
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr"/>
-      <c r="P269" t="inlineStr">
+      <c r="P269" t="inlineStr"/>
+      <c r="Q269" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -15467,10 +16274,13 @@
           <t>2019-09-04</t>
         </is>
       </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="M270" t="n">
+        <v>0</v>
+      </c>
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr"/>
-      <c r="P270" t="inlineStr">
+      <c r="P270" t="inlineStr"/>
+      <c r="Q270" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -15523,10 +16333,13 @@
           <t>2019-12-05</t>
         </is>
       </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="M271" t="n">
+        <v>0</v>
+      </c>
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr"/>
-      <c r="P271" t="inlineStr">
+      <c r="P271" t="inlineStr"/>
+      <c r="Q271" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -15579,10 +16392,13 @@
           <t>2019-11-04</t>
         </is>
       </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="M272" t="n">
+        <v>0</v>
+      </c>
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr"/>
-      <c r="P272" t="inlineStr">
+      <c r="P272" t="inlineStr"/>
+      <c r="Q272" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -15635,10 +16451,13 @@
           <t>2019-09-04</t>
         </is>
       </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="M273" t="n">
+        <v>0</v>
+      </c>
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr"/>
-      <c r="P273" t="inlineStr">
+      <c r="P273" t="inlineStr"/>
+      <c r="Q273" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -15691,10 +16510,13 @@
           <t>2019-09-04</t>
         </is>
       </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="M274" t="n">
+        <v>0</v>
+      </c>
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr"/>
-      <c r="P274" t="inlineStr">
+      <c r="P274" t="inlineStr"/>
+      <c r="Q274" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -15747,10 +16569,13 @@
           <t>2019-11-04</t>
         </is>
       </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="M275" t="n">
+        <v>0</v>
+      </c>
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr"/>
-      <c r="P275" t="inlineStr">
+      <c r="P275" t="inlineStr"/>
+      <c r="Q275" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -15803,18 +16628,21 @@
           <t>2022-06-03</t>
         </is>
       </c>
-      <c r="M276" t="inlineStr">
+      <c r="M276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N276" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N276" t="inlineStr">
+      <c r="O276" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O276" t="inlineStr"/>
       <c r="P276" t="inlineStr"/>
+      <c r="Q276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -15863,18 +16691,21 @@
           <t>2022-06-03</t>
         </is>
       </c>
-      <c r="M277" t="inlineStr">
+      <c r="M277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N277" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N277" t="inlineStr">
+      <c r="O277" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O277" t="inlineStr"/>
       <c r="P277" t="inlineStr"/>
+      <c r="Q277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -15923,18 +16754,21 @@
           <t>2022-02-03</t>
         </is>
       </c>
-      <c r="M278" t="inlineStr">
+      <c r="M278" t="n">
+        <v>0</v>
+      </c>
+      <c r="N278" t="inlineStr">
         <is>
           <t>BR01</t>
         </is>
       </c>
-      <c r="N278" t="inlineStr">
+      <c r="O278" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="O278" t="inlineStr"/>
-      <c r="P278" t="inlineStr">
+      <c r="P278" t="inlineStr"/>
+      <c r="Q278" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -15987,18 +16821,21 @@
           <t>2022-02-03</t>
         </is>
       </c>
-      <c r="M279" t="inlineStr">
+      <c r="M279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N279" t="inlineStr">
         <is>
           <t>BR01</t>
         </is>
       </c>
-      <c r="N279" t="inlineStr">
+      <c r="O279" t="inlineStr">
         <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="O279" t="inlineStr"/>
-      <c r="P279" t="inlineStr">
+      <c r="P279" t="inlineStr"/>
+      <c r="Q279" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -16051,18 +16888,21 @@
           <t>2022-02-03</t>
         </is>
       </c>
-      <c r="M280" t="inlineStr">
+      <c r="M280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N280" t="inlineStr">
         <is>
           <t>BR01</t>
         </is>
       </c>
-      <c r="N280" t="inlineStr">
+      <c r="O280" t="inlineStr">
         <is>
           <t>3.0</t>
         </is>
       </c>
-      <c r="O280" t="inlineStr"/>
-      <c r="P280" t="inlineStr">
+      <c r="P280" t="inlineStr"/>
+      <c r="Q280" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -16115,18 +16955,21 @@
           <t>2022-02-03</t>
         </is>
       </c>
-      <c r="M281" t="inlineStr">
+      <c r="M281" t="n">
+        <v>0</v>
+      </c>
+      <c r="N281" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N281" t="inlineStr">
+      <c r="O281" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O281" t="inlineStr"/>
-      <c r="P281" t="inlineStr">
+      <c r="P281" t="inlineStr"/>
+      <c r="Q281" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -16179,18 +17022,21 @@
           <t>2019-09-04</t>
         </is>
       </c>
-      <c r="M282" t="inlineStr">
+      <c r="M282" t="n">
+        <v>0</v>
+      </c>
+      <c r="N282" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N282" t="inlineStr">
+      <c r="O282" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="O282" t="inlineStr"/>
-      <c r="P282" t="inlineStr">
+      <c r="P282" t="inlineStr"/>
+      <c r="Q282" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -16243,18 +17089,21 @@
           <t>2019-08-04</t>
         </is>
       </c>
-      <c r="M283" t="inlineStr">
+      <c r="M283" t="n">
+        <v>0</v>
+      </c>
+      <c r="N283" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N283" t="inlineStr">
+      <c r="O283" t="inlineStr">
         <is>
           <t>8.0</t>
         </is>
       </c>
-      <c r="O283" t="inlineStr"/>
-      <c r="P283" t="inlineStr">
+      <c r="P283" t="inlineStr"/>
+      <c r="Q283" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -16307,10 +17156,13 @@
           <t>2022-02-03</t>
         </is>
       </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="M284" t="n">
+        <v>0</v>
+      </c>
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr"/>
-      <c r="P284" t="inlineStr">
+      <c r="P284" t="inlineStr"/>
+      <c r="Q284" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -16363,10 +17215,13 @@
           <t>2022-02-03</t>
         </is>
       </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="M285" t="n">
+        <v>0</v>
+      </c>
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr"/>
-      <c r="P285" t="inlineStr">
+      <c r="P285" t="inlineStr"/>
+      <c r="Q285" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -16419,10 +17274,13 @@
           <t>2022-01-03</t>
         </is>
       </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="M286" t="n">
+        <v>0</v>
+      </c>
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr"/>
-      <c r="P286" t="inlineStr">
+      <c r="P286" t="inlineStr"/>
+      <c r="Q286" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -16475,10 +17333,13 @@
           <t>2022-01-03</t>
         </is>
       </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="M287" t="n">
+        <v>0</v>
+      </c>
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr"/>
-      <c r="P287" t="inlineStr">
+      <c r="P287" t="inlineStr"/>
+      <c r="Q287" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -16531,10 +17392,13 @@
           <t>2021-12-04</t>
         </is>
       </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="M288" t="n">
+        <v>0</v>
+      </c>
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr"/>
-      <c r="P288" t="inlineStr">
+      <c r="P288" t="inlineStr"/>
+      <c r="Q288" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -16587,10 +17451,13 @@
           <t>2021-08-03</t>
         </is>
       </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="M289" t="n">
+        <v>0</v>
+      </c>
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr"/>
-      <c r="P289" t="inlineStr">
+      <c r="P289" t="inlineStr"/>
+      <c r="Q289" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -16643,10 +17510,13 @@
           <t>2021-08-03</t>
         </is>
       </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="M290" t="n">
+        <v>0</v>
+      </c>
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr"/>
-      <c r="P290" t="inlineStr">
+      <c r="P290" t="inlineStr"/>
+      <c r="Q290" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -16699,10 +17569,13 @@
           <t>2021-06-03</t>
         </is>
       </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="M291" t="n">
+        <v>0</v>
+      </c>
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr"/>
-      <c r="P291" t="inlineStr">
+      <c r="P291" t="inlineStr"/>
+      <c r="Q291" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -16755,10 +17628,13 @@
           <t>2021-06-03</t>
         </is>
       </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="M292" t="n">
+        <v>0</v>
+      </c>
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr"/>
-      <c r="P292" t="inlineStr">
+      <c r="P292" t="inlineStr"/>
+      <c r="Q292" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -16811,10 +17687,13 @@
           <t>2021-05-06</t>
         </is>
       </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="M293" t="n">
+        <v>0</v>
+      </c>
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr"/>
-      <c r="P293" t="inlineStr">
+      <c r="P293" t="inlineStr"/>
+      <c r="Q293" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -16867,10 +17746,13 @@
           <t>2021-06-03</t>
         </is>
       </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="M294" t="n">
+        <v>0</v>
+      </c>
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr"/>
-      <c r="P294" t="inlineStr">
+      <c r="P294" t="inlineStr"/>
+      <c r="Q294" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -16923,10 +17805,13 @@
           <t>2021-06-03</t>
         </is>
       </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="M295" t="n">
+        <v>0</v>
+      </c>
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr"/>
-      <c r="P295" t="inlineStr">
+      <c r="P295" t="inlineStr"/>
+      <c r="Q295" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -16979,10 +17864,13 @@
           <t>2021-02-03</t>
         </is>
       </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="M296" t="n">
+        <v>0</v>
+      </c>
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr"/>
-      <c r="P296" t="inlineStr">
+      <c r="P296" t="inlineStr"/>
+      <c r="Q296" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -17035,10 +17923,13 @@
           <t>2021-02-03</t>
         </is>
       </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="M297" t="n">
+        <v>0</v>
+      </c>
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr"/>
-      <c r="P297" t="inlineStr">
+      <c r="P297" t="inlineStr"/>
+      <c r="Q297" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -17091,10 +17982,13 @@
           <t>2021-02-03</t>
         </is>
       </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="M298" t="n">
+        <v>0</v>
+      </c>
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr"/>
-      <c r="P298" t="inlineStr">
+      <c r="P298" t="inlineStr"/>
+      <c r="Q298" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -17147,10 +18041,13 @@
           <t>2020-12-04</t>
         </is>
       </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="M299" t="n">
+        <v>0</v>
+      </c>
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr"/>
-      <c r="P299" t="inlineStr">
+      <c r="P299" t="inlineStr"/>
+      <c r="Q299" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -17203,10 +18100,13 @@
           <t>2020-12-04</t>
         </is>
       </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="M300" t="n">
+        <v>0</v>
+      </c>
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr"/>
-      <c r="P300" t="inlineStr">
+      <c r="P300" t="inlineStr"/>
+      <c r="Q300" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -17259,10 +18159,13 @@
           <t>2020-10-03</t>
         </is>
       </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="M301" t="n">
+        <v>0</v>
+      </c>
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr"/>
-      <c r="P301" t="inlineStr">
+      <c r="P301" t="inlineStr"/>
+      <c r="Q301" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -17315,10 +18218,13 @@
           <t>2020-09-03</t>
         </is>
       </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="M302" t="n">
+        <v>0</v>
+      </c>
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr"/>
-      <c r="P302" t="inlineStr">
+      <c r="P302" t="inlineStr"/>
+      <c r="Q302" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -17371,10 +18277,13 @@
           <t>2020-09-03</t>
         </is>
       </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="M303" t="n">
+        <v>0</v>
+      </c>
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr"/>
-      <c r="P303" t="inlineStr">
+      <c r="P303" t="inlineStr"/>
+      <c r="Q303" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -17427,10 +18336,13 @@
           <t>2020-07-04</t>
         </is>
       </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="M304" t="n">
+        <v>0</v>
+      </c>
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr"/>
-      <c r="P304" t="inlineStr">
+      <c r="P304" t="inlineStr"/>
+      <c r="Q304" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -17483,10 +18395,13 @@
           <t>2020-07-04</t>
         </is>
       </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="M305" t="n">
+        <v>0</v>
+      </c>
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr"/>
-      <c r="P305" t="inlineStr">
+      <c r="P305" t="inlineStr"/>
+      <c r="Q305" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -17539,10 +18454,13 @@
           <t>2020-05-05</t>
         </is>
       </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="M306" t="n">
+        <v>0</v>
+      </c>
       <c r="N306" t="inlineStr"/>
       <c r="O306" t="inlineStr"/>
-      <c r="P306" t="inlineStr">
+      <c r="P306" t="inlineStr"/>
+      <c r="Q306" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -17595,10 +18513,13 @@
           <t>2020-05-05</t>
         </is>
       </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="M307" t="n">
+        <v>0</v>
+      </c>
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr"/>
-      <c r="P307" t="inlineStr">
+      <c r="P307" t="inlineStr"/>
+      <c r="Q307" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -17651,10 +18572,13 @@
           <t>2020-03-05</t>
         </is>
       </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="M308" t="n">
+        <v>0</v>
+      </c>
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr"/>
-      <c r="P308" t="inlineStr">
+      <c r="P308" t="inlineStr"/>
+      <c r="Q308" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -17707,10 +18631,13 @@
           <t>2020-02-04</t>
         </is>
       </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="M309" t="n">
+        <v>0</v>
+      </c>
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr"/>
-      <c r="P309" t="inlineStr">
+      <c r="P309" t="inlineStr"/>
+      <c r="Q309" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -17763,10 +18690,13 @@
           <t>2020-01-04</t>
         </is>
       </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="M310" t="n">
+        <v>0</v>
+      </c>
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr"/>
-      <c r="P310" t="inlineStr">
+      <c r="P310" t="inlineStr"/>
+      <c r="Q310" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -17819,10 +18749,13 @@
           <t>2019-12-05</t>
         </is>
       </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="M311" t="n">
+        <v>0</v>
+      </c>
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr"/>
-      <c r="P311" t="inlineStr">
+      <c r="P311" t="inlineStr"/>
+      <c r="Q311" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -17875,10 +18808,13 @@
           <t>2019-09-04</t>
         </is>
       </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="M312" t="n">
+        <v>0</v>
+      </c>
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr"/>
-      <c r="P312" t="inlineStr">
+      <c r="P312" t="inlineStr"/>
+      <c r="Q312" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -17931,18 +18867,21 @@
           <t>2022-07-04</t>
         </is>
       </c>
-      <c r="M313" t="inlineStr">
+      <c r="M313" t="n">
+        <v>0</v>
+      </c>
+      <c r="N313" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N313" t="inlineStr">
+      <c r="O313" t="inlineStr">
         <is>
           <t>9.0</t>
         </is>
       </c>
-      <c r="O313" t="inlineStr"/>
       <c r="P313" t="inlineStr"/>
+      <c r="Q313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -17991,18 +18930,21 @@
           <t>2022-07-04</t>
         </is>
       </c>
-      <c r="M314" t="inlineStr">
+      <c r="M314" t="n">
+        <v>0</v>
+      </c>
+      <c r="N314" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N314" t="inlineStr">
+      <c r="O314" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O314" t="inlineStr"/>
       <c r="P314" t="inlineStr"/>
+      <c r="Q314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -18051,18 +18993,21 @@
           <t>2022-02-03</t>
         </is>
       </c>
-      <c r="M315" t="inlineStr">
+      <c r="M315" t="n">
+        <v>0</v>
+      </c>
+      <c r="N315" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N315" t="inlineStr">
+      <c r="O315" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O315" t="inlineStr"/>
-      <c r="P315" t="inlineStr">
+      <c r="P315" t="inlineStr"/>
+      <c r="Q315" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -18115,10 +19060,13 @@
           <t>2022-07-04</t>
         </is>
       </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="M316" t="n">
+        <v>0</v>
+      </c>
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr"/>
       <c r="P316" t="inlineStr"/>
+      <c r="Q316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -18167,10 +19115,13 @@
           <t>2022-07-04</t>
         </is>
       </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="M317" t="n">
+        <v>0</v>
+      </c>
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr"/>
       <c r="P317" t="inlineStr"/>
+      <c r="Q317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -18219,10 +19170,13 @@
           <t>2022-07-04</t>
         </is>
       </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="M318" t="n">
+        <v>0</v>
+      </c>
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr"/>
       <c r="P318" t="inlineStr"/>
+      <c r="Q318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -18271,10 +19225,13 @@
           <t>2022-08-03</t>
         </is>
       </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="M319" t="n">
+        <v>0</v>
+      </c>
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr"/>
       <c r="P319" t="inlineStr"/>
+      <c r="Q319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -18323,10 +19280,13 @@
           <t>2022-03-05</t>
         </is>
       </c>
-      <c r="M320" t="inlineStr"/>
+      <c r="M320" t="n">
+        <v>0</v>
+      </c>
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr"/>
-      <c r="P320" t="inlineStr">
+      <c r="P320" t="inlineStr"/>
+      <c r="Q320" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -18379,10 +19339,13 @@
           <t>2022-02-03</t>
         </is>
       </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="M321" t="n">
+        <v>0</v>
+      </c>
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr"/>
-      <c r="P321" t="inlineStr">
+      <c r="P321" t="inlineStr"/>
+      <c r="Q321" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -18435,10 +19398,13 @@
           <t>2022-01-03</t>
         </is>
       </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="M322" t="n">
+        <v>0</v>
+      </c>
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr"/>
-      <c r="P322" t="inlineStr">
+      <c r="P322" t="inlineStr"/>
+      <c r="Q322" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -18491,10 +19457,13 @@
           <t>2022-01-03</t>
         </is>
       </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="M323" t="n">
+        <v>0</v>
+      </c>
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr"/>
-      <c r="P323" t="inlineStr">
+      <c r="P323" t="inlineStr"/>
+      <c r="Q323" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -18547,10 +19516,13 @@
           <t>2021-11-03</t>
         </is>
       </c>
-      <c r="M324" t="inlineStr"/>
+      <c r="M324" t="n">
+        <v>0</v>
+      </c>
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr"/>
-      <c r="P324" t="inlineStr">
+      <c r="P324" t="inlineStr"/>
+      <c r="Q324" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -18603,10 +19575,13 @@
           <t>2021-11-03</t>
         </is>
       </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="M325" t="n">
+        <v>0</v>
+      </c>
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr"/>
-      <c r="P325" t="inlineStr">
+      <c r="P325" t="inlineStr"/>
+      <c r="Q325" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -18659,10 +19634,13 @@
           <t>2021-11-03</t>
         </is>
       </c>
-      <c r="M326" t="inlineStr"/>
+      <c r="M326" t="n">
+        <v>0</v>
+      </c>
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr"/>
-      <c r="P326" t="inlineStr">
+      <c r="P326" t="inlineStr"/>
+      <c r="Q326" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -18715,10 +19693,13 @@
           <t>2021-11-03</t>
         </is>
       </c>
-      <c r="M327" t="inlineStr"/>
+      <c r="M327" t="n">
+        <v>0</v>
+      </c>
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr"/>
-      <c r="P327" t="inlineStr">
+      <c r="P327" t="inlineStr"/>
+      <c r="Q327" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -18771,10 +19752,13 @@
           <t>2021-10-03</t>
         </is>
       </c>
-      <c r="M328" t="inlineStr"/>
+      <c r="M328" t="n">
+        <v>0</v>
+      </c>
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr"/>
-      <c r="P328" t="inlineStr">
+      <c r="P328" t="inlineStr"/>
+      <c r="Q328" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -18827,10 +19811,13 @@
           <t>2021-06-03</t>
         </is>
       </c>
-      <c r="M329" t="inlineStr"/>
+      <c r="M329" t="n">
+        <v>0</v>
+      </c>
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr"/>
-      <c r="P329" t="inlineStr">
+      <c r="P329" t="inlineStr"/>
+      <c r="Q329" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -18883,10 +19870,13 @@
           <t>2021-06-03</t>
         </is>
       </c>
-      <c r="M330" t="inlineStr"/>
+      <c r="M330" t="n">
+        <v>0</v>
+      </c>
       <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr"/>
-      <c r="P330" t="inlineStr">
+      <c r="P330" t="inlineStr"/>
+      <c r="Q330" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -18939,10 +19929,13 @@
           <t>2021-05-06</t>
         </is>
       </c>
-      <c r="M331" t="inlineStr"/>
+      <c r="M331" t="n">
+        <v>0</v>
+      </c>
       <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr"/>
-      <c r="P331" t="inlineStr">
+      <c r="P331" t="inlineStr"/>
+      <c r="Q331" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -18995,10 +19988,13 @@
           <t>2021-05-06</t>
         </is>
       </c>
-      <c r="M332" t="inlineStr"/>
+      <c r="M332" t="n">
+        <v>0</v>
+      </c>
       <c r="N332" t="inlineStr"/>
       <c r="O332" t="inlineStr"/>
-      <c r="P332" t="inlineStr">
+      <c r="P332" t="inlineStr"/>
+      <c r="Q332" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -19051,10 +20047,13 @@
           <t>2021-05-06</t>
         </is>
       </c>
-      <c r="M333" t="inlineStr"/>
+      <c r="M333" t="n">
+        <v>0</v>
+      </c>
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr"/>
-      <c r="P333" t="inlineStr">
+      <c r="P333" t="inlineStr"/>
+      <c r="Q333" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -19107,10 +20106,13 @@
           <t>2021-09-06</t>
         </is>
       </c>
-      <c r="M334" t="inlineStr"/>
+      <c r="M334" t="n">
+        <v>0</v>
+      </c>
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr"/>
-      <c r="P334" t="inlineStr">
+      <c r="P334" t="inlineStr"/>
+      <c r="Q334" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -19163,10 +20165,13 @@
           <t>2021-05-06</t>
         </is>
       </c>
-      <c r="M335" t="inlineStr"/>
+      <c r="M335" t="n">
+        <v>0</v>
+      </c>
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr"/>
-      <c r="P335" t="inlineStr">
+      <c r="P335" t="inlineStr"/>
+      <c r="Q335" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -19219,10 +20224,13 @@
           <t>2021-05-06</t>
         </is>
       </c>
-      <c r="M336" t="inlineStr"/>
+      <c r="M336" t="n">
+        <v>0</v>
+      </c>
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr"/>
-      <c r="P336" t="inlineStr">
+      <c r="P336" t="inlineStr"/>
+      <c r="Q336" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -19275,10 +20283,13 @@
           <t>2021-03-05</t>
         </is>
       </c>
-      <c r="M337" t="inlineStr"/>
+      <c r="M337" t="n">
+        <v>0</v>
+      </c>
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr"/>
-      <c r="P337" t="inlineStr">
+      <c r="P337" t="inlineStr"/>
+      <c r="Q337" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -19331,10 +20342,13 @@
           <t>2021-03-05</t>
         </is>
       </c>
-      <c r="M338" t="inlineStr"/>
+      <c r="M338" t="n">
+        <v>0</v>
+      </c>
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr"/>
-      <c r="P338" t="inlineStr">
+      <c r="P338" t="inlineStr"/>
+      <c r="Q338" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -19387,10 +20401,13 @@
           <t>2021-03-05</t>
         </is>
       </c>
-      <c r="M339" t="inlineStr"/>
+      <c r="M339" t="n">
+        <v>0</v>
+      </c>
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr"/>
-      <c r="P339" t="inlineStr">
+      <c r="P339" t="inlineStr"/>
+      <c r="Q339" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -19443,10 +20460,13 @@
           <t>2021-02-03</t>
         </is>
       </c>
-      <c r="M340" t="inlineStr"/>
+      <c r="M340" t="n">
+        <v>0</v>
+      </c>
       <c r="N340" t="inlineStr"/>
       <c r="O340" t="inlineStr"/>
-      <c r="P340" t="inlineStr">
+      <c r="P340" t="inlineStr"/>
+      <c r="Q340" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -19499,10 +20519,13 @@
           <t>2020-10-03</t>
         </is>
       </c>
-      <c r="M341" t="inlineStr"/>
+      <c r="M341" t="n">
+        <v>0</v>
+      </c>
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr"/>
-      <c r="P341" t="inlineStr">
+      <c r="P341" t="inlineStr"/>
+      <c r="Q341" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -19555,10 +20578,13 @@
           <t>2021-02-03</t>
         </is>
       </c>
-      <c r="M342" t="inlineStr"/>
+      <c r="M342" t="n">
+        <v>0</v>
+      </c>
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr"/>
-      <c r="P342" t="inlineStr">
+      <c r="P342" t="inlineStr"/>
+      <c r="Q342" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -19611,10 +20637,13 @@
           <t>2020-06-03</t>
         </is>
       </c>
-      <c r="M343" t="inlineStr"/>
+      <c r="M343" t="n">
+        <v>0</v>
+      </c>
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr"/>
-      <c r="P343" t="inlineStr">
+      <c r="P343" t="inlineStr"/>
+      <c r="Q343" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -19667,10 +20696,13 @@
           <t>2020-06-03</t>
         </is>
       </c>
-      <c r="M344" t="inlineStr"/>
+      <c r="M344" t="n">
+        <v>0</v>
+      </c>
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr"/>
-      <c r="P344" t="inlineStr">
+      <c r="P344" t="inlineStr"/>
+      <c r="Q344" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -19723,10 +20755,13 @@
           <t>2020-10-03</t>
         </is>
       </c>
-      <c r="M345" t="inlineStr"/>
+      <c r="M345" t="n">
+        <v>0</v>
+      </c>
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr"/>
-      <c r="P345" t="inlineStr">
+      <c r="P345" t="inlineStr"/>
+      <c r="Q345" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -19779,10 +20814,13 @@
           <t>2020-05-06</t>
         </is>
       </c>
-      <c r="M346" t="inlineStr"/>
+      <c r="M346" t="n">
+        <v>0</v>
+      </c>
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr"/>
-      <c r="P346" t="inlineStr">
+      <c r="P346" t="inlineStr"/>
+      <c r="Q346" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -19835,10 +20873,13 @@
           <t>2020-06-03</t>
         </is>
       </c>
-      <c r="M347" t="inlineStr"/>
+      <c r="M347" t="n">
+        <v>0</v>
+      </c>
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr"/>
-      <c r="P347" t="inlineStr">
+      <c r="P347" t="inlineStr"/>
+      <c r="Q347" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -19891,10 +20932,13 @@
           <t>2020-05-06</t>
         </is>
       </c>
-      <c r="M348" t="inlineStr"/>
+      <c r="M348" t="n">
+        <v>0</v>
+      </c>
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr"/>
-      <c r="P348" t="inlineStr">
+      <c r="P348" t="inlineStr"/>
+      <c r="Q348" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -19947,10 +20991,13 @@
           <t>2020-05-06</t>
         </is>
       </c>
-      <c r="M349" t="inlineStr"/>
+      <c r="M349" t="n">
+        <v>0</v>
+      </c>
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr"/>
-      <c r="P349" t="inlineStr">
+      <c r="P349" t="inlineStr"/>
+      <c r="Q349" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -20003,10 +21050,13 @@
           <t>2020-04-05</t>
         </is>
       </c>
-      <c r="M350" t="inlineStr"/>
+      <c r="M350" t="n">
+        <v>0</v>
+      </c>
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr"/>
-      <c r="P350" t="inlineStr">
+      <c r="P350" t="inlineStr"/>
+      <c r="Q350" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -20059,10 +21109,13 @@
           <t>2020-05-06</t>
         </is>
       </c>
-      <c r="M351" t="inlineStr"/>
+      <c r="M351" t="n">
+        <v>0</v>
+      </c>
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr"/>
-      <c r="P351" t="inlineStr">
+      <c r="P351" t="inlineStr"/>
+      <c r="Q351" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -20115,10 +21168,13 @@
           <t>2020-04-05</t>
         </is>
       </c>
-      <c r="M352" t="inlineStr"/>
+      <c r="M352" t="n">
+        <v>0</v>
+      </c>
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr"/>
-      <c r="P352" t="inlineStr">
+      <c r="P352" t="inlineStr"/>
+      <c r="Q352" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -20171,10 +21227,13 @@
           <t>2020-05-06</t>
         </is>
       </c>
-      <c r="M353" t="inlineStr"/>
+      <c r="M353" t="n">
+        <v>0</v>
+      </c>
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr"/>
-      <c r="P353" t="inlineStr">
+      <c r="P353" t="inlineStr"/>
+      <c r="Q353" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -20227,10 +21286,13 @@
           <t>2020-05-06</t>
         </is>
       </c>
-      <c r="M354" t="inlineStr"/>
+      <c r="M354" t="n">
+        <v>0</v>
+      </c>
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr"/>
-      <c r="P354" t="inlineStr">
+      <c r="P354" t="inlineStr"/>
+      <c r="Q354" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -20283,10 +21345,13 @@
           <t>2020-04-05</t>
         </is>
       </c>
-      <c r="M355" t="inlineStr"/>
+      <c r="M355" t="n">
+        <v>0</v>
+      </c>
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr"/>
-      <c r="P355" t="inlineStr">
+      <c r="P355" t="inlineStr"/>
+      <c r="Q355" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -20339,10 +21404,13 @@
           <t>2019-09-04</t>
         </is>
       </c>
-      <c r="M356" t="inlineStr"/>
+      <c r="M356" t="n">
+        <v>0</v>
+      </c>
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr"/>
-      <c r="P356" t="inlineStr">
+      <c r="P356" t="inlineStr"/>
+      <c r="Q356" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -20395,10 +21463,13 @@
           <t>2019-09-04</t>
         </is>
       </c>
-      <c r="M357" t="inlineStr"/>
+      <c r="M357" t="n">
+        <v>0</v>
+      </c>
       <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr"/>
-      <c r="P357" t="inlineStr">
+      <c r="P357" t="inlineStr"/>
+      <c r="Q357" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -20451,10 +21522,13 @@
           <t>2019-05-06</t>
         </is>
       </c>
-      <c r="M358" t="inlineStr"/>
+      <c r="M358" t="n">
+        <v>0</v>
+      </c>
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr"/>
-      <c r="P358" t="inlineStr">
+      <c r="P358" t="inlineStr"/>
+      <c r="Q358" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -20507,18 +21581,21 @@
           <t>2022-11-02</t>
         </is>
       </c>
-      <c r="M359" t="inlineStr">
+      <c r="M359" t="n">
+        <v>0</v>
+      </c>
+      <c r="N359" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N359" t="inlineStr">
+      <c r="O359" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O359" t="inlineStr"/>
       <c r="P359" t="inlineStr"/>
+      <c r="Q359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -20567,18 +21644,21 @@
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="M360" t="inlineStr">
+      <c r="M360" t="n">
+        <v>0</v>
+      </c>
+      <c r="N360" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N360" t="inlineStr">
+      <c r="O360" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O360" t="inlineStr"/>
-      <c r="P360" t="inlineStr">
+      <c r="P360" t="inlineStr"/>
+      <c r="Q360" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -20631,10 +21711,13 @@
           <t>2022-12-31</t>
         </is>
       </c>
-      <c r="M361" t="inlineStr"/>
+      <c r="M361" t="n">
+        <v>0</v>
+      </c>
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr"/>
       <c r="P361" t="inlineStr"/>
+      <c r="Q361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -20683,10 +21766,13 @@
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="M362" t="inlineStr"/>
+      <c r="M362" t="n">
+        <v>0</v>
+      </c>
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr"/>
-      <c r="P362" t="inlineStr">
+      <c r="P362" t="inlineStr"/>
+      <c r="Q362" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -20739,10 +21825,13 @@
           <t>2022-06-02</t>
         </is>
       </c>
-      <c r="M363" t="inlineStr"/>
+      <c r="M363" t="n">
+        <v>0</v>
+      </c>
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr"/>
-      <c r="P363" t="inlineStr">
+      <c r="P363" t="inlineStr"/>
+      <c r="Q363" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -20795,10 +21884,13 @@
           <t>2021-12-31</t>
         </is>
       </c>
-      <c r="M364" t="inlineStr"/>
+      <c r="M364" t="n">
+        <v>0</v>
+      </c>
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr"/>
-      <c r="P364" t="inlineStr">
+      <c r="P364" t="inlineStr"/>
+      <c r="Q364" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -20851,10 +21943,13 @@
           <t>2021-12-31</t>
         </is>
       </c>
-      <c r="M365" t="inlineStr"/>
+      <c r="M365" t="n">
+        <v>0</v>
+      </c>
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr"/>
-      <c r="P365" t="inlineStr">
+      <c r="P365" t="inlineStr"/>
+      <c r="Q365" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -20907,10 +22002,13 @@
           <t>2021-07-02</t>
         </is>
       </c>
-      <c r="M366" t="inlineStr"/>
+      <c r="M366" t="n">
+        <v>0</v>
+      </c>
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr"/>
-      <c r="P366" t="inlineStr">
+      <c r="P366" t="inlineStr"/>
+      <c r="Q366" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -20963,10 +22061,13 @@
           <t>2021-04-01</t>
         </is>
       </c>
-      <c r="M367" t="inlineStr"/>
+      <c r="M367" t="n">
+        <v>0</v>
+      </c>
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr"/>
-      <c r="P367" t="inlineStr">
+      <c r="P367" t="inlineStr"/>
+      <c r="Q367" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -21019,10 +22120,13 @@
           <t>2020-03-02</t>
         </is>
       </c>
-      <c r="M368" t="inlineStr"/>
+      <c r="M368" t="n">
+        <v>0</v>
+      </c>
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr"/>
-      <c r="P368" t="inlineStr">
+      <c r="P368" t="inlineStr"/>
+      <c r="Q368" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -21075,18 +22179,21 @@
           <t>2022-03-05</t>
         </is>
       </c>
-      <c r="M369" t="inlineStr">
+      <c r="M369" t="n">
+        <v>0</v>
+      </c>
+      <c r="N369" t="inlineStr">
         <is>
           <t>BR01</t>
         </is>
       </c>
-      <c r="N369" t="inlineStr">
+      <c r="O369" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="O369" t="inlineStr"/>
-      <c r="P369" t="inlineStr">
+      <c r="P369" t="inlineStr"/>
+      <c r="Q369" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -21139,18 +22246,21 @@
           <t>2022-03-05</t>
         </is>
       </c>
-      <c r="M370" t="inlineStr">
+      <c r="M370" t="n">
+        <v>0</v>
+      </c>
+      <c r="N370" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N370" t="inlineStr">
+      <c r="O370" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O370" t="inlineStr"/>
-      <c r="P370" t="inlineStr">
+      <c r="P370" t="inlineStr"/>
+      <c r="Q370" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -21203,18 +22313,21 @@
           <t>2022-03-05</t>
         </is>
       </c>
-      <c r="M371" t="inlineStr">
+      <c r="M371" t="n">
+        <v>0</v>
+      </c>
+      <c r="N371" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N371" t="inlineStr">
+      <c r="O371" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O371" t="inlineStr"/>
-      <c r="P371" t="inlineStr">
+      <c r="P371" t="inlineStr"/>
+      <c r="Q371" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -21267,10 +22380,13 @@
           <t>2022-08-03</t>
         </is>
       </c>
-      <c r="M372" t="inlineStr"/>
+      <c r="M372" t="n">
+        <v>0</v>
+      </c>
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr"/>
       <c r="P372" t="inlineStr"/>
+      <c r="Q372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -21319,10 +22435,13 @@
           <t>2022-03-05</t>
         </is>
       </c>
-      <c r="M373" t="inlineStr"/>
+      <c r="M373" t="n">
+        <v>0</v>
+      </c>
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr"/>
-      <c r="P373" t="inlineStr">
+      <c r="P373" t="inlineStr"/>
+      <c r="Q373" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -21375,10 +22494,13 @@
           <t>2022-01-03</t>
         </is>
       </c>
-      <c r="M374" t="inlineStr"/>
+      <c r="M374" t="n">
+        <v>0</v>
+      </c>
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr"/>
-      <c r="P374" t="inlineStr">
+      <c r="P374" t="inlineStr"/>
+      <c r="Q374" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -21431,10 +22553,13 @@
           <t>2021-11-03</t>
         </is>
       </c>
-      <c r="M375" t="inlineStr"/>
+      <c r="M375" t="n">
+        <v>0</v>
+      </c>
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr"/>
-      <c r="P375" t="inlineStr">
+      <c r="P375" t="inlineStr"/>
+      <c r="Q375" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -21487,10 +22612,13 @@
           <t>2021-11-03</t>
         </is>
       </c>
-      <c r="M376" t="inlineStr"/>
+      <c r="M376" t="n">
+        <v>0</v>
+      </c>
       <c r="N376" t="inlineStr"/>
       <c r="O376" t="inlineStr"/>
-      <c r="P376" t="inlineStr">
+      <c r="P376" t="inlineStr"/>
+      <c r="Q376" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -21543,10 +22671,13 @@
           <t>2022-01-03</t>
         </is>
       </c>
-      <c r="M377" t="inlineStr"/>
+      <c r="M377" t="n">
+        <v>0</v>
+      </c>
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr"/>
-      <c r="P377" t="inlineStr">
+      <c r="P377" t="inlineStr"/>
+      <c r="Q377" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -21599,10 +22730,13 @@
           <t>2021-08-03</t>
         </is>
       </c>
-      <c r="M378" t="inlineStr"/>
+      <c r="M378" t="n">
+        <v>0</v>
+      </c>
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr"/>
-      <c r="P378" t="inlineStr">
+      <c r="P378" t="inlineStr"/>
+      <c r="Q378" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -21655,10 +22789,13 @@
           <t>2021-07-04</t>
         </is>
       </c>
-      <c r="M379" t="inlineStr"/>
+      <c r="M379" t="n">
+        <v>0</v>
+      </c>
       <c r="N379" t="inlineStr"/>
       <c r="O379" t="inlineStr"/>
-      <c r="P379" t="inlineStr">
+      <c r="P379" t="inlineStr"/>
+      <c r="Q379" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -21711,10 +22848,13 @@
           <t>2021-08-03</t>
         </is>
       </c>
-      <c r="M380" t="inlineStr"/>
+      <c r="M380" t="n">
+        <v>0</v>
+      </c>
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr"/>
-      <c r="P380" t="inlineStr">
+      <c r="P380" t="inlineStr"/>
+      <c r="Q380" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -21767,10 +22907,13 @@
           <t>2021-07-04</t>
         </is>
       </c>
-      <c r="M381" t="inlineStr"/>
+      <c r="M381" t="n">
+        <v>0</v>
+      </c>
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr"/>
-      <c r="P381" t="inlineStr">
+      <c r="P381" t="inlineStr"/>
+      <c r="Q381" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -21823,10 +22966,13 @@
           <t>2019-06-03</t>
         </is>
       </c>
-      <c r="M382" t="inlineStr"/>
+      <c r="M382" t="n">
+        <v>0</v>
+      </c>
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr"/>
-      <c r="P382" t="inlineStr">
+      <c r="P382" t="inlineStr"/>
+      <c r="Q382" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -21879,10 +23025,13 @@
           <t>2021-06-03</t>
         </is>
       </c>
-      <c r="M383" t="inlineStr"/>
+      <c r="M383" t="n">
+        <v>0</v>
+      </c>
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr"/>
-      <c r="P383" t="inlineStr">
+      <c r="P383" t="inlineStr"/>
+      <c r="Q383" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -21935,10 +23084,13 @@
           <t>2021-05-06</t>
         </is>
       </c>
-      <c r="M384" t="inlineStr"/>
+      <c r="M384" t="n">
+        <v>0</v>
+      </c>
       <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr"/>
-      <c r="P384" t="inlineStr">
+      <c r="P384" t="inlineStr"/>
+      <c r="Q384" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -21991,10 +23143,13 @@
           <t>2021-05-06</t>
         </is>
       </c>
-      <c r="M385" t="inlineStr"/>
+      <c r="M385" t="n">
+        <v>0</v>
+      </c>
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr"/>
-      <c r="P385" t="inlineStr">
+      <c r="P385" t="inlineStr"/>
+      <c r="Q385" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -22047,10 +23202,13 @@
           <t>2021-05-06</t>
         </is>
       </c>
-      <c r="M386" t="inlineStr"/>
+      <c r="M386" t="n">
+        <v>0</v>
+      </c>
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr"/>
-      <c r="P386" t="inlineStr">
+      <c r="P386" t="inlineStr"/>
+      <c r="Q386" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -22103,10 +23261,13 @@
           <t>2020-12-04</t>
         </is>
       </c>
-      <c r="M387" t="inlineStr"/>
+      <c r="M387" t="n">
+        <v>0</v>
+      </c>
       <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr"/>
-      <c r="P387" t="inlineStr">
+      <c r="P387" t="inlineStr"/>
+      <c r="Q387" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -22159,10 +23320,13 @@
           <t>2020-12-04</t>
         </is>
       </c>
-      <c r="M388" t="inlineStr"/>
+      <c r="M388" t="n">
+        <v>0</v>
+      </c>
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr"/>
-      <c r="P388" t="inlineStr">
+      <c r="P388" t="inlineStr"/>
+      <c r="Q388" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -22215,10 +23379,13 @@
           <t>2020-12-04</t>
         </is>
       </c>
-      <c r="M389" t="inlineStr"/>
+      <c r="M389" t="n">
+        <v>0</v>
+      </c>
       <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr"/>
-      <c r="P389" t="inlineStr">
+      <c r="P389" t="inlineStr"/>
+      <c r="Q389" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -22271,10 +23438,13 @@
           <t>2020-07-04</t>
         </is>
       </c>
-      <c r="M390" t="inlineStr"/>
+      <c r="M390" t="n">
+        <v>0</v>
+      </c>
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr"/>
-      <c r="P390" t="inlineStr">
+      <c r="P390" t="inlineStr"/>
+      <c r="Q390" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -22327,10 +23497,13 @@
           <t>2020-08-03</t>
         </is>
       </c>
-      <c r="M391" t="inlineStr"/>
+      <c r="M391" t="n">
+        <v>0</v>
+      </c>
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr"/>
-      <c r="P391" t="inlineStr">
+      <c r="P391" t="inlineStr"/>
+      <c r="Q391" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -22383,10 +23556,13 @@
           <t>2020-03-05</t>
         </is>
       </c>
-      <c r="M392" t="inlineStr"/>
+      <c r="M392" t="n">
+        <v>0</v>
+      </c>
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr"/>
-      <c r="P392" t="inlineStr">
+      <c r="P392" t="inlineStr"/>
+      <c r="Q392" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -22439,10 +23615,13 @@
           <t>2020-03-05</t>
         </is>
       </c>
-      <c r="M393" t="inlineStr"/>
+      <c r="M393" t="n">
+        <v>0</v>
+      </c>
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr"/>
-      <c r="P393" t="inlineStr">
+      <c r="P393" t="inlineStr"/>
+      <c r="Q393" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -22495,10 +23674,13 @@
           <t>2020-02-04</t>
         </is>
       </c>
-      <c r="M394" t="inlineStr"/>
+      <c r="M394" t="n">
+        <v>0</v>
+      </c>
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr"/>
-      <c r="P394" t="inlineStr">
+      <c r="P394" t="inlineStr"/>
+      <c r="Q394" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -22551,10 +23733,13 @@
           <t>2020-01-04</t>
         </is>
       </c>
-      <c r="M395" t="inlineStr"/>
+      <c r="M395" t="n">
+        <v>0</v>
+      </c>
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr"/>
-      <c r="P395" t="inlineStr">
+      <c r="P395" t="inlineStr"/>
+      <c r="Q395" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -22607,10 +23792,13 @@
           <t>2019-08-04</t>
         </is>
       </c>
-      <c r="M396" t="inlineStr"/>
+      <c r="M396" t="n">
+        <v>0</v>
+      </c>
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr"/>
-      <c r="P396" t="inlineStr">
+      <c r="P396" t="inlineStr"/>
+      <c r="Q396" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -22663,10 +23851,13 @@
           <t>2019-12-05</t>
         </is>
       </c>
-      <c r="M397" t="inlineStr"/>
+      <c r="M397" t="n">
+        <v>0</v>
+      </c>
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr"/>
-      <c r="P397" t="inlineStr">
+      <c r="P397" t="inlineStr"/>
+      <c r="Q397" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -22719,10 +23910,13 @@
           <t>2019-08-04</t>
         </is>
       </c>
-      <c r="M398" t="inlineStr"/>
+      <c r="M398" t="n">
+        <v>0</v>
+      </c>
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr"/>
-      <c r="P398" t="inlineStr">
+      <c r="P398" t="inlineStr"/>
+      <c r="Q398" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -22775,10 +23969,13 @@
           <t>2019-09-04</t>
         </is>
       </c>
-      <c r="M399" t="inlineStr"/>
+      <c r="M399" t="n">
+        <v>0</v>
+      </c>
       <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr"/>
-      <c r="P399" t="inlineStr">
+      <c r="P399" t="inlineStr"/>
+      <c r="Q399" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -22831,18 +24028,21 @@
           <t>2022-05-06</t>
         </is>
       </c>
-      <c r="M400" t="inlineStr">
+      <c r="M400" t="n">
+        <v>0</v>
+      </c>
+      <c r="N400" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N400" t="inlineStr">
+      <c r="O400" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O400" t="inlineStr"/>
       <c r="P400" t="inlineStr"/>
+      <c r="Q400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -22891,20 +24091,23 @@
           <t>2021-10-03</t>
         </is>
       </c>
-      <c r="M401" t="inlineStr">
+      <c r="M401" t="n">
+        <v>0</v>
+      </c>
+      <c r="N401" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N401" t="inlineStr">
+      <c r="O401" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O401" t="n">
+      <c r="P401" t="n">
         <v>16</v>
       </c>
-      <c r="P401" t="inlineStr">
+      <c r="Q401" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -22957,10 +24160,13 @@
           <t>2022-07-04</t>
         </is>
       </c>
-      <c r="M402" t="inlineStr"/>
+      <c r="M402" t="n">
+        <v>0</v>
+      </c>
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr"/>
       <c r="P402" t="inlineStr"/>
+      <c r="Q402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -23009,10 +24215,13 @@
           <t>2021-09-03</t>
         </is>
       </c>
-      <c r="M403" t="inlineStr"/>
+      <c r="M403" t="n">
+        <v>0</v>
+      </c>
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr"/>
-      <c r="P403" t="inlineStr">
+      <c r="P403" t="inlineStr"/>
+      <c r="Q403" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -23065,10 +24274,13 @@
           <t>2021-08-03</t>
         </is>
       </c>
-      <c r="M404" t="inlineStr"/>
+      <c r="M404" t="n">
+        <v>0</v>
+      </c>
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr"/>
-      <c r="P404" t="inlineStr">
+      <c r="P404" t="inlineStr"/>
+      <c r="Q404" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -23121,10 +24333,13 @@
           <t>2021-09-03</t>
         </is>
       </c>
-      <c r="M405" t="inlineStr"/>
+      <c r="M405" t="n">
+        <v>0</v>
+      </c>
       <c r="N405" t="inlineStr"/>
       <c r="O405" t="inlineStr"/>
-      <c r="P405" t="inlineStr">
+      <c r="P405" t="inlineStr"/>
+      <c r="Q405" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -23177,10 +24392,13 @@
           <t>2021-08-03</t>
         </is>
       </c>
-      <c r="M406" t="inlineStr"/>
+      <c r="M406" t="n">
+        <v>0</v>
+      </c>
       <c r="N406" t="inlineStr"/>
       <c r="O406" t="inlineStr"/>
-      <c r="P406" t="inlineStr">
+      <c r="P406" t="inlineStr"/>
+      <c r="Q406" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -23233,10 +24451,13 @@
           <t>2021-05-06</t>
         </is>
       </c>
-      <c r="M407" t="inlineStr"/>
+      <c r="M407" t="n">
+        <v>0</v>
+      </c>
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="inlineStr"/>
-      <c r="P407" t="inlineStr">
+      <c r="P407" t="inlineStr"/>
+      <c r="Q407" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -23289,10 +24510,13 @@
           <t>2021-05-06</t>
         </is>
       </c>
-      <c r="M408" t="inlineStr"/>
+      <c r="M408" t="n">
+        <v>0</v>
+      </c>
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="inlineStr"/>
-      <c r="P408" t="inlineStr">
+      <c r="P408" t="inlineStr"/>
+      <c r="Q408" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -23345,10 +24569,13 @@
           <t>2020-12-04</t>
         </is>
       </c>
-      <c r="M409" t="inlineStr"/>
+      <c r="M409" t="n">
+        <v>0</v>
+      </c>
       <c r="N409" t="inlineStr"/>
       <c r="O409" t="inlineStr"/>
-      <c r="P409" t="inlineStr">
+      <c r="P409" t="inlineStr"/>
+      <c r="Q409" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -23401,10 +24628,13 @@
           <t>2020-12-04</t>
         </is>
       </c>
-      <c r="M410" t="inlineStr"/>
+      <c r="M410" t="n">
+        <v>0</v>
+      </c>
       <c r="N410" t="inlineStr"/>
       <c r="O410" t="inlineStr"/>
-      <c r="P410" t="inlineStr">
+      <c r="P410" t="inlineStr"/>
+      <c r="Q410" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -23457,10 +24687,13 @@
           <t>2020-08-03</t>
         </is>
       </c>
-      <c r="M411" t="inlineStr"/>
+      <c r="M411" t="n">
+        <v>0</v>
+      </c>
       <c r="N411" t="inlineStr"/>
       <c r="O411" t="inlineStr"/>
-      <c r="P411" t="inlineStr">
+      <c r="P411" t="inlineStr"/>
+      <c r="Q411" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -23513,10 +24746,13 @@
           <t>2020-05-06</t>
         </is>
       </c>
-      <c r="M412" t="inlineStr"/>
+      <c r="M412" t="n">
+        <v>0</v>
+      </c>
       <c r="N412" t="inlineStr"/>
       <c r="O412" t="inlineStr"/>
-      <c r="P412" t="inlineStr">
+      <c r="P412" t="inlineStr"/>
+      <c r="Q412" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -23569,10 +24805,13 @@
           <t>2020-05-06</t>
         </is>
       </c>
-      <c r="M413" t="inlineStr"/>
+      <c r="M413" t="n">
+        <v>0</v>
+      </c>
       <c r="N413" t="inlineStr"/>
       <c r="O413" t="inlineStr"/>
-      <c r="P413" t="inlineStr">
+      <c r="P413" t="inlineStr"/>
+      <c r="Q413" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -23625,10 +24864,13 @@
           <t>2020-03-05</t>
         </is>
       </c>
-      <c r="M414" t="inlineStr"/>
+      <c r="M414" t="n">
+        <v>0</v>
+      </c>
       <c r="N414" t="inlineStr"/>
       <c r="O414" t="inlineStr"/>
-      <c r="P414" t="inlineStr">
+      <c r="P414" t="inlineStr"/>
+      <c r="Q414" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -23681,10 +24923,13 @@
           <t>2019-12-05</t>
         </is>
       </c>
-      <c r="M415" t="inlineStr"/>
+      <c r="M415" t="n">
+        <v>0</v>
+      </c>
       <c r="N415" t="inlineStr"/>
       <c r="O415" t="inlineStr"/>
-      <c r="P415" t="inlineStr">
+      <c r="P415" t="inlineStr"/>
+      <c r="Q415" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -23737,10 +24982,13 @@
           <t>2019-12-05</t>
         </is>
       </c>
-      <c r="M416" t="inlineStr"/>
+      <c r="M416" t="n">
+        <v>0</v>
+      </c>
       <c r="N416" t="inlineStr"/>
       <c r="O416" t="inlineStr"/>
-      <c r="P416" t="inlineStr">
+      <c r="P416" t="inlineStr"/>
+      <c r="Q416" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -23793,10 +25041,13 @@
           <t>2019-12-05</t>
         </is>
       </c>
-      <c r="M417" t="inlineStr"/>
+      <c r="M417" t="n">
+        <v>0</v>
+      </c>
       <c r="N417" t="inlineStr"/>
       <c r="O417" t="inlineStr"/>
-      <c r="P417" t="inlineStr">
+      <c r="P417" t="inlineStr"/>
+      <c r="Q417" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -23849,10 +25100,13 @@
           <t>2019-12-05</t>
         </is>
       </c>
-      <c r="M418" t="inlineStr"/>
+      <c r="M418" t="n">
+        <v>0</v>
+      </c>
       <c r="N418" t="inlineStr"/>
       <c r="O418" t="inlineStr"/>
-      <c r="P418" t="inlineStr">
+      <c r="P418" t="inlineStr"/>
+      <c r="Q418" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -23905,10 +25159,13 @@
           <t>2019-12-05</t>
         </is>
       </c>
-      <c r="M419" t="inlineStr"/>
+      <c r="M419" t="n">
+        <v>0</v>
+      </c>
       <c r="N419" t="inlineStr"/>
       <c r="O419" t="inlineStr"/>
-      <c r="P419" t="inlineStr">
+      <c r="P419" t="inlineStr"/>
+      <c r="Q419" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -23961,20 +25218,23 @@
           <t>2022-01-03</t>
         </is>
       </c>
-      <c r="M420" t="inlineStr">
+      <c r="M420" t="n">
+        <v>164</v>
+      </c>
+      <c r="N420" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N420" t="inlineStr">
+      <c r="O420" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O420" t="n">
+      <c r="P420" t="n">
         <v>57</v>
       </c>
-      <c r="P420" t="inlineStr">
+      <c r="Q420" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -24027,20 +25287,23 @@
           <t>2021-11-03</t>
         </is>
       </c>
-      <c r="M421" t="inlineStr">
+      <c r="M421" t="n">
+        <v>164</v>
+      </c>
+      <c r="N421" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N421" t="inlineStr">
+      <c r="O421" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O421" t="n">
+      <c r="P421" t="n">
         <v>457</v>
       </c>
-      <c r="P421" t="inlineStr">
+      <c r="Q421" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -24093,18 +25356,21 @@
           <t>2021-11-03</t>
         </is>
       </c>
-      <c r="M422" t="inlineStr">
+      <c r="M422" t="n">
+        <v>164</v>
+      </c>
+      <c r="N422" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N422" t="inlineStr">
+      <c r="O422" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O422" t="inlineStr"/>
-      <c r="P422" t="inlineStr">
+      <c r="P422" t="inlineStr"/>
+      <c r="Q422" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -24157,20 +25423,23 @@
           <t>2021-07-04</t>
         </is>
       </c>
-      <c r="M423" t="inlineStr">
+      <c r="M423" t="n">
+        <v>164</v>
+      </c>
+      <c r="N423" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N423" t="inlineStr">
+      <c r="O423" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O423" t="n">
+      <c r="P423" t="n">
         <v>321</v>
       </c>
-      <c r="P423" t="inlineStr">
+      <c r="Q423" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -24223,20 +25492,23 @@
           <t>2021-07-04</t>
         </is>
       </c>
-      <c r="M424" t="inlineStr">
+      <c r="M424" t="n">
+        <v>164</v>
+      </c>
+      <c r="N424" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N424" t="inlineStr">
+      <c r="O424" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O424" t="n">
+      <c r="P424" t="n">
         <v>213</v>
       </c>
-      <c r="P424" t="inlineStr">
+      <c r="Q424" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -24289,10 +25561,13 @@
           <t>2022-06-03</t>
         </is>
       </c>
-      <c r="M425" t="inlineStr"/>
+      <c r="M425" t="n">
+        <v>0</v>
+      </c>
       <c r="N425" t="inlineStr"/>
       <c r="O425" t="inlineStr"/>
       <c r="P425" t="inlineStr"/>
+      <c r="Q425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -24341,10 +25616,13 @@
           <t>2021-07-04</t>
         </is>
       </c>
-      <c r="M426" t="inlineStr"/>
+      <c r="M426" t="n">
+        <v>0</v>
+      </c>
       <c r="N426" t="inlineStr"/>
       <c r="O426" t="inlineStr"/>
-      <c r="P426" t="inlineStr">
+      <c r="P426" t="inlineStr"/>
+      <c r="Q426" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -24397,10 +25675,13 @@
           <t>2021-03-05</t>
         </is>
       </c>
-      <c r="M427" t="inlineStr"/>
+      <c r="M427" t="n">
+        <v>0</v>
+      </c>
       <c r="N427" t="inlineStr"/>
       <c r="O427" t="inlineStr"/>
-      <c r="P427" t="inlineStr">
+      <c r="P427" t="inlineStr"/>
+      <c r="Q427" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -24453,10 +25734,13 @@
           <t>2020-09-03</t>
         </is>
       </c>
-      <c r="M428" t="inlineStr"/>
+      <c r="M428" t="n">
+        <v>0</v>
+      </c>
       <c r="N428" t="inlineStr"/>
       <c r="O428" t="inlineStr"/>
-      <c r="P428" t="inlineStr">
+      <c r="P428" t="inlineStr"/>
+      <c r="Q428" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -24509,10 +25793,13 @@
           <t>2020-09-03</t>
         </is>
       </c>
-      <c r="M429" t="inlineStr"/>
+      <c r="M429" t="n">
+        <v>0</v>
+      </c>
       <c r="N429" t="inlineStr"/>
       <c r="O429" t="inlineStr"/>
-      <c r="P429" t="inlineStr">
+      <c r="P429" t="inlineStr"/>
+      <c r="Q429" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -24565,10 +25852,13 @@
           <t>2020-09-03</t>
         </is>
       </c>
-      <c r="M430" t="inlineStr"/>
+      <c r="M430" t="n">
+        <v>0</v>
+      </c>
       <c r="N430" t="inlineStr"/>
       <c r="O430" t="inlineStr"/>
-      <c r="P430" t="inlineStr">
+      <c r="P430" t="inlineStr"/>
+      <c r="Q430" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -24621,10 +25911,13 @@
           <t>2020-08-03</t>
         </is>
       </c>
-      <c r="M431" t="inlineStr"/>
+      <c r="M431" t="n">
+        <v>0</v>
+      </c>
       <c r="N431" t="inlineStr"/>
       <c r="O431" t="inlineStr"/>
-      <c r="P431" t="inlineStr">
+      <c r="P431" t="inlineStr"/>
+      <c r="Q431" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -24677,10 +25970,13 @@
           <t>2020-08-03</t>
         </is>
       </c>
-      <c r="M432" t="inlineStr"/>
+      <c r="M432" t="n">
+        <v>0</v>
+      </c>
       <c r="N432" t="inlineStr"/>
       <c r="O432" t="inlineStr"/>
-      <c r="P432" t="inlineStr">
+      <c r="P432" t="inlineStr"/>
+      <c r="Q432" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -24733,10 +26029,13 @@
           <t>2020-08-03</t>
         </is>
       </c>
-      <c r="M433" t="inlineStr"/>
+      <c r="M433" t="n">
+        <v>0</v>
+      </c>
       <c r="N433" t="inlineStr"/>
       <c r="O433" t="inlineStr"/>
-      <c r="P433" t="inlineStr">
+      <c r="P433" t="inlineStr"/>
+      <c r="Q433" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -24789,10 +26088,13 @@
           <t>2020-03-05</t>
         </is>
       </c>
-      <c r="M434" t="inlineStr"/>
+      <c r="M434" t="n">
+        <v>0</v>
+      </c>
       <c r="N434" t="inlineStr"/>
       <c r="O434" t="inlineStr"/>
-      <c r="P434" t="inlineStr">
+      <c r="P434" t="inlineStr"/>
+      <c r="Q434" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -24845,10 +26147,13 @@
           <t>2020-03-05</t>
         </is>
       </c>
-      <c r="M435" t="inlineStr"/>
+      <c r="M435" t="n">
+        <v>0</v>
+      </c>
       <c r="N435" t="inlineStr"/>
       <c r="O435" t="inlineStr"/>
-      <c r="P435" t="inlineStr">
+      <c r="P435" t="inlineStr"/>
+      <c r="Q435" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -24901,10 +26206,13 @@
           <t>2019-10-04</t>
         </is>
       </c>
-      <c r="M436" t="inlineStr"/>
+      <c r="M436" t="n">
+        <v>0</v>
+      </c>
       <c r="N436" t="inlineStr"/>
       <c r="O436" t="inlineStr"/>
-      <c r="P436" t="inlineStr">
+      <c r="P436" t="inlineStr"/>
+      <c r="Q436" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -24957,10 +26265,13 @@
           <t>2019-10-04</t>
         </is>
       </c>
-      <c r="M437" t="inlineStr"/>
+      <c r="M437" t="n">
+        <v>0</v>
+      </c>
       <c r="N437" t="inlineStr"/>
       <c r="O437" t="inlineStr"/>
-      <c r="P437" t="inlineStr">
+      <c r="P437" t="inlineStr"/>
+      <c r="Q437" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -25013,18 +26324,21 @@
           <t>2022-02-03</t>
         </is>
       </c>
-      <c r="M438" t="inlineStr">
+      <c r="M438" t="n">
+        <v>758</v>
+      </c>
+      <c r="N438" t="inlineStr">
         <is>
           <t>BR01</t>
         </is>
       </c>
-      <c r="N438" t="inlineStr">
+      <c r="O438" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="O438" t="inlineStr"/>
-      <c r="P438" t="inlineStr">
+      <c r="P438" t="inlineStr"/>
+      <c r="Q438" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -25077,18 +26391,21 @@
           <t>2022-02-03</t>
         </is>
       </c>
-      <c r="M439" t="inlineStr">
+      <c r="M439" t="n">
+        <v>758</v>
+      </c>
+      <c r="N439" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N439" t="inlineStr">
+      <c r="O439" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O439" t="inlineStr"/>
-      <c r="P439" t="inlineStr">
+      <c r="P439" t="inlineStr"/>
+      <c r="Q439" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -25141,10 +26458,13 @@
           <t>2021-09-03</t>
         </is>
       </c>
-      <c r="M440" t="inlineStr"/>
+      <c r="M440" t="n">
+        <v>0</v>
+      </c>
       <c r="N440" t="inlineStr"/>
       <c r="O440" t="inlineStr"/>
-      <c r="P440" t="inlineStr">
+      <c r="P440" t="inlineStr"/>
+      <c r="Q440" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -25197,10 +26517,13 @@
           <t>2021-09-03</t>
         </is>
       </c>
-      <c r="M441" t="inlineStr"/>
+      <c r="M441" t="n">
+        <v>0</v>
+      </c>
       <c r="N441" t="inlineStr"/>
       <c r="O441" t="inlineStr"/>
-      <c r="P441" t="inlineStr">
+      <c r="P441" t="inlineStr"/>
+      <c r="Q441" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -25253,10 +26576,13 @@
           <t>2021-09-03</t>
         </is>
       </c>
-      <c r="M442" t="inlineStr"/>
+      <c r="M442" t="n">
+        <v>0</v>
+      </c>
       <c r="N442" t="inlineStr"/>
       <c r="O442" t="inlineStr"/>
-      <c r="P442" t="inlineStr">
+      <c r="P442" t="inlineStr"/>
+      <c r="Q442" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -25309,10 +26635,13 @@
           <t>2021-09-03</t>
         </is>
       </c>
-      <c r="M443" t="inlineStr"/>
+      <c r="M443" t="n">
+        <v>0</v>
+      </c>
       <c r="N443" t="inlineStr"/>
       <c r="O443" t="inlineStr"/>
-      <c r="P443" t="inlineStr">
+      <c r="P443" t="inlineStr"/>
+      <c r="Q443" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -25365,10 +26694,13 @@
           <t>2021-07-04</t>
         </is>
       </c>
-      <c r="M444" t="inlineStr"/>
+      <c r="M444" t="n">
+        <v>0</v>
+      </c>
       <c r="N444" t="inlineStr"/>
       <c r="O444" t="inlineStr"/>
-      <c r="P444" t="inlineStr">
+      <c r="P444" t="inlineStr"/>
+      <c r="Q444" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -25421,10 +26753,13 @@
           <t>2021-06-03</t>
         </is>
       </c>
-      <c r="M445" t="inlineStr"/>
+      <c r="M445" t="n">
+        <v>0</v>
+      </c>
       <c r="N445" t="inlineStr"/>
       <c r="O445" t="inlineStr"/>
-      <c r="P445" t="inlineStr">
+      <c r="P445" t="inlineStr"/>
+      <c r="Q445" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -25477,10 +26812,13 @@
           <t>2021-05-06</t>
         </is>
       </c>
-      <c r="M446" t="inlineStr"/>
+      <c r="M446" t="n">
+        <v>0</v>
+      </c>
       <c r="N446" t="inlineStr"/>
       <c r="O446" t="inlineStr"/>
-      <c r="P446" t="inlineStr">
+      <c r="P446" t="inlineStr"/>
+      <c r="Q446" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -25533,10 +26871,13 @@
           <t>2021-05-06</t>
         </is>
       </c>
-      <c r="M447" t="inlineStr"/>
+      <c r="M447" t="n">
+        <v>0</v>
+      </c>
       <c r="N447" t="inlineStr"/>
       <c r="O447" t="inlineStr"/>
-      <c r="P447" t="inlineStr">
+      <c r="P447" t="inlineStr"/>
+      <c r="Q447" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -25589,10 +26930,13 @@
           <t>2021-02-03</t>
         </is>
       </c>
-      <c r="M448" t="inlineStr"/>
+      <c r="M448" t="n">
+        <v>0</v>
+      </c>
       <c r="N448" t="inlineStr"/>
       <c r="O448" t="inlineStr"/>
-      <c r="P448" t="inlineStr">
+      <c r="P448" t="inlineStr"/>
+      <c r="Q448" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -25645,10 +26989,13 @@
           <t>2020-12-04</t>
         </is>
       </c>
-      <c r="M449" t="inlineStr"/>
+      <c r="M449" t="n">
+        <v>0</v>
+      </c>
       <c r="N449" t="inlineStr"/>
       <c r="O449" t="inlineStr"/>
-      <c r="P449" t="inlineStr">
+      <c r="P449" t="inlineStr"/>
+      <c r="Q449" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -25701,10 +27048,13 @@
           <t>2021-01-03</t>
         </is>
       </c>
-      <c r="M450" t="inlineStr"/>
+      <c r="M450" t="n">
+        <v>0</v>
+      </c>
       <c r="N450" t="inlineStr"/>
       <c r="O450" t="inlineStr"/>
-      <c r="P450" t="inlineStr">
+      <c r="P450" t="inlineStr"/>
+      <c r="Q450" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -25757,10 +27107,13 @@
           <t>2020-06-03</t>
         </is>
       </c>
-      <c r="M451" t="inlineStr"/>
+      <c r="M451" t="n">
+        <v>0</v>
+      </c>
       <c r="N451" t="inlineStr"/>
       <c r="O451" t="inlineStr"/>
-      <c r="P451" t="inlineStr">
+      <c r="P451" t="inlineStr"/>
+      <c r="Q451" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -25813,10 +27166,13 @@
           <t>2020-03-05</t>
         </is>
       </c>
-      <c r="M452" t="inlineStr"/>
+      <c r="M452" t="n">
+        <v>0</v>
+      </c>
       <c r="N452" t="inlineStr"/>
       <c r="O452" t="inlineStr"/>
-      <c r="P452" t="inlineStr">
+      <c r="P452" t="inlineStr"/>
+      <c r="Q452" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -25869,10 +27225,13 @@
           <t>2020-03-05</t>
         </is>
       </c>
-      <c r="M453" t="inlineStr"/>
+      <c r="M453" t="n">
+        <v>0</v>
+      </c>
       <c r="N453" t="inlineStr"/>
       <c r="O453" t="inlineStr"/>
-      <c r="P453" t="inlineStr">
+      <c r="P453" t="inlineStr"/>
+      <c r="Q453" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -25925,10 +27284,13 @@
           <t>2020-03-05</t>
         </is>
       </c>
-      <c r="M454" t="inlineStr"/>
+      <c r="M454" t="n">
+        <v>0</v>
+      </c>
       <c r="N454" t="inlineStr"/>
       <c r="O454" t="inlineStr"/>
-      <c r="P454" t="inlineStr">
+      <c r="P454" t="inlineStr"/>
+      <c r="Q454" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -25981,10 +27343,13 @@
           <t>2020-03-05</t>
         </is>
       </c>
-      <c r="M455" t="inlineStr"/>
+      <c r="M455" t="n">
+        <v>0</v>
+      </c>
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr"/>
-      <c r="P455" t="inlineStr">
+      <c r="P455" t="inlineStr"/>
+      <c r="Q455" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -26037,10 +27402,13 @@
           <t>2020-01-04</t>
         </is>
       </c>
-      <c r="M456" t="inlineStr"/>
+      <c r="M456" t="n">
+        <v>0</v>
+      </c>
       <c r="N456" t="inlineStr"/>
       <c r="O456" t="inlineStr"/>
-      <c r="P456" t="inlineStr">
+      <c r="P456" t="inlineStr"/>
+      <c r="Q456" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -26093,10 +27461,13 @@
           <t>2020-01-04</t>
         </is>
       </c>
-      <c r="M457" t="inlineStr"/>
+      <c r="M457" t="n">
+        <v>0</v>
+      </c>
       <c r="N457" t="inlineStr"/>
       <c r="O457" t="inlineStr"/>
-      <c r="P457" t="inlineStr">
+      <c r="P457" t="inlineStr"/>
+      <c r="Q457" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -26149,18 +27520,21 @@
           <t>2022-05-06</t>
         </is>
       </c>
-      <c r="M458" t="inlineStr">
+      <c r="M458" t="n">
+        <v>1910</v>
+      </c>
+      <c r="N458" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N458" t="inlineStr">
+      <c r="O458" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O458" t="inlineStr"/>
       <c r="P458" t="inlineStr"/>
+      <c r="Q458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -26209,20 +27583,23 @@
           <t>2021-06-03</t>
         </is>
       </c>
-      <c r="M459" t="inlineStr">
+      <c r="M459" t="n">
+        <v>1910</v>
+      </c>
+      <c r="N459" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N459" t="inlineStr">
+      <c r="O459" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O459" t="n">
+      <c r="P459" t="n">
         <v>3077</v>
       </c>
-      <c r="P459" t="inlineStr">
+      <c r="Q459" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -26275,10 +27652,13 @@
           <t>2022-02-03</t>
         </is>
       </c>
-      <c r="M460" t="inlineStr"/>
+      <c r="M460" t="n">
+        <v>0</v>
+      </c>
       <c r="N460" t="inlineStr"/>
       <c r="O460" t="inlineStr"/>
-      <c r="P460" t="inlineStr">
+      <c r="P460" t="inlineStr"/>
+      <c r="Q460" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -26331,10 +27711,13 @@
           <t>2021-06-03</t>
         </is>
       </c>
-      <c r="M461" t="inlineStr"/>
+      <c r="M461" t="n">
+        <v>0</v>
+      </c>
       <c r="N461" t="inlineStr"/>
       <c r="O461" t="inlineStr"/>
-      <c r="P461" t="inlineStr">
+      <c r="P461" t="inlineStr"/>
+      <c r="Q461" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -26387,10 +27770,13 @@
           <t>2021-06-03</t>
         </is>
       </c>
-      <c r="M462" t="inlineStr"/>
+      <c r="M462" t="n">
+        <v>0</v>
+      </c>
       <c r="N462" t="inlineStr"/>
       <c r="O462" t="inlineStr"/>
-      <c r="P462" t="inlineStr">
+      <c r="P462" t="inlineStr"/>
+      <c r="Q462" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -26443,10 +27829,13 @@
           <t>2021-01-03</t>
         </is>
       </c>
-      <c r="M463" t="inlineStr"/>
+      <c r="M463" t="n">
+        <v>0</v>
+      </c>
       <c r="N463" t="inlineStr"/>
       <c r="O463" t="inlineStr"/>
-      <c r="P463" t="inlineStr">
+      <c r="P463" t="inlineStr"/>
+      <c r="Q463" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -26499,10 +27888,13 @@
           <t>2020-12-04</t>
         </is>
       </c>
-      <c r="M464" t="inlineStr"/>
+      <c r="M464" t="n">
+        <v>0</v>
+      </c>
       <c r="N464" t="inlineStr"/>
       <c r="O464" t="inlineStr"/>
-      <c r="P464" t="inlineStr">
+      <c r="P464" t="inlineStr"/>
+      <c r="Q464" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -26555,10 +27947,13 @@
           <t>2020-12-04</t>
         </is>
       </c>
-      <c r="M465" t="inlineStr"/>
+      <c r="M465" t="n">
+        <v>0</v>
+      </c>
       <c r="N465" t="inlineStr"/>
       <c r="O465" t="inlineStr"/>
-      <c r="P465" t="inlineStr">
+      <c r="P465" t="inlineStr"/>
+      <c r="Q465" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -26611,10 +28006,13 @@
           <t>2020-12-04</t>
         </is>
       </c>
-      <c r="M466" t="inlineStr"/>
+      <c r="M466" t="n">
+        <v>0</v>
+      </c>
       <c r="N466" t="inlineStr"/>
       <c r="O466" t="inlineStr"/>
-      <c r="P466" t="inlineStr">
+      <c r="P466" t="inlineStr"/>
+      <c r="Q466" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -26667,10 +28065,13 @@
           <t>2021-12-04</t>
         </is>
       </c>
-      <c r="M467" t="inlineStr"/>
+      <c r="M467" t="n">
+        <v>0</v>
+      </c>
       <c r="N467" t="inlineStr"/>
       <c r="O467" t="inlineStr"/>
-      <c r="P467" t="inlineStr">
+      <c r="P467" t="inlineStr"/>
+      <c r="Q467" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -26723,10 +28124,13 @@
           <t>2020-08-03</t>
         </is>
       </c>
-      <c r="M468" t="inlineStr"/>
+      <c r="M468" t="n">
+        <v>0</v>
+      </c>
       <c r="N468" t="inlineStr"/>
       <c r="O468" t="inlineStr"/>
-      <c r="P468" t="inlineStr">
+      <c r="P468" t="inlineStr"/>
+      <c r="Q468" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -26779,10 +28183,13 @@
           <t>2020-08-03</t>
         </is>
       </c>
-      <c r="M469" t="inlineStr"/>
+      <c r="M469" t="n">
+        <v>0</v>
+      </c>
       <c r="N469" t="inlineStr"/>
       <c r="O469" t="inlineStr"/>
-      <c r="P469" t="inlineStr">
+      <c r="P469" t="inlineStr"/>
+      <c r="Q469" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -26835,10 +28242,13 @@
           <t>2020-08-03</t>
         </is>
       </c>
-      <c r="M470" t="inlineStr"/>
+      <c r="M470" t="n">
+        <v>0</v>
+      </c>
       <c r="N470" t="inlineStr"/>
       <c r="O470" t="inlineStr"/>
-      <c r="P470" t="inlineStr">
+      <c r="P470" t="inlineStr"/>
+      <c r="Q470" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -26891,10 +28301,13 @@
           <t>2020-08-03</t>
         </is>
       </c>
-      <c r="M471" t="inlineStr"/>
+      <c r="M471" t="n">
+        <v>0</v>
+      </c>
       <c r="N471" t="inlineStr"/>
       <c r="O471" t="inlineStr"/>
-      <c r="P471" t="inlineStr">
+      <c r="P471" t="inlineStr"/>
+      <c r="Q471" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -26947,10 +28360,13 @@
           <t>2020-08-03</t>
         </is>
       </c>
-      <c r="M472" t="inlineStr"/>
+      <c r="M472" t="n">
+        <v>0</v>
+      </c>
       <c r="N472" t="inlineStr"/>
       <c r="O472" t="inlineStr"/>
-      <c r="P472" t="inlineStr">
+      <c r="P472" t="inlineStr"/>
+      <c r="Q472" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -27003,10 +28419,13 @@
           <t>2019-11-04</t>
         </is>
       </c>
-      <c r="M473" t="inlineStr"/>
+      <c r="M473" t="n">
+        <v>0</v>
+      </c>
       <c r="N473" t="inlineStr"/>
       <c r="O473" t="inlineStr"/>
-      <c r="P473" t="inlineStr">
+      <c r="P473" t="inlineStr"/>
+      <c r="Q473" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -27059,10 +28478,13 @@
           <t>2019-10-04</t>
         </is>
       </c>
-      <c r="M474" t="inlineStr"/>
+      <c r="M474" t="n">
+        <v>0</v>
+      </c>
       <c r="N474" t="inlineStr"/>
       <c r="O474" t="inlineStr"/>
-      <c r="P474" t="inlineStr">
+      <c r="P474" t="inlineStr"/>
+      <c r="Q474" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -27115,18 +28537,21 @@
           <t>2022-05-05</t>
         </is>
       </c>
-      <c r="M475" t="inlineStr">
+      <c r="M475" t="n">
+        <v>0</v>
+      </c>
+      <c r="N475" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N475" t="inlineStr">
+      <c r="O475" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O475" t="inlineStr"/>
       <c r="P475" t="inlineStr"/>
+      <c r="Q475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -27175,20 +28600,23 @@
           <t>2022-01-05</t>
         </is>
       </c>
-      <c r="M476" t="inlineStr">
+      <c r="M476" t="n">
+        <v>0</v>
+      </c>
+      <c r="N476" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N476" t="inlineStr">
+      <c r="O476" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O476" t="n">
+      <c r="P476" t="n">
         <v>14</v>
       </c>
-      <c r="P476" t="inlineStr">
+      <c r="Q476" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -27241,10 +28669,13 @@
           <t>2021-04-05</t>
         </is>
       </c>
-      <c r="M477" t="inlineStr"/>
+      <c r="M477" t="n">
+        <v>0</v>
+      </c>
       <c r="N477" t="inlineStr"/>
       <c r="O477" t="inlineStr"/>
-      <c r="P477" t="inlineStr">
+      <c r="P477" t="inlineStr"/>
+      <c r="Q477" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -27297,10 +28728,13 @@
           <t>2019-10-06</t>
         </is>
       </c>
-      <c r="M478" t="inlineStr"/>
+      <c r="M478" t="n">
+        <v>0</v>
+      </c>
       <c r="N478" t="inlineStr"/>
       <c r="O478" t="inlineStr"/>
-      <c r="P478" t="inlineStr">
+      <c r="P478" t="inlineStr"/>
+      <c r="Q478" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -27353,18 +28787,21 @@
           <t>2023-02-03</t>
         </is>
       </c>
-      <c r="M479" t="inlineStr">
+      <c r="M479" t="n">
+        <v>0</v>
+      </c>
+      <c r="N479" t="inlineStr">
         <is>
           <t>BR01</t>
         </is>
       </c>
-      <c r="N479" t="inlineStr">
+      <c r="O479" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="O479" t="inlineStr"/>
       <c r="P479" t="inlineStr"/>
+      <c r="Q479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
@@ -27413,18 +28850,21 @@
           <t>2023-02-03</t>
         </is>
       </c>
-      <c r="M480" t="inlineStr">
+      <c r="M480" t="n">
+        <v>0</v>
+      </c>
+      <c r="N480" t="inlineStr">
         <is>
           <t>BR01</t>
         </is>
       </c>
-      <c r="N480" t="inlineStr">
+      <c r="O480" t="inlineStr">
         <is>
           <t>4.0</t>
         </is>
       </c>
-      <c r="O480" t="inlineStr"/>
       <c r="P480" t="inlineStr"/>
+      <c r="Q480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
@@ -27473,18 +28913,21 @@
           <t>2023-02-03</t>
         </is>
       </c>
-      <c r="M481" t="inlineStr">
+      <c r="M481" t="n">
+        <v>0</v>
+      </c>
+      <c r="N481" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N481" t="inlineStr">
+      <c r="O481" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O481" t="inlineStr"/>
       <c r="P481" t="inlineStr"/>
+      <c r="Q481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
@@ -27533,10 +28976,13 @@
           <t>2022-12-04</t>
         </is>
       </c>
-      <c r="M482" t="inlineStr"/>
+      <c r="M482" t="n">
+        <v>0</v>
+      </c>
       <c r="N482" t="inlineStr"/>
       <c r="O482" t="inlineStr"/>
       <c r="P482" t="inlineStr"/>
+      <c r="Q482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
@@ -27585,10 +29031,13 @@
           <t>2022-09-03</t>
         </is>
       </c>
-      <c r="M483" t="inlineStr"/>
+      <c r="M483" t="n">
+        <v>0</v>
+      </c>
       <c r="N483" t="inlineStr"/>
       <c r="O483" t="inlineStr"/>
       <c r="P483" t="inlineStr"/>
+      <c r="Q483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
@@ -27637,10 +29086,13 @@
           <t>2022-07-04</t>
         </is>
       </c>
-      <c r="M484" t="inlineStr"/>
+      <c r="M484" t="n">
+        <v>0</v>
+      </c>
       <c r="N484" t="inlineStr"/>
       <c r="O484" t="inlineStr"/>
       <c r="P484" t="inlineStr"/>
+      <c r="Q484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
@@ -27689,10 +29141,13 @@
           <t>2021-12-04</t>
         </is>
       </c>
-      <c r="M485" t="inlineStr"/>
+      <c r="M485" t="n">
+        <v>0</v>
+      </c>
       <c r="N485" t="inlineStr"/>
       <c r="O485" t="inlineStr"/>
-      <c r="P485" t="inlineStr">
+      <c r="P485" t="inlineStr"/>
+      <c r="Q485" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -27745,10 +29200,13 @@
           <t>2020-12-04</t>
         </is>
       </c>
-      <c r="M486" t="inlineStr"/>
+      <c r="M486" t="n">
+        <v>0</v>
+      </c>
       <c r="N486" t="inlineStr"/>
       <c r="O486" t="inlineStr"/>
-      <c r="P486" t="inlineStr">
+      <c r="P486" t="inlineStr"/>
+      <c r="Q486" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -27801,10 +29259,13 @@
           <t>2021-04-05</t>
         </is>
       </c>
-      <c r="M487" t="inlineStr"/>
+      <c r="M487" t="n">
+        <v>0</v>
+      </c>
       <c r="N487" t="inlineStr"/>
       <c r="O487" t="inlineStr"/>
-      <c r="P487" t="inlineStr">
+      <c r="P487" t="inlineStr"/>
+      <c r="Q487" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -27857,10 +29318,13 @@
           <t>2020-12-04</t>
         </is>
       </c>
-      <c r="M488" t="inlineStr"/>
+      <c r="M488" t="n">
+        <v>0</v>
+      </c>
       <c r="N488" t="inlineStr"/>
       <c r="O488" t="inlineStr"/>
-      <c r="P488" t="inlineStr">
+      <c r="P488" t="inlineStr"/>
+      <c r="Q488" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -27913,10 +29377,13 @@
           <t>2020-12-04</t>
         </is>
       </c>
-      <c r="M489" t="inlineStr"/>
+      <c r="M489" t="n">
+        <v>0</v>
+      </c>
       <c r="N489" t="inlineStr"/>
       <c r="O489" t="inlineStr"/>
-      <c r="P489" t="inlineStr">
+      <c r="P489" t="inlineStr"/>
+      <c r="Q489" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -27969,10 +29436,13 @@
           <t>2020-07-04</t>
         </is>
       </c>
-      <c r="M490" t="inlineStr"/>
+      <c r="M490" t="n">
+        <v>0</v>
+      </c>
       <c r="N490" t="inlineStr"/>
       <c r="O490" t="inlineStr"/>
-      <c r="P490" t="inlineStr">
+      <c r="P490" t="inlineStr"/>
+      <c r="Q490" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -28025,10 +29495,13 @@
           <t>2020-07-04</t>
         </is>
       </c>
-      <c r="M491" t="inlineStr"/>
+      <c r="M491" t="n">
+        <v>0</v>
+      </c>
       <c r="N491" t="inlineStr"/>
       <c r="O491" t="inlineStr"/>
-      <c r="P491" t="inlineStr">
+      <c r="P491" t="inlineStr"/>
+      <c r="Q491" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -28081,10 +29554,13 @@
           <t>2020-05-06</t>
         </is>
       </c>
-      <c r="M492" t="inlineStr"/>
+      <c r="M492" t="n">
+        <v>0</v>
+      </c>
       <c r="N492" t="inlineStr"/>
       <c r="O492" t="inlineStr"/>
-      <c r="P492" t="inlineStr">
+      <c r="P492" t="inlineStr"/>
+      <c r="Q492" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -28137,10 +29613,13 @@
           <t>2020-05-06</t>
         </is>
       </c>
-      <c r="M493" t="inlineStr"/>
+      <c r="M493" t="n">
+        <v>0</v>
+      </c>
       <c r="N493" t="inlineStr"/>
       <c r="O493" t="inlineStr"/>
-      <c r="P493" t="inlineStr">
+      <c r="P493" t="inlineStr"/>
+      <c r="Q493" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -28193,10 +29672,13 @@
           <t>2020-05-06</t>
         </is>
       </c>
-      <c r="M494" t="inlineStr"/>
+      <c r="M494" t="n">
+        <v>0</v>
+      </c>
       <c r="N494" t="inlineStr"/>
       <c r="O494" t="inlineStr"/>
-      <c r="P494" t="inlineStr">
+      <c r="P494" t="inlineStr"/>
+      <c r="Q494" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -28249,10 +29731,13 @@
           <t>2019-12-05</t>
         </is>
       </c>
-      <c r="M495" t="inlineStr"/>
+      <c r="M495" t="n">
+        <v>0</v>
+      </c>
       <c r="N495" t="inlineStr"/>
       <c r="O495" t="inlineStr"/>
-      <c r="P495" t="inlineStr">
+      <c r="P495" t="inlineStr"/>
+      <c r="Q495" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -28305,10 +29790,13 @@
           <t>2019-12-05</t>
         </is>
       </c>
-      <c r="M496" t="inlineStr"/>
+      <c r="M496" t="n">
+        <v>0</v>
+      </c>
       <c r="N496" t="inlineStr"/>
       <c r="O496" t="inlineStr"/>
-      <c r="P496" t="inlineStr">
+      <c r="P496" t="inlineStr"/>
+      <c r="Q496" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -28361,10 +29849,13 @@
           <t>2019-12-05</t>
         </is>
       </c>
-      <c r="M497" t="inlineStr"/>
+      <c r="M497" t="n">
+        <v>0</v>
+      </c>
       <c r="N497" t="inlineStr"/>
       <c r="O497" t="inlineStr"/>
-      <c r="P497" t="inlineStr">
+      <c r="P497" t="inlineStr"/>
+      <c r="Q497" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -28417,10 +29908,13 @@
           <t>2019-12-05</t>
         </is>
       </c>
-      <c r="M498" t="inlineStr"/>
+      <c r="M498" t="n">
+        <v>0</v>
+      </c>
       <c r="N498" t="inlineStr"/>
       <c r="O498" t="inlineStr"/>
-      <c r="P498" t="inlineStr">
+      <c r="P498" t="inlineStr"/>
+      <c r="Q498" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -28473,18 +29967,21 @@
           <t>2022-07-02</t>
         </is>
       </c>
-      <c r="M499" t="inlineStr">
+      <c r="M499" t="n">
+        <v>12</v>
+      </c>
+      <c r="N499" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N499" t="inlineStr">
+      <c r="O499" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O499" t="inlineStr"/>
-      <c r="P499" t="inlineStr">
+      <c r="P499" t="inlineStr"/>
+      <c r="Q499" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -28537,18 +30034,21 @@
           <t>2022-07-02</t>
         </is>
       </c>
-      <c r="M500" t="inlineStr">
+      <c r="M500" t="n">
+        <v>12</v>
+      </c>
+      <c r="N500" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N500" t="inlineStr">
+      <c r="O500" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O500" t="inlineStr"/>
-      <c r="P500" t="inlineStr">
+      <c r="P500" t="inlineStr"/>
+      <c r="Q500" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -28601,10 +30101,13 @@
           <t>2022-09-01</t>
         </is>
       </c>
-      <c r="M501" t="inlineStr"/>
+      <c r="M501" t="n">
+        <v>0</v>
+      </c>
       <c r="N501" t="inlineStr"/>
       <c r="O501" t="inlineStr"/>
-      <c r="P501" t="inlineStr">
+      <c r="P501" t="inlineStr"/>
+      <c r="Q501" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -28657,10 +30160,13 @@
           <t>2022-06-02</t>
         </is>
       </c>
-      <c r="M502" t="inlineStr"/>
+      <c r="M502" t="n">
+        <v>0</v>
+      </c>
       <c r="N502" t="inlineStr"/>
       <c r="O502" t="inlineStr"/>
-      <c r="P502" t="inlineStr">
+      <c r="P502" t="inlineStr"/>
+      <c r="Q502" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -28713,10 +30219,13 @@
           <t>2022-04-01</t>
         </is>
       </c>
-      <c r="M503" t="inlineStr"/>
+      <c r="M503" t="n">
+        <v>0</v>
+      </c>
       <c r="N503" t="inlineStr"/>
       <c r="O503" t="inlineStr"/>
-      <c r="P503" t="inlineStr">
+      <c r="P503" t="inlineStr"/>
+      <c r="Q503" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -28769,10 +30278,13 @@
           <t>2022-01-30</t>
         </is>
       </c>
-      <c r="M504" t="inlineStr"/>
+      <c r="M504" t="n">
+        <v>0</v>
+      </c>
       <c r="N504" t="inlineStr"/>
       <c r="O504" t="inlineStr"/>
-      <c r="P504" t="inlineStr">
+      <c r="P504" t="inlineStr"/>
+      <c r="Q504" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -28825,10 +30337,13 @@
           <t>2021-11-02</t>
         </is>
       </c>
-      <c r="M505" t="inlineStr"/>
+      <c r="M505" t="n">
+        <v>0</v>
+      </c>
       <c r="N505" t="inlineStr"/>
       <c r="O505" t="inlineStr"/>
-      <c r="P505" t="inlineStr">
+      <c r="P505" t="inlineStr"/>
+      <c r="Q505" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -28881,10 +30396,13 @@
           <t>2021-11-02</t>
         </is>
       </c>
-      <c r="M506" t="inlineStr"/>
+      <c r="M506" t="n">
+        <v>0</v>
+      </c>
       <c r="N506" t="inlineStr"/>
       <c r="O506" t="inlineStr"/>
-      <c r="P506" t="inlineStr">
+      <c r="P506" t="inlineStr"/>
+      <c r="Q506" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -28937,10 +30455,13 @@
           <t>2021-06-02</t>
         </is>
       </c>
-      <c r="M507" t="inlineStr"/>
+      <c r="M507" t="n">
+        <v>0</v>
+      </c>
       <c r="N507" t="inlineStr"/>
       <c r="O507" t="inlineStr"/>
-      <c r="P507" t="inlineStr">
+      <c r="P507" t="inlineStr"/>
+      <c r="Q507" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -28993,10 +30514,13 @@
           <t>2021-03-02</t>
         </is>
       </c>
-      <c r="M508" t="inlineStr"/>
+      <c r="M508" t="n">
+        <v>0</v>
+      </c>
       <c r="N508" t="inlineStr"/>
       <c r="O508" t="inlineStr"/>
-      <c r="P508" t="inlineStr">
+      <c r="P508" t="inlineStr"/>
+      <c r="Q508" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -29049,10 +30573,13 @@
           <t>2021-03-02</t>
         </is>
       </c>
-      <c r="M509" t="inlineStr"/>
+      <c r="M509" t="n">
+        <v>0</v>
+      </c>
       <c r="N509" t="inlineStr"/>
       <c r="O509" t="inlineStr"/>
-      <c r="P509" t="inlineStr">
+      <c r="P509" t="inlineStr"/>
+      <c r="Q509" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -29105,10 +30632,13 @@
           <t>2020-03-02</t>
         </is>
       </c>
-      <c r="M510" t="inlineStr"/>
+      <c r="M510" t="n">
+        <v>0</v>
+      </c>
       <c r="N510" t="inlineStr"/>
       <c r="O510" t="inlineStr"/>
-      <c r="P510" t="inlineStr">
+      <c r="P510" t="inlineStr"/>
+      <c r="Q510" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -29161,10 +30691,13 @@
           <t>2020-06-02</t>
         </is>
       </c>
-      <c r="M511" t="inlineStr"/>
+      <c r="M511" t="n">
+        <v>0</v>
+      </c>
       <c r="N511" t="inlineStr"/>
       <c r="O511" t="inlineStr"/>
-      <c r="P511" t="inlineStr">
+      <c r="P511" t="inlineStr"/>
+      <c r="Q511" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -29217,18 +30750,19 @@
           <t>2022-03-05</t>
         </is>
       </c>
-      <c r="M512" t="inlineStr">
+      <c r="M512" t="inlineStr"/>
+      <c r="N512" t="inlineStr">
         <is>
           <t>BR08</t>
         </is>
       </c>
-      <c r="N512" t="inlineStr">
+      <c r="O512" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="O512" t="inlineStr"/>
-      <c r="P512" t="inlineStr">
+      <c r="P512" t="inlineStr"/>
+      <c r="Q512" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -29281,10 +30815,13 @@
           <t>2021-06-03</t>
         </is>
       </c>
-      <c r="M513" t="inlineStr"/>
+      <c r="M513" t="n">
+        <v>0</v>
+      </c>
       <c r="N513" t="inlineStr"/>
       <c r="O513" t="inlineStr"/>
-      <c r="P513" t="inlineStr">
+      <c r="P513" t="inlineStr"/>
+      <c r="Q513" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -29337,10 +30874,13 @@
           <t>2021-01-03</t>
         </is>
       </c>
-      <c r="M514" t="inlineStr"/>
+      <c r="M514" t="n">
+        <v>0</v>
+      </c>
       <c r="N514" t="inlineStr"/>
       <c r="O514" t="inlineStr"/>
-      <c r="P514" t="inlineStr">
+      <c r="P514" t="inlineStr"/>
+      <c r="Q514" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>
@@ -29393,10 +30933,13 @@
           <t>2020-12-04</t>
         </is>
       </c>
-      <c r="M515" t="inlineStr"/>
+      <c r="M515" t="n">
+        <v>0</v>
+      </c>
       <c r="N515" t="inlineStr"/>
       <c r="O515" t="inlineStr"/>
-      <c r="P515" t="inlineStr">
+      <c r="P515" t="inlineStr"/>
+      <c r="Q515" t="inlineStr">
         <is>
           <t>DESTRUIR</t>
         </is>

--- a/planilha_supply1.xlsx
+++ b/planilha_supply1.xlsx
@@ -10445,7 +10445,7 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -10508,7 +10508,7 @@
         </is>
       </c>
       <c r="M173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N173" t="inlineStr">
         <is>
@@ -10697,7 +10697,7 @@
         </is>
       </c>
       <c r="M176" t="n">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="N176" t="inlineStr">
         <is>
@@ -11231,7 +11231,9 @@
           <t>2021-05-06</t>
         </is>
       </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>0</v>
+      </c>
       <c r="N185" t="inlineStr">
         <is>
           <t>BR08</t>
@@ -13958,7 +13960,7 @@
         </is>
       </c>
       <c r="M231" t="n">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="N231" t="inlineStr">
         <is>
@@ -14021,7 +14023,7 @@
         </is>
       </c>
       <c r="M232" t="n">
-        <v>236</v>
+        <v>0</v>
       </c>
       <c r="N232" t="inlineStr">
         <is>
@@ -25219,7 +25221,7 @@
         </is>
       </c>
       <c r="M420" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="N420" t="inlineStr">
         <is>
@@ -25288,7 +25290,7 @@
         </is>
       </c>
       <c r="M421" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="N421" t="inlineStr">
         <is>
@@ -25357,7 +25359,7 @@
         </is>
       </c>
       <c r="M422" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="N422" t="inlineStr">
         <is>
@@ -25424,7 +25426,7 @@
         </is>
       </c>
       <c r="M423" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="N423" t="inlineStr">
         <is>
@@ -25493,7 +25495,7 @@
         </is>
       </c>
       <c r="M424" t="n">
-        <v>164</v>
+        <v>0</v>
       </c>
       <c r="N424" t="inlineStr">
         <is>
@@ -26325,7 +26327,7 @@
         </is>
       </c>
       <c r="M438" t="n">
-        <v>758</v>
+        <v>0</v>
       </c>
       <c r="N438" t="inlineStr">
         <is>
@@ -26392,7 +26394,7 @@
         </is>
       </c>
       <c r="M439" t="n">
-        <v>758</v>
+        <v>0</v>
       </c>
       <c r="N439" t="inlineStr">
         <is>
@@ -27521,7 +27523,7 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>1910</v>
+        <v>0</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -27584,7 +27586,7 @@
         </is>
       </c>
       <c r="M459" t="n">
-        <v>1910</v>
+        <v>0</v>
       </c>
       <c r="N459" t="inlineStr">
         <is>
@@ -30035,7 +30037,7 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>
@@ -30750,7 +30752,9 @@
           <t>2022-03-05</t>
         </is>
       </c>
-      <c r="M512" t="inlineStr"/>
+      <c r="M512" t="n">
+        <v>0</v>
+      </c>
       <c r="N512" t="inlineStr">
         <is>
           <t>BR08</t>

--- a/planilha_supply1.xlsx
+++ b/planilha_supply1.xlsx
@@ -7850,7 +7850,7 @@
         </is>
       </c>
       <c r="M125" t="n">
-        <v>0</v>
+        <v>4888</v>
       </c>
       <c r="N125" t="inlineStr">
         <is>
@@ -7917,7 +7917,7 @@
         </is>
       </c>
       <c r="M126" t="n">
-        <v>0</v>
+        <v>6396</v>
       </c>
       <c r="N126" t="inlineStr">
         <is>
@@ -10741,7 +10741,7 @@
         </is>
       </c>
       <c r="M172" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N172" t="inlineStr">
         <is>
@@ -24727,7 +24727,7 @@
         </is>
       </c>
       <c r="M400" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="N400" t="inlineStr">
         <is>
@@ -28317,7 +28317,7 @@
         </is>
       </c>
       <c r="M458" t="n">
-        <v>628</v>
+        <v>0</v>
       </c>
       <c r="N458" t="inlineStr">
         <is>
@@ -29364,7 +29364,7 @@
         </is>
       </c>
       <c r="M475" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N475" t="inlineStr">
         <is>
@@ -30832,7 +30832,7 @@
         </is>
       </c>
       <c r="M499" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N499" t="inlineStr">
         <is>
@@ -30899,7 +30899,7 @@
         </is>
       </c>
       <c r="M500" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N500" t="inlineStr">
         <is>

--- a/planilha_supply1.xlsx
+++ b/planilha_supply1.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>-2913703</v>
+        <v>-2913702</v>
       </c>
       <c r="K2" t="n">
         <v>-97123.39999999999</v>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>-711</v>
+        <v>-710</v>
       </c>
       <c r="K3" t="n">
         <v>-23.7</v>
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>-711</v>
+        <v>-710</v>
       </c>
       <c r="K4" t="n">
         <v>-23.7</v>
@@ -741,10 +741,10 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>-620</v>
+        <v>-619</v>
       </c>
       <c r="K5" t="n">
-        <v>-20.7</v>
+        <v>-20.6</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>-1015</v>
+        <v>-1014</v>
       </c>
       <c r="K6" t="n">
         <v>-33.8</v>
@@ -863,7 +863,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>-711</v>
+        <v>-710</v>
       </c>
       <c r="K7" t="n">
         <v>-23.7</v>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>-711</v>
+        <v>-710</v>
       </c>
       <c r="K8" t="n">
         <v>-23.7</v>
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>-711</v>
+        <v>-710</v>
       </c>
       <c r="K9" t="n">
         <v>-23.7</v>
@@ -1034,10 +1034,10 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>-560</v>
+        <v>-559</v>
       </c>
       <c r="K10" t="n">
-        <v>-18.7</v>
+        <v>-18.6</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>-529</v>
+        <v>-528</v>
       </c>
       <c r="K11" t="n">
         <v>-17.6</v>
@@ -1148,10 +1148,10 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>-560</v>
+        <v>-559</v>
       </c>
       <c r="K12" t="n">
-        <v>-18.7</v>
+        <v>-18.6</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>-498</v>
+        <v>-497</v>
       </c>
       <c r="K13" t="n">
         <v>-16.6</v>
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>-498</v>
+        <v>-497</v>
       </c>
       <c r="K14" t="n">
         <v>-16.6</v>
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>-376</v>
+        <v>-375</v>
       </c>
       <c r="K15" t="n">
         <v>-12.5</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>-376</v>
+        <v>-375</v>
       </c>
       <c r="K16" t="n">
         <v>-12.5</v>
@@ -1433,7 +1433,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>-376</v>
+        <v>-375</v>
       </c>
       <c r="K17" t="n">
         <v>-12.5</v>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>-315</v>
+        <v>-314</v>
       </c>
       <c r="K18" t="n">
         <v>-10.5</v>
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>-315</v>
+        <v>-314</v>
       </c>
       <c r="K19" t="n">
         <v>-10.5</v>
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>-254</v>
+        <v>-253</v>
       </c>
       <c r="K20" t="n">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1661,10 +1661,10 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>-254</v>
+        <v>-253</v>
       </c>
       <c r="K21" t="n">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1718,7 +1718,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>-195</v>
+        <v>-194</v>
       </c>
       <c r="K22" t="n">
         <v>-6.5</v>
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>-195</v>
+        <v>-194</v>
       </c>
       <c r="K23" t="n">
         <v>-6.5</v>
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="K24" t="n">
         <v>-2.4</v>
@@ -1893,7 +1893,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="K25" t="n">
         <v>-2.4</v>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="K26" t="n">
         <v>-2.4</v>
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="K27" t="n">
         <v>-2.4</v>
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K28" t="n">
         <v>3.7</v>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K29" t="n">
         <v>1.7</v>
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K30" t="n">
         <v>1.7</v>
@@ -2259,7 +2259,7 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K31" t="n">
         <v>3.7</v>
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K32" t="n">
         <v>5.7</v>
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>-2913703</v>
+        <v>-2913702</v>
       </c>
       <c r="K33" t="n">
         <v>-97123.39999999999</v>
@@ -2444,10 +2444,10 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>-254</v>
+        <v>-253</v>
       </c>
       <c r="K34" t="n">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>-254</v>
+        <v>-253</v>
       </c>
       <c r="K35" t="n">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -2570,10 +2570,10 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>-254</v>
+        <v>-253</v>
       </c>
       <c r="K36" t="n">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>-254</v>
+        <v>-253</v>
       </c>
       <c r="K37" t="n">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>-103</v>
+        <v>-102</v>
       </c>
       <c r="K38" t="n">
         <v>-3.4</v>
@@ -2751,7 +2751,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="K39" t="n">
         <v>-2.4</v>
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>-103</v>
+        <v>-102</v>
       </c>
       <c r="K40" t="n">
         <v>-3.4</v>
@@ -2873,7 +2873,7 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="K41" t="n">
         <v>-2.4</v>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="K42" t="n">
         <v>-2.4</v>
@@ -2995,7 +2995,7 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K43" t="n">
         <v>1.7</v>
@@ -3056,7 +3056,7 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K44" t="n">
         <v>1.7</v>
@@ -3117,10 +3117,10 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K45" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K46" t="n">
         <v>15.9</v>
@@ -3239,10 +3239,10 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K47" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K48" t="n">
         <v>15.9</v>
@@ -3361,10 +3361,10 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K49" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K50" t="n">
         <v>15.9</v>
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K51" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -3544,7 +3544,7 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="K52" t="n">
         <v>26</v>
@@ -3605,7 +3605,7 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="K53" t="n">
         <v>26</v>
@@ -3666,10 +3666,10 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="K54" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K55" t="n">
         <v>9.800000000000001</v>
@@ -3794,7 +3794,7 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>-895</v>
+        <v>-894</v>
       </c>
       <c r="K56" t="n">
         <v>-29.8</v>
@@ -3857,7 +3857,7 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>-895</v>
+        <v>-894</v>
       </c>
       <c r="K57" t="n">
         <v>-29.8</v>
@@ -3920,7 +3920,7 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>-895</v>
+        <v>-894</v>
       </c>
       <c r="K58" t="n">
         <v>-29.8</v>
@@ -3985,7 +3985,7 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>-895</v>
+        <v>-894</v>
       </c>
       <c r="K59" t="n">
         <v>-29.8</v>
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>-895</v>
+        <v>-894</v>
       </c>
       <c r="K60" t="n">
         <v>-29.8</v>
@@ -4111,7 +4111,7 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>-711</v>
+        <v>-710</v>
       </c>
       <c r="K61" t="n">
         <v>-23.7</v>
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>-1015</v>
+        <v>-1014</v>
       </c>
       <c r="K62" t="n">
         <v>-33.8</v>
@@ -4231,7 +4231,7 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>-711</v>
+        <v>-710</v>
       </c>
       <c r="K63" t="n">
         <v>-23.7</v>
@@ -4288,7 +4288,7 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>-711</v>
+        <v>-710</v>
       </c>
       <c r="K64" t="n">
         <v>-23.7</v>
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>-529</v>
+        <v>-528</v>
       </c>
       <c r="K65" t="n">
         <v>-17.6</v>
@@ -4402,10 +4402,10 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>-437</v>
+        <v>-436</v>
       </c>
       <c r="K66" t="n">
-        <v>-14.6</v>
+        <v>-14.5</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -4459,10 +4459,10 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>-437</v>
+        <v>-436</v>
       </c>
       <c r="K67" t="n">
-        <v>-14.6</v>
+        <v>-14.5</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -4516,10 +4516,10 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>-437</v>
+        <v>-436</v>
       </c>
       <c r="K68" t="n">
-        <v>-14.6</v>
+        <v>-14.5</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>-711</v>
+        <v>-710</v>
       </c>
       <c r="K69" t="n">
         <v>-23.7</v>
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>-468</v>
+        <v>-467</v>
       </c>
       <c r="K70" t="n">
         <v>-15.6</v>
@@ -4687,7 +4687,7 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>-711</v>
+        <v>-710</v>
       </c>
       <c r="K71" t="n">
         <v>-23.7</v>
@@ -4744,7 +4744,7 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>-711</v>
+        <v>-710</v>
       </c>
       <c r="K72" t="n">
         <v>-23.7</v>
@@ -4801,10 +4801,10 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>-467</v>
+        <v>-466</v>
       </c>
       <c r="K73" t="n">
-        <v>-15.6</v>
+        <v>-15.5</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -4858,10 +4858,10 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>-467</v>
+        <v>-466</v>
       </c>
       <c r="K74" t="n">
-        <v>-15.6</v>
+        <v>-15.5</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>-529</v>
+        <v>-528</v>
       </c>
       <c r="K75" t="n">
         <v>-17.6</v>
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>-468</v>
+        <v>-467</v>
       </c>
       <c r="K76" t="n">
         <v>-15.6</v>
@@ -5029,7 +5029,7 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>-529</v>
+        <v>-528</v>
       </c>
       <c r="K77" t="n">
         <v>-17.6</v>
@@ -5086,7 +5086,7 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>-345</v>
+        <v>-344</v>
       </c>
       <c r="K78" t="n">
         <v>-11.5</v>
@@ -5143,7 +5143,7 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>-529</v>
+        <v>-528</v>
       </c>
       <c r="K79" t="n">
         <v>-17.6</v>
@@ -5200,7 +5200,7 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>-468</v>
+        <v>-467</v>
       </c>
       <c r="K80" t="n">
         <v>-15.6</v>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>-529</v>
+        <v>-528</v>
       </c>
       <c r="K81" t="n">
         <v>-17.6</v>
@@ -5314,7 +5314,7 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>-529</v>
+        <v>-528</v>
       </c>
       <c r="K82" t="n">
         <v>-17.6</v>
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>-529</v>
+        <v>-528</v>
       </c>
       <c r="K83" t="n">
         <v>-17.6</v>
@@ -5428,7 +5428,7 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>-345</v>
+        <v>-344</v>
       </c>
       <c r="K84" t="n">
         <v>-11.5</v>
@@ -5485,7 +5485,7 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>-345</v>
+        <v>-344</v>
       </c>
       <c r="K85" t="n">
         <v>-11.5</v>
@@ -5542,10 +5542,10 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>-437</v>
+        <v>-436</v>
       </c>
       <c r="K86" t="n">
-        <v>-14.6</v>
+        <v>-14.5</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -5599,10 +5599,10 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>-437</v>
+        <v>-436</v>
       </c>
       <c r="K87" t="n">
-        <v>-14.6</v>
+        <v>-14.5</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -5656,10 +5656,10 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>-437</v>
+        <v>-436</v>
       </c>
       <c r="K88" t="n">
-        <v>-14.6</v>
+        <v>-14.5</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>-345</v>
+        <v>-344</v>
       </c>
       <c r="K89" t="n">
         <v>-11.5</v>
@@ -5770,7 +5770,7 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>-345</v>
+        <v>-344</v>
       </c>
       <c r="K90" t="n">
         <v>-11.5</v>
@@ -5827,7 +5827,7 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>-345</v>
+        <v>-344</v>
       </c>
       <c r="K91" t="n">
         <v>-11.5</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>-345</v>
+        <v>-344</v>
       </c>
       <c r="K92" t="n">
         <v>-11.5</v>
@@ -5941,7 +5941,7 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>-345</v>
+        <v>-344</v>
       </c>
       <c r="K93" t="n">
         <v>-11.5</v>
@@ -5998,7 +5998,7 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>-195</v>
+        <v>-194</v>
       </c>
       <c r="K94" t="n">
         <v>-6.5</v>
@@ -6055,10 +6055,10 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>-284</v>
+        <v>-283</v>
       </c>
       <c r="K95" t="n">
-        <v>-9.5</v>
+        <v>-9.4</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -6112,10 +6112,10 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>-284</v>
+        <v>-283</v>
       </c>
       <c r="K96" t="n">
-        <v>-9.5</v>
+        <v>-9.4</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -6169,10 +6169,10 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>-284</v>
+        <v>-283</v>
       </c>
       <c r="K97" t="n">
-        <v>-9.5</v>
+        <v>-9.4</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>-345</v>
+        <v>-344</v>
       </c>
       <c r="K98" t="n">
         <v>-11.5</v>
@@ -6283,7 +6283,7 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>-195</v>
+        <v>-194</v>
       </c>
       <c r="K99" t="n">
         <v>-6.5</v>
@@ -6340,10 +6340,10 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>-284</v>
+        <v>-283</v>
       </c>
       <c r="K100" t="n">
-        <v>-9.5</v>
+        <v>-9.4</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -6397,10 +6397,10 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>-284</v>
+        <v>-283</v>
       </c>
       <c r="K101" t="n">
-        <v>-9.5</v>
+        <v>-9.4</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -6454,10 +6454,10 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>-284</v>
+        <v>-283</v>
       </c>
       <c r="K102" t="n">
-        <v>-9.5</v>
+        <v>-9.4</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -6511,10 +6511,10 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>-284</v>
+        <v>-283</v>
       </c>
       <c r="K103" t="n">
-        <v>-9.5</v>
+        <v>-9.4</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -6568,10 +6568,10 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>-284</v>
+        <v>-283</v>
       </c>
       <c r="K104" t="n">
-        <v>-9.5</v>
+        <v>-9.4</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -6625,10 +6625,10 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>-164</v>
+        <v>-163</v>
       </c>
       <c r="K105" t="n">
-        <v>-5.5</v>
+        <v>-5.4</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -6686,10 +6686,10 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>-164</v>
+        <v>-163</v>
       </c>
       <c r="K106" t="n">
-        <v>-5.5</v>
+        <v>-5.4</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -6747,10 +6747,10 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>-254</v>
+        <v>-253</v>
       </c>
       <c r="K107" t="n">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -6804,10 +6804,10 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>-254</v>
+        <v>-253</v>
       </c>
       <c r="K108" t="n">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -6861,7 +6861,7 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>-103</v>
+        <v>-102</v>
       </c>
       <c r="K109" t="n">
         <v>-3.4</v>
@@ -6922,7 +6922,7 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>-103</v>
+        <v>-102</v>
       </c>
       <c r="K110" t="n">
         <v>-3.4</v>
@@ -6983,7 +6983,7 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>-103</v>
+        <v>-102</v>
       </c>
       <c r="K111" t="n">
         <v>-3.4</v>
@@ -7044,7 +7044,7 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>-103</v>
+        <v>-102</v>
       </c>
       <c r="K112" t="n">
         <v>-3.4</v>
@@ -7105,7 +7105,7 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>-103</v>
+        <v>-102</v>
       </c>
       <c r="K113" t="n">
         <v>-3.4</v>
@@ -7166,7 +7166,7 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>-103</v>
+        <v>-102</v>
       </c>
       <c r="K114" t="n">
         <v>-3.4</v>
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>-103</v>
+        <v>-102</v>
       </c>
       <c r="K115" t="n">
         <v>-3.4</v>
@@ -7288,7 +7288,7 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>-103</v>
+        <v>-102</v>
       </c>
       <c r="K116" t="n">
         <v>-3.4</v>
@@ -7349,10 +7349,10 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="K117" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -7410,10 +7410,10 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="K118" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="L118" t="inlineStr">
         <is>
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K119" t="n">
         <v>0.7</v>
@@ -7532,10 +7532,10 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="K120" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -7593,10 +7593,10 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="K121" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="L121" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K122" t="n">
         <v>0.7</v>
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K123" t="n">
         <v>0.7</v>
@@ -7776,10 +7776,10 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>-284</v>
+        <v>-283</v>
       </c>
       <c r="K124" t="n">
-        <v>-9.5</v>
+        <v>-9.4</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -7839,10 +7839,10 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>-164</v>
+        <v>-163</v>
       </c>
       <c r="K125" t="n">
-        <v>-5.5</v>
+        <v>-5.4</v>
       </c>
       <c r="L125" t="inlineStr">
         <is>
@@ -7906,10 +7906,10 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>-164</v>
+        <v>-163</v>
       </c>
       <c r="K126" t="n">
-        <v>-5.5</v>
+        <v>-5.4</v>
       </c>
       <c r="L126" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>-42</v>
+        <v>-41</v>
       </c>
       <c r="K127" t="n">
         <v>-1.4</v>
@@ -8040,7 +8040,7 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="K128" t="n">
         <v>-2.4</v>
@@ -8101,7 +8101,7 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>-103</v>
+        <v>-102</v>
       </c>
       <c r="K129" t="n">
         <v>-3.4</v>
@@ -8162,7 +8162,7 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="K130" t="n">
         <v>-2.4</v>
@@ -8223,10 +8223,10 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="K131" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -8284,7 +8284,7 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K132" t="n">
         <v>0.7</v>
@@ -8345,7 +8345,7 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K133" t="n">
         <v>0.7</v>
@@ -8406,7 +8406,7 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K134" t="n">
         <v>1.7</v>
@@ -8467,7 +8467,7 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K135" t="n">
         <v>1.7</v>
@@ -8528,7 +8528,7 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K136" t="n">
         <v>1.7</v>
@@ -8589,7 +8589,7 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K137" t="n">
         <v>1.7</v>
@@ -8650,10 +8650,10 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K138" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -8711,10 +8711,10 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K139" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="L139" t="inlineStr">
         <is>
@@ -8772,10 +8772,10 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K140" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K141" t="n">
         <v>9.800000000000001</v>
@@ -8894,7 +8894,7 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K142" t="n">
         <v>9.800000000000001</v>
@@ -8955,7 +8955,7 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K143" t="n">
         <v>10.8</v>
@@ -9016,7 +9016,7 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K144" t="n">
         <v>9.800000000000001</v>
@@ -9077,7 +9077,7 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K145" t="n">
         <v>9.800000000000001</v>
@@ -9138,7 +9138,7 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K146" t="n">
         <v>9.800000000000001</v>
@@ -9199,7 +9199,7 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K147" t="n">
         <v>14.9</v>
@@ -9260,7 +9260,7 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K148" t="n">
         <v>15.9</v>
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K149" t="n">
         <v>14.9</v>
@@ -9382,7 +9382,7 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K150" t="n">
         <v>18.9</v>
@@ -9443,7 +9443,7 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K151" t="n">
         <v>16.9</v>
@@ -9504,7 +9504,7 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K152" t="n">
         <v>16.9</v>
@@ -9565,7 +9565,7 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K153" t="n">
         <v>16.9</v>
@@ -9626,7 +9626,7 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K154" t="n">
         <v>19.9</v>
@@ -9687,7 +9687,7 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K155" t="n">
         <v>19.9</v>
@@ -9748,7 +9748,7 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K156" t="n">
         <v>19.9</v>
@@ -9809,10 +9809,10 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="K157" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="L157" t="inlineStr">
         <is>
@@ -9870,7 +9870,7 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="K158" t="n">
         <v>26</v>
@@ -9931,7 +9931,7 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="K159" t="n">
         <v>26</v>
@@ -9992,7 +9992,7 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K160" t="n">
         <v>24</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K161" t="n">
         <v>24</v>
@@ -10114,7 +10114,7 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K162" t="n">
         <v>24</v>
@@ -10175,10 +10175,10 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="K163" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -10236,7 +10236,7 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="K164" t="n">
         <v>26</v>
@@ -10297,7 +10297,7 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>-529</v>
+        <v>-528</v>
       </c>
       <c r="K165" t="n">
         <v>-17.6</v>
@@ -10360,10 +10360,10 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>-407</v>
+        <v>-406</v>
       </c>
       <c r="K166" t="n">
-        <v>-13.6</v>
+        <v>-13.5</v>
       </c>
       <c r="L166" t="inlineStr">
         <is>
@@ -10423,10 +10423,10 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>-407</v>
+        <v>-406</v>
       </c>
       <c r="K167" t="n">
-        <v>-13.6</v>
+        <v>-13.5</v>
       </c>
       <c r="L167" t="inlineStr">
         <is>
@@ -10486,7 +10486,7 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K168" t="n">
         <v>1.7</v>
@@ -10547,7 +10547,7 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K169" t="n">
         <v>6.7</v>
@@ -10608,10 +10608,10 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K170" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="L170" t="inlineStr">
         <is>
@@ -10669,7 +10669,7 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K171" t="n">
         <v>14.9</v>
@@ -10730,10 +10730,10 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>-407</v>
+        <v>-406</v>
       </c>
       <c r="K172" t="n">
-        <v>-13.6</v>
+        <v>-13.5</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -10793,7 +10793,7 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K173" t="n">
         <v>14.9</v>
@@ -10860,10 +10860,10 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K174" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="L174" t="inlineStr">
         <is>
@@ -10921,10 +10921,10 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>-560</v>
+        <v>-559</v>
       </c>
       <c r="K175" t="n">
-        <v>-18.7</v>
+        <v>-18.6</v>
       </c>
       <c r="L175" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>-588</v>
+        <v>-587</v>
       </c>
       <c r="K176" t="n">
         <v>-19.6</v>
@@ -11047,10 +11047,10 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>-164</v>
+        <v>-163</v>
       </c>
       <c r="K177" t="n">
-        <v>-5.5</v>
+        <v>-5.4</v>
       </c>
       <c r="L177" t="inlineStr">
         <is>
@@ -11108,10 +11108,10 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K178" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L178" t="inlineStr">
         <is>
@@ -11169,10 +11169,10 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K179" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L179" t="inlineStr">
         <is>
@@ -11230,10 +11230,10 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K180" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L180" t="inlineStr">
         <is>
@@ -11291,10 +11291,10 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K181" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -11352,10 +11352,10 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K182" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L182" t="inlineStr">
         <is>
@@ -11413,10 +11413,10 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K183" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L183" t="inlineStr">
         <is>
@@ -11474,10 +11474,10 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K184" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L184" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K185" t="n">
         <v>5.7</v>
@@ -11604,7 +11604,7 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K186" t="n">
         <v>5.7</v>
@@ -11665,10 +11665,10 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K187" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="L187" t="inlineStr">
         <is>
@@ -11726,10 +11726,10 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K188" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L188" t="inlineStr">
         <is>
@@ -11787,10 +11787,10 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K189" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -11848,10 +11848,10 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K190" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L190" t="inlineStr">
         <is>
@@ -11909,10 +11909,10 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K191" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -11970,10 +11970,10 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>-284</v>
+        <v>-283</v>
       </c>
       <c r="K192" t="n">
-        <v>-9.5</v>
+        <v>-9.4</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -12033,10 +12033,10 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>-254</v>
+        <v>-253</v>
       </c>
       <c r="K193" t="n">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="L193" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>-315</v>
+        <v>-314</v>
       </c>
       <c r="K194" t="n">
         <v>-10.5</v>
@@ -12153,10 +12153,10 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="K195" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="L195" t="inlineStr">
         <is>
@@ -12214,10 +12214,10 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="K196" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -12275,7 +12275,7 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K197" t="n">
         <v>1.7</v>
@@ -12336,7 +12336,7 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K198" t="n">
         <v>1.7</v>
@@ -12397,7 +12397,7 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K199" t="n">
         <v>1.7</v>
@@ -12458,7 +12458,7 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K200" t="n">
         <v>2.7</v>
@@ -12519,7 +12519,7 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K201" t="n">
         <v>1.7</v>
@@ -12580,7 +12580,7 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K202" t="n">
         <v>3.7</v>
@@ -12641,7 +12641,7 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K203" t="n">
         <v>2.7</v>
@@ -12702,7 +12702,7 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K204" t="n">
         <v>3.7</v>
@@ -12763,10 +12763,10 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K205" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
@@ -12824,10 +12824,10 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K206" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="L206" t="inlineStr">
         <is>
@@ -12885,10 +12885,10 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K207" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="L207" t="inlineStr">
         <is>
@@ -12946,10 +12946,10 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K208" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="L208" t="inlineStr">
         <is>
@@ -13007,7 +13007,7 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K209" t="n">
         <v>9.800000000000001</v>
@@ -13068,7 +13068,7 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K210" t="n">
         <v>11.8</v>
@@ -13129,7 +13129,7 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K211" t="n">
         <v>10.8</v>
@@ -13190,7 +13190,7 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K212" t="n">
         <v>9.800000000000001</v>
@@ -13251,7 +13251,7 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K213" t="n">
         <v>10.8</v>
@@ -13312,10 +13312,10 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K214" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="L214" t="inlineStr">
         <is>
@@ -13373,10 +13373,10 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K215" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="L215" t="inlineStr">
         <is>
@@ -13434,10 +13434,10 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K216" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K217" t="n">
         <v>16.9</v>
@@ -13556,7 +13556,7 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K218" t="n">
         <v>16.9</v>
@@ -13617,7 +13617,7 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K219" t="n">
         <v>16.9</v>
@@ -13678,10 +13678,10 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K220" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -13739,10 +13739,10 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K221" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="L221" t="inlineStr">
         <is>
@@ -13800,7 +13800,7 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K222" t="n">
         <v>19.9</v>
@@ -13861,7 +13861,7 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K223" t="n">
         <v>19.9</v>
@@ -13922,7 +13922,7 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K224" t="n">
         <v>18.9</v>
@@ -13983,7 +13983,7 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K225" t="n">
         <v>20.9</v>
@@ -14044,7 +14044,7 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K226" t="n">
         <v>20.9</v>
@@ -14105,7 +14105,7 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K227" t="n">
         <v>20.9</v>
@@ -14166,7 +14166,7 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K228" t="n">
         <v>20.9</v>
@@ -14227,10 +14227,10 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="K229" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -14288,10 +14288,10 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="K230" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="L230" t="inlineStr">
         <is>
@@ -14349,10 +14349,10 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>-284</v>
+        <v>-283</v>
       </c>
       <c r="K231" t="n">
-        <v>-9.5</v>
+        <v>-9.4</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -14412,7 +14412,7 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>-103</v>
+        <v>-102</v>
       </c>
       <c r="K232" t="n">
         <v>-3.4</v>
@@ -14479,7 +14479,7 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K233" t="n">
         <v>0.7</v>
@@ -14540,7 +14540,7 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K234" t="n">
         <v>0.7</v>
@@ -14601,7 +14601,7 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K235" t="n">
         <v>0.7</v>
@@ -14662,7 +14662,7 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K236" t="n">
         <v>0.7</v>
@@ -14723,7 +14723,7 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K237" t="n">
         <v>2.7</v>
@@ -14784,7 +14784,7 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K238" t="n">
         <v>9.800000000000001</v>
@@ -14845,7 +14845,7 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K239" t="n">
         <v>9.800000000000001</v>
@@ -14906,7 +14906,7 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K240" t="n">
         <v>14.9</v>
@@ -14967,7 +14967,7 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K241" t="n">
         <v>20.9</v>
@@ -15028,10 +15028,10 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K242" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="L242" t="inlineStr">
         <is>
@@ -15089,10 +15089,10 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K243" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="L243" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="K244" t="n">
         <v>25</v>
@@ -15211,7 +15211,7 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="K245" t="n">
         <v>25</v>
@@ -15272,10 +15272,10 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>-254</v>
+        <v>-253</v>
       </c>
       <c r="K246" t="n">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="L246" t="inlineStr">
         <is>
@@ -15335,10 +15335,10 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>-254</v>
+        <v>-253</v>
       </c>
       <c r="K247" t="n">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="L247" t="inlineStr">
         <is>
@@ -15398,7 +15398,7 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>-223</v>
+        <v>-222</v>
       </c>
       <c r="K248" t="n">
         <v>-7.4</v>
@@ -15461,10 +15461,10 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>-284</v>
+        <v>-283</v>
       </c>
       <c r="K249" t="n">
-        <v>-9.5</v>
+        <v>-9.4</v>
       </c>
       <c r="L249" t="inlineStr">
         <is>
@@ -15518,10 +15518,10 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>-254</v>
+        <v>-253</v>
       </c>
       <c r="K250" t="n">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="L250" t="inlineStr">
         <is>
@@ -15575,10 +15575,10 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="K251" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="L251" t="inlineStr">
         <is>
@@ -15636,7 +15636,7 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K252" t="n">
         <v>0.7</v>
@@ -15697,10 +15697,10 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K253" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L253" t="inlineStr">
         <is>
@@ -15758,10 +15758,10 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K254" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L254" t="inlineStr">
         <is>
@@ -15819,10 +15819,10 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K255" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L255" t="inlineStr">
         <is>
@@ -15880,10 +15880,10 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K256" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L256" t="inlineStr">
         <is>
@@ -15941,7 +15941,7 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K257" t="n">
         <v>9.800000000000001</v>
@@ -16002,7 +16002,7 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K258" t="n">
         <v>9.800000000000001</v>
@@ -16063,10 +16063,10 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K259" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="L259" t="inlineStr">
         <is>
@@ -16124,7 +16124,7 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K260" t="n">
         <v>11.8</v>
@@ -16185,7 +16185,7 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K261" t="n">
         <v>10.8</v>
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K262" t="n">
         <v>10.8</v>
@@ -16307,10 +16307,10 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K263" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="L263" t="inlineStr">
         <is>
@@ -16368,7 +16368,7 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K264" t="n">
         <v>14.9</v>
@@ -16429,7 +16429,7 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K265" t="n">
         <v>15.9</v>
@@ -16490,7 +16490,7 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K266" t="n">
         <v>14.9</v>
@@ -16551,10 +16551,10 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="K267" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="L267" t="inlineStr">
         <is>
@@ -16612,10 +16612,10 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K268" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="L268" t="inlineStr">
         <is>
@@ -16673,10 +16673,10 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K269" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="L269" t="inlineStr">
         <is>
@@ -16734,7 +16734,7 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="K270" t="n">
         <v>26</v>
@@ -16795,10 +16795,10 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K271" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="L271" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K272" t="n">
         <v>24</v>
@@ -16917,7 +16917,7 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="K273" t="n">
         <v>26</v>
@@ -16978,7 +16978,7 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="K274" t="n">
         <v>26</v>
@@ -17039,7 +17039,7 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K275" t="n">
         <v>24</v>
@@ -17100,7 +17100,7 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>-223</v>
+        <v>-222</v>
       </c>
       <c r="K276" t="n">
         <v>-7.4</v>
@@ -17163,7 +17163,7 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>-223</v>
+        <v>-222</v>
       </c>
       <c r="K277" t="n">
         <v>-7.4</v>
@@ -17226,7 +17226,7 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>-103</v>
+        <v>-102</v>
       </c>
       <c r="K278" t="n">
         <v>-3.4</v>
@@ -17293,7 +17293,7 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>-103</v>
+        <v>-102</v>
       </c>
       <c r="K279" t="n">
         <v>-3.4</v>
@@ -17360,7 +17360,7 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>-103</v>
+        <v>-102</v>
       </c>
       <c r="K280" t="n">
         <v>-3.4</v>
@@ -17427,7 +17427,7 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>-103</v>
+        <v>-102</v>
       </c>
       <c r="K281" t="n">
         <v>-3.4</v>
@@ -17494,7 +17494,7 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="K282" t="n">
         <v>26</v>
@@ -17561,10 +17561,10 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="K283" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="L283" t="inlineStr">
         <is>
@@ -17628,7 +17628,7 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>-103</v>
+        <v>-102</v>
       </c>
       <c r="K284" t="n">
         <v>-3.4</v>
@@ -17689,7 +17689,7 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>-103</v>
+        <v>-102</v>
       </c>
       <c r="K285" t="n">
         <v>-3.4</v>
@@ -17750,7 +17750,7 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="K286" t="n">
         <v>-2.4</v>
@@ -17811,7 +17811,7 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="K287" t="n">
         <v>-2.4</v>
@@ -17872,7 +17872,7 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>-42</v>
+        <v>-41</v>
       </c>
       <c r="K288" t="n">
         <v>-1.4</v>
@@ -17933,7 +17933,7 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K289" t="n">
         <v>2.7</v>
@@ -17994,7 +17994,7 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K290" t="n">
         <v>2.7</v>
@@ -18055,10 +18055,10 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K291" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L291" t="inlineStr">
         <is>
@@ -18116,10 +18116,10 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K292" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L292" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K293" t="n">
         <v>5.7</v>
@@ -18238,10 +18238,10 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K294" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L294" t="inlineStr">
         <is>
@@ -18299,10 +18299,10 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K295" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L295" t="inlineStr">
         <is>
@@ -18360,10 +18360,10 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K296" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L296" t="inlineStr">
         <is>
@@ -18421,10 +18421,10 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K297" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L297" t="inlineStr">
         <is>
@@ -18482,10 +18482,10 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K298" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L298" t="inlineStr">
         <is>
@@ -18543,7 +18543,7 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K299" t="n">
         <v>10.8</v>
@@ -18604,7 +18604,7 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K300" t="n">
         <v>10.8</v>
@@ -18665,10 +18665,10 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K301" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
@@ -18726,10 +18726,10 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K302" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
@@ -18787,10 +18787,10 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K303" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="L303" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K304" t="n">
         <v>15.9</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K305" t="n">
         <v>15.9</v>
@@ -18970,7 +18970,7 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K306" t="n">
         <v>17.9</v>
@@ -19031,7 +19031,7 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K307" t="n">
         <v>17.9</v>
@@ -19092,7 +19092,7 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K308" t="n">
         <v>19.9</v>
@@ -19153,7 +19153,7 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K309" t="n">
         <v>20.9</v>
@@ -19214,10 +19214,10 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="K310" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="L310" t="inlineStr">
         <is>
@@ -19275,10 +19275,10 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K311" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="L311" t="inlineStr">
         <is>
@@ -19336,7 +19336,7 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="K312" t="n">
         <v>26</v>
@@ -19397,10 +19397,10 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>-254</v>
+        <v>-253</v>
       </c>
       <c r="K313" t="n">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="L313" t="inlineStr">
         <is>
@@ -19460,10 +19460,10 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>-254</v>
+        <v>-253</v>
       </c>
       <c r="K314" t="n">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="L314" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>-103</v>
+        <v>-102</v>
       </c>
       <c r="K315" t="n">
         <v>-3.4</v>
@@ -19590,10 +19590,10 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>-254</v>
+        <v>-253</v>
       </c>
       <c r="K316" t="n">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="L316" t="inlineStr">
         <is>
@@ -19647,10 +19647,10 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>-254</v>
+        <v>-253</v>
       </c>
       <c r="K317" t="n">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="L317" t="inlineStr">
         <is>
@@ -19704,10 +19704,10 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>-254</v>
+        <v>-253</v>
       </c>
       <c r="K318" t="n">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="L318" t="inlineStr">
         <is>
@@ -19761,10 +19761,10 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>-284</v>
+        <v>-283</v>
       </c>
       <c r="K319" t="n">
-        <v>-9.5</v>
+        <v>-9.4</v>
       </c>
       <c r="L319" t="inlineStr">
         <is>
@@ -19818,7 +19818,7 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>-133</v>
+        <v>-132</v>
       </c>
       <c r="K320" t="n">
         <v>-4.4</v>
@@ -19879,7 +19879,7 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>-103</v>
+        <v>-102</v>
       </c>
       <c r="K321" t="n">
         <v>-3.4</v>
@@ -19940,7 +19940,7 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="K322" t="n">
         <v>-2.4</v>
@@ -20001,7 +20001,7 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="K323" t="n">
         <v>-2.4</v>
@@ -20062,10 +20062,10 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="K324" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="L324" t="inlineStr">
         <is>
@@ -20123,10 +20123,10 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="K325" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="L325" t="inlineStr">
         <is>
@@ -20184,10 +20184,10 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="K326" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="L326" t="inlineStr">
         <is>
@@ -20245,10 +20245,10 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="K327" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="L327" t="inlineStr">
         <is>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K328" t="n">
         <v>0.7</v>
@@ -20367,10 +20367,10 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K329" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L329" t="inlineStr">
         <is>
@@ -20428,10 +20428,10 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K330" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L330" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K331" t="n">
         <v>5.7</v>
@@ -20550,7 +20550,7 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K332" t="n">
         <v>5.7</v>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K333" t="n">
         <v>5.7</v>
@@ -20672,7 +20672,7 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K334" t="n">
         <v>1.6</v>
@@ -20733,7 +20733,7 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K335" t="n">
         <v>5.7</v>
@@ -20794,7 +20794,7 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K336" t="n">
         <v>5.7</v>
@@ -20855,10 +20855,10 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K337" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="L337" t="inlineStr">
         <is>
@@ -20916,10 +20916,10 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K338" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="L338" t="inlineStr">
         <is>
@@ -20977,10 +20977,10 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K339" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="L339" t="inlineStr">
         <is>
@@ -21038,10 +21038,10 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K340" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L340" t="inlineStr">
         <is>
@@ -21099,10 +21099,10 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K341" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="L341" t="inlineStr">
         <is>
@@ -21160,10 +21160,10 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K342" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L342" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K343" t="n">
         <v>16.9</v>
@@ -21282,7 +21282,7 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K344" t="n">
         <v>16.9</v>
@@ -21343,10 +21343,10 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K345" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="L345" t="inlineStr">
         <is>
@@ -21404,10 +21404,10 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K346" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="L346" t="inlineStr">
         <is>
@@ -21465,7 +21465,7 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K347" t="n">
         <v>16.9</v>
@@ -21526,10 +21526,10 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K348" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="L348" t="inlineStr">
         <is>
@@ -21587,10 +21587,10 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K349" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="L349" t="inlineStr">
         <is>
@@ -21648,7 +21648,7 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K350" t="n">
         <v>18.9</v>
@@ -21709,10 +21709,10 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K351" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="L351" t="inlineStr">
         <is>
@@ -21770,7 +21770,7 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K352" t="n">
         <v>18.9</v>
@@ -21831,10 +21831,10 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K353" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="L353" t="inlineStr">
         <is>
@@ -21892,10 +21892,10 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K354" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="L354" t="inlineStr">
         <is>
@@ -21953,7 +21953,7 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K355" t="n">
         <v>18.9</v>
@@ -22014,7 +22014,7 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="K356" t="n">
         <v>26</v>
@@ -22075,7 +22075,7 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="K357" t="n">
         <v>26</v>
@@ -22136,10 +22136,10 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="K358" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="L358" t="inlineStr">
         <is>
@@ -22197,7 +22197,7 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>-195</v>
+        <v>-194</v>
       </c>
       <c r="K359" t="n">
         <v>-6.5</v>
@@ -22260,7 +22260,7 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>-133</v>
+        <v>-132</v>
       </c>
       <c r="K360" t="n">
         <v>-4.4</v>
@@ -22327,10 +22327,10 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>-254</v>
+        <v>-253</v>
       </c>
       <c r="K361" t="n">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="L361" t="inlineStr">
         <is>
@@ -22384,7 +22384,7 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>-133</v>
+        <v>-132</v>
       </c>
       <c r="K362" t="n">
         <v>-4.4</v>
@@ -22445,7 +22445,7 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>-42</v>
+        <v>-41</v>
       </c>
       <c r="K363" t="n">
         <v>-1.4</v>
@@ -22506,7 +22506,7 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K364" t="n">
         <v>3.7</v>
@@ -22567,7 +22567,7 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K365" t="n">
         <v>3.7</v>
@@ -22628,7 +22628,7 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K366" t="n">
         <v>9.800000000000001</v>
@@ -22689,10 +22689,10 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="K367" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="L367" t="inlineStr">
         <is>
@@ -22750,7 +22750,7 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="K368" t="n">
         <v>26</v>
@@ -22811,7 +22811,7 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>-133</v>
+        <v>-132</v>
       </c>
       <c r="K369" t="n">
         <v>-4.4</v>
@@ -22878,7 +22878,7 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>-133</v>
+        <v>-132</v>
       </c>
       <c r="K370" t="n">
         <v>-4.4</v>
@@ -22945,7 +22945,7 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>-133</v>
+        <v>-132</v>
       </c>
       <c r="K371" t="n">
         <v>-4.4</v>
@@ -23012,10 +23012,10 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>-284</v>
+        <v>-283</v>
       </c>
       <c r="K372" t="n">
-        <v>-9.5</v>
+        <v>-9.4</v>
       </c>
       <c r="L372" t="inlineStr">
         <is>
@@ -23069,7 +23069,7 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>-133</v>
+        <v>-132</v>
       </c>
       <c r="K373" t="n">
         <v>-4.4</v>
@@ -23130,7 +23130,7 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="K374" t="n">
         <v>-2.4</v>
@@ -23191,10 +23191,10 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="K375" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="L375" t="inlineStr">
         <is>
@@ -23252,10 +23252,10 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="K376" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="L376" t="inlineStr">
         <is>
@@ -23313,7 +23313,7 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="K377" t="n">
         <v>-2.4</v>
@@ -23374,7 +23374,7 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K378" t="n">
         <v>2.7</v>
@@ -23435,7 +23435,7 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K379" t="n">
         <v>3.7</v>
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K380" t="n">
         <v>2.7</v>
@@ -23557,7 +23557,7 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K381" t="n">
         <v>3.7</v>
@@ -23618,7 +23618,7 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="K382" t="n">
         <v>29.1</v>
@@ -23679,10 +23679,10 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K383" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L383" t="inlineStr">
         <is>
@@ -23740,7 +23740,7 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K384" t="n">
         <v>5.7</v>
@@ -23801,7 +23801,7 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K385" t="n">
         <v>5.7</v>
@@ -23862,7 +23862,7 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K386" t="n">
         <v>5.7</v>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K387" t="n">
         <v>10.8</v>
@@ -23984,7 +23984,7 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K388" t="n">
         <v>10.8</v>
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K389" t="n">
         <v>10.8</v>
@@ -24106,7 +24106,7 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K390" t="n">
         <v>15.9</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K391" t="n">
         <v>14.9</v>
@@ -24228,7 +24228,7 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K392" t="n">
         <v>19.9</v>
@@ -24289,7 +24289,7 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K393" t="n">
         <v>19.9</v>
@@ -24350,7 +24350,7 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="K394" t="n">
         <v>20.9</v>
@@ -24411,10 +24411,10 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="K395" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="L395" t="inlineStr">
         <is>
@@ -24472,10 +24472,10 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="K396" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="L396" t="inlineStr">
         <is>
@@ -24533,10 +24533,10 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K397" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="L397" t="inlineStr">
         <is>
@@ -24594,10 +24594,10 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="K398" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="L398" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="K399" t="n">
         <v>26</v>
@@ -24716,7 +24716,7 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>-195</v>
+        <v>-194</v>
       </c>
       <c r="K400" t="n">
         <v>-6.5</v>
@@ -24779,7 +24779,7 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K401" t="n">
         <v>0.7</v>
@@ -24848,10 +24848,10 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>-254</v>
+        <v>-253</v>
       </c>
       <c r="K402" t="n">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="L402" t="inlineStr">
         <is>
@@ -24905,7 +24905,7 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K403" t="n">
         <v>1.7</v>
@@ -24966,7 +24966,7 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K404" t="n">
         <v>2.7</v>
@@ -25027,7 +25027,7 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K405" t="n">
         <v>1.7</v>
@@ -25088,7 +25088,7 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K406" t="n">
         <v>2.7</v>
@@ -25149,7 +25149,7 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K407" t="n">
         <v>5.7</v>
@@ -25210,7 +25210,7 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K408" t="n">
         <v>5.7</v>
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K409" t="n">
         <v>10.8</v>
@@ -25332,7 +25332,7 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K410" t="n">
         <v>10.8</v>
@@ -25393,7 +25393,7 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K411" t="n">
         <v>14.9</v>
@@ -25454,10 +25454,10 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K412" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="L412" t="inlineStr">
         <is>
@@ -25515,10 +25515,10 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K413" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="L413" t="inlineStr">
         <is>
@@ -25576,7 +25576,7 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K414" t="n">
         <v>19.9</v>
@@ -25637,10 +25637,10 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K415" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="L415" t="inlineStr">
         <is>
@@ -25698,10 +25698,10 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K416" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="L416" t="inlineStr">
         <is>
@@ -25759,10 +25759,10 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K417" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="L417" t="inlineStr">
         <is>
@@ -25820,10 +25820,10 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K418" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="L418" t="inlineStr">
         <is>
@@ -25881,10 +25881,10 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K419" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="L419" t="inlineStr">
         <is>
@@ -25942,7 +25942,7 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="K420" t="n">
         <v>-2.4</v>
@@ -26011,10 +26011,10 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="K421" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="L421" t="inlineStr">
         <is>
@@ -26080,10 +26080,10 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="K422" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="L422" t="inlineStr">
         <is>
@@ -26147,7 +26147,7 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K423" t="n">
         <v>3.7</v>
@@ -26216,7 +26216,7 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K424" t="n">
         <v>3.7</v>
@@ -26285,7 +26285,7 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>-223</v>
+        <v>-222</v>
       </c>
       <c r="K425" t="n">
         <v>-7.4</v>
@@ -26342,7 +26342,7 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K426" t="n">
         <v>3.7</v>
@@ -26403,10 +26403,10 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K427" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="L427" t="inlineStr">
         <is>
@@ -26464,10 +26464,10 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K428" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="L428" t="inlineStr">
         <is>
@@ -26525,10 +26525,10 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K429" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="L429" t="inlineStr">
         <is>
@@ -26586,10 +26586,10 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K430" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="L430" t="inlineStr">
         <is>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K431" t="n">
         <v>14.9</v>
@@ -26708,7 +26708,7 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K432" t="n">
         <v>14.9</v>
@@ -26769,7 +26769,7 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K433" t="n">
         <v>14.9</v>
@@ -26830,7 +26830,7 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K434" t="n">
         <v>19.9</v>
@@ -26891,7 +26891,7 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K435" t="n">
         <v>19.9</v>
@@ -26952,7 +26952,7 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="K436" t="n">
         <v>25</v>
@@ -27013,7 +27013,7 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="K437" t="n">
         <v>25</v>
@@ -27074,7 +27074,7 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>-103</v>
+        <v>-102</v>
       </c>
       <c r="K438" t="n">
         <v>-3.4</v>
@@ -27141,7 +27141,7 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>-103</v>
+        <v>-102</v>
       </c>
       <c r="K439" t="n">
         <v>-3.4</v>
@@ -27208,7 +27208,7 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K440" t="n">
         <v>1.7</v>
@@ -27269,7 +27269,7 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K441" t="n">
         <v>1.7</v>
@@ -27330,7 +27330,7 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K442" t="n">
         <v>1.7</v>
@@ -27391,7 +27391,7 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K443" t="n">
         <v>1.7</v>
@@ -27452,7 +27452,7 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K444" t="n">
         <v>3.7</v>
@@ -27513,10 +27513,10 @@
         </is>
       </c>
       <c r="J445" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K445" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L445" t="inlineStr">
         <is>
@@ -27574,7 +27574,7 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K446" t="n">
         <v>5.7</v>
@@ -27635,7 +27635,7 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K447" t="n">
         <v>5.7</v>
@@ -27696,10 +27696,10 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K448" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L448" t="inlineStr">
         <is>
@@ -27757,7 +27757,7 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K449" t="n">
         <v>10.8</v>
@@ -27818,7 +27818,7 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K450" t="n">
         <v>9.800000000000001</v>
@@ -27879,7 +27879,7 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="K451" t="n">
         <v>16.9</v>
@@ -27940,7 +27940,7 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K452" t="n">
         <v>19.9</v>
@@ -28001,7 +28001,7 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K453" t="n">
         <v>19.9</v>
@@ -28062,7 +28062,7 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K454" t="n">
         <v>19.9</v>
@@ -28123,7 +28123,7 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="K455" t="n">
         <v>19.9</v>
@@ -28184,10 +28184,10 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="K456" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="L456" t="inlineStr">
         <is>
@@ -28245,10 +28245,10 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="K457" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="L457" t="inlineStr">
         <is>
@@ -28306,7 +28306,7 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>-195</v>
+        <v>-194</v>
       </c>
       <c r="K458" t="n">
         <v>-6.5</v>
@@ -28369,10 +28369,10 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K459" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L459" t="inlineStr">
         <is>
@@ -28438,7 +28438,7 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>-103</v>
+        <v>-102</v>
       </c>
       <c r="K460" t="n">
         <v>-3.4</v>
@@ -28499,10 +28499,10 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K461" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L461" t="inlineStr">
         <is>
@@ -28560,10 +28560,10 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K462" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L462" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K463" t="n">
         <v>9.800000000000001</v>
@@ -28682,7 +28682,7 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K464" t="n">
         <v>10.8</v>
@@ -28743,7 +28743,7 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K465" t="n">
         <v>10.8</v>
@@ -28804,7 +28804,7 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K466" t="n">
         <v>10.8</v>
@@ -28865,7 +28865,7 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>-42</v>
+        <v>-41</v>
       </c>
       <c r="K467" t="n">
         <v>-1.4</v>
@@ -28926,7 +28926,7 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K468" t="n">
         <v>14.9</v>
@@ -28987,7 +28987,7 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K469" t="n">
         <v>14.9</v>
@@ -29048,7 +29048,7 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K470" t="n">
         <v>14.9</v>
@@ -29109,7 +29109,7 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K471" t="n">
         <v>14.9</v>
@@ -29170,7 +29170,7 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="K472" t="n">
         <v>14.9</v>
@@ -29231,7 +29231,7 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="K473" t="n">
         <v>24</v>
@@ -29292,7 +29292,7 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="K474" t="n">
         <v>25</v>
@@ -29353,10 +29353,10 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>-284</v>
+        <v>-283</v>
       </c>
       <c r="K475" t="n">
-        <v>-9.5</v>
+        <v>-9.4</v>
       </c>
       <c r="L475" t="inlineStr">
         <is>
@@ -29416,10 +29416,10 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>-164</v>
+        <v>-163</v>
       </c>
       <c r="K476" t="n">
-        <v>-5.5</v>
+        <v>-5.4</v>
       </c>
       <c r="L476" t="inlineStr">
         <is>
@@ -29485,7 +29485,7 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K477" t="n">
         <v>3.7</v>
@@ -29546,10 +29546,10 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="K478" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="L478" t="inlineStr">
         <is>
@@ -29607,7 +29607,7 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>-468</v>
+        <v>-467</v>
       </c>
       <c r="K479" t="n">
         <v>-15.6</v>
@@ -29670,7 +29670,7 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>-468</v>
+        <v>-467</v>
       </c>
       <c r="K480" t="n">
         <v>-15.6</v>
@@ -29733,7 +29733,7 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>-468</v>
+        <v>-467</v>
       </c>
       <c r="K481" t="n">
         <v>-15.6</v>
@@ -29796,10 +29796,10 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>-407</v>
+        <v>-406</v>
       </c>
       <c r="K482" t="n">
-        <v>-13.6</v>
+        <v>-13.5</v>
       </c>
       <c r="L482" t="inlineStr">
         <is>
@@ -29853,7 +29853,7 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>-315</v>
+        <v>-314</v>
       </c>
       <c r="K483" t="n">
         <v>-10.5</v>
@@ -29910,10 +29910,10 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>-254</v>
+        <v>-253</v>
       </c>
       <c r="K484" t="n">
-        <v>-8.5</v>
+        <v>-8.4</v>
       </c>
       <c r="L484" t="inlineStr">
         <is>
@@ -29967,7 +29967,7 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>-42</v>
+        <v>-41</v>
       </c>
       <c r="K485" t="n">
         <v>-1.4</v>
@@ -30028,7 +30028,7 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K486" t="n">
         <v>10.8</v>
@@ -30089,7 +30089,7 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K487" t="n">
         <v>6.7</v>
@@ -30150,7 +30150,7 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K488" t="n">
         <v>10.8</v>
@@ -30211,7 +30211,7 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K489" t="n">
         <v>10.8</v>
@@ -30272,7 +30272,7 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K490" t="n">
         <v>15.9</v>
@@ -30333,7 +30333,7 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K491" t="n">
         <v>15.9</v>
@@ -30394,10 +30394,10 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K492" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="L492" t="inlineStr">
         <is>
@@ -30455,10 +30455,10 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K493" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="L493" t="inlineStr">
         <is>
@@ -30516,10 +30516,10 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K494" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="L494" t="inlineStr">
         <is>
@@ -30577,10 +30577,10 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K495" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="L495" t="inlineStr">
         <is>
@@ -30638,10 +30638,10 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K496" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="L496" t="inlineStr">
         <is>
@@ -30699,10 +30699,10 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K497" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="L497" t="inlineStr">
         <is>
@@ -30760,10 +30760,10 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K498" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="L498" t="inlineStr">
         <is>
@@ -30821,7 +30821,7 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="K499" t="n">
         <v>-2.4</v>
@@ -30888,7 +30888,7 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>-72</v>
+        <v>-71</v>
       </c>
       <c r="K500" t="n">
         <v>-2.4</v>
@@ -30955,7 +30955,7 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>-133</v>
+        <v>-132</v>
       </c>
       <c r="K501" t="n">
         <v>-4.4</v>
@@ -31016,7 +31016,7 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>-42</v>
+        <v>-41</v>
       </c>
       <c r="K502" t="n">
         <v>-1.4</v>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K503" t="n">
         <v>0.7</v>
@@ -31138,7 +31138,7 @@
         </is>
       </c>
       <c r="J504" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K504" t="n">
         <v>2.7</v>
@@ -31199,7 +31199,7 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K505" t="n">
         <v>5.7</v>
@@ -31260,7 +31260,7 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K506" t="n">
         <v>5.7</v>
@@ -31321,7 +31321,7 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K507" t="n">
         <v>10.8</v>
@@ -31382,10 +31382,10 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K508" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="L508" t="inlineStr">
         <is>
@@ -31443,10 +31443,10 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K509" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="L509" t="inlineStr">
         <is>
@@ -31504,7 +31504,7 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="K510" t="n">
         <v>26</v>
@@ -31565,10 +31565,10 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="K511" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="L511" t="inlineStr">
         <is>
@@ -31626,7 +31626,7 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>-133</v>
+        <v>-132</v>
       </c>
       <c r="K512" t="n">
         <v>-4.4</v>
@@ -31693,10 +31693,10 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K513" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L513" t="inlineStr">
         <is>
@@ -31754,7 +31754,7 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K514" t="n">
         <v>9.800000000000001</v>
@@ -31815,7 +31815,7 @@
         </is>
       </c>
       <c r="J515" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K515" t="n">
         <v>10.8</v>

--- a/planilha_supply1.xlsx
+++ b/planilha_supply1.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>-2913702</v>
+        <v>-2913701</v>
       </c>
       <c r="K2" t="n">
         <v>-97123.39999999999</v>
@@ -615,10 +615,10 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>-710</v>
+        <v>-709</v>
       </c>
       <c r="K3" t="n">
-        <v>-23.7</v>
+        <v>-23.6</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>-710</v>
+        <v>-709</v>
       </c>
       <c r="K4" t="n">
-        <v>-23.7</v>
+        <v>-23.6</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>-619</v>
+        <v>-618</v>
       </c>
       <c r="K5" t="n">
         <v>-20.6</v>
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>-1014</v>
+        <v>-1013</v>
       </c>
       <c r="K6" t="n">
         <v>-33.8</v>
@@ -863,10 +863,10 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>-710</v>
+        <v>-709</v>
       </c>
       <c r="K7" t="n">
-        <v>-23.7</v>
+        <v>-23.6</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>-710</v>
+        <v>-709</v>
       </c>
       <c r="K8" t="n">
-        <v>-23.7</v>
+        <v>-23.6</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>-710</v>
+        <v>-709</v>
       </c>
       <c r="K9" t="n">
-        <v>-23.7</v>
+        <v>-23.6</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>-559</v>
+        <v>-558</v>
       </c>
       <c r="K10" t="n">
         <v>-18.6</v>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>-528</v>
+        <v>-527</v>
       </c>
       <c r="K11" t="n">
         <v>-17.6</v>
@@ -1148,7 +1148,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>-559</v>
+        <v>-558</v>
       </c>
       <c r="K12" t="n">
         <v>-18.6</v>
@@ -1205,10 +1205,10 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>-497</v>
+        <v>-496</v>
       </c>
       <c r="K13" t="n">
-        <v>-16.6</v>
+        <v>-16.5</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1262,10 +1262,10 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>-497</v>
+        <v>-496</v>
       </c>
       <c r="K14" t="n">
-        <v>-16.6</v>
+        <v>-16.5</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>-375</v>
+        <v>-374</v>
       </c>
       <c r="K15" t="n">
         <v>-12.5</v>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>-375</v>
+        <v>-374</v>
       </c>
       <c r="K16" t="n">
         <v>-12.5</v>
@@ -1433,7 +1433,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>-375</v>
+        <v>-374</v>
       </c>
       <c r="K17" t="n">
         <v>-12.5</v>
@@ -1490,10 +1490,10 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>-314</v>
+        <v>-313</v>
       </c>
       <c r="K18" t="n">
-        <v>-10.5</v>
+        <v>-10.4</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1547,10 +1547,10 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>-314</v>
+        <v>-313</v>
       </c>
       <c r="K19" t="n">
-        <v>-10.5</v>
+        <v>-10.4</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>-253</v>
+        <v>-252</v>
       </c>
       <c r="K20" t="n">
         <v>-8.4</v>
@@ -1661,7 +1661,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>-253</v>
+        <v>-252</v>
       </c>
       <c r="K21" t="n">
         <v>-8.4</v>
@@ -1718,10 +1718,10 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>-194</v>
+        <v>-193</v>
       </c>
       <c r="K22" t="n">
-        <v>-6.5</v>
+        <v>-6.4</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1775,10 +1775,10 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>-194</v>
+        <v>-193</v>
       </c>
       <c r="K23" t="n">
-        <v>-6.5</v>
+        <v>-6.4</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="K24" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1893,10 +1893,10 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="K25" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1954,10 +1954,10 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="K26" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -2015,10 +2015,10 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="K27" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -2076,10 +2076,10 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K28" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K29" t="n">
         <v>1.7</v>
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K30" t="n">
         <v>1.7</v>
@@ -2259,10 +2259,10 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K31" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2320,7 +2320,7 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K32" t="n">
         <v>5.7</v>
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>-2913702</v>
+        <v>-2913701</v>
       </c>
       <c r="K33" t="n">
         <v>-97123.39999999999</v>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>-253</v>
+        <v>-252</v>
       </c>
       <c r="K34" t="n">
         <v>-8.4</v>
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>-253</v>
+        <v>-252</v>
       </c>
       <c r="K35" t="n">
         <v>-8.4</v>
@@ -2570,7 +2570,7 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>-253</v>
+        <v>-252</v>
       </c>
       <c r="K36" t="n">
         <v>-8.4</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>-253</v>
+        <v>-252</v>
       </c>
       <c r="K37" t="n">
         <v>-8.4</v>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>-102</v>
+        <v>-101</v>
       </c>
       <c r="K38" t="n">
         <v>-3.4</v>
@@ -2751,10 +2751,10 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="K39" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>-102</v>
+        <v>-101</v>
       </c>
       <c r="K40" t="n">
         <v>-3.4</v>
@@ -2873,10 +2873,10 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="K41" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2934,10 +2934,10 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="K42" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K43" t="n">
         <v>1.7</v>
@@ -3056,7 +3056,7 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K44" t="n">
         <v>1.7</v>
@@ -3117,7 +3117,7 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K45" t="n">
         <v>8.800000000000001</v>
@@ -3178,7 +3178,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K46" t="n">
         <v>15.9</v>
@@ -3239,7 +3239,7 @@
         </is>
       </c>
       <c r="J47" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K47" t="n">
         <v>7.8</v>
@@ -3300,7 +3300,7 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K48" t="n">
         <v>15.9</v>
@@ -3361,7 +3361,7 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K49" t="n">
         <v>17.9</v>
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K50" t="n">
         <v>15.9</v>
@@ -3483,7 +3483,7 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K51" t="n">
         <v>17.9</v>
@@ -3544,10 +3544,10 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="K52" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -3605,10 +3605,10 @@
         </is>
       </c>
       <c r="J53" t="n">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="K53" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="J54" t="n">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="K54" t="n">
         <v>30.1</v>
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K55" t="n">
         <v>9.800000000000001</v>
@@ -3794,7 +3794,7 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>-894</v>
+        <v>-893</v>
       </c>
       <c r="K56" t="n">
         <v>-29.8</v>
@@ -3857,7 +3857,7 @@
         </is>
       </c>
       <c r="J57" t="n">
-        <v>-894</v>
+        <v>-893</v>
       </c>
       <c r="K57" t="n">
         <v>-29.8</v>
@@ -3920,7 +3920,7 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>-894</v>
+        <v>-893</v>
       </c>
       <c r="K58" t="n">
         <v>-29.8</v>
@@ -3985,7 +3985,7 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>-894</v>
+        <v>-893</v>
       </c>
       <c r="K59" t="n">
         <v>-29.8</v>
@@ -4048,7 +4048,7 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>-894</v>
+        <v>-893</v>
       </c>
       <c r="K60" t="n">
         <v>-29.8</v>
@@ -4111,10 +4111,10 @@
         </is>
       </c>
       <c r="J61" t="n">
-        <v>-710</v>
+        <v>-709</v>
       </c>
       <c r="K61" t="n">
-        <v>-23.7</v>
+        <v>-23.6</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>-1014</v>
+        <v>-1013</v>
       </c>
       <c r="K62" t="n">
         <v>-33.8</v>
@@ -4231,10 +4231,10 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>-710</v>
+        <v>-709</v>
       </c>
       <c r="K63" t="n">
-        <v>-23.7</v>
+        <v>-23.6</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -4288,10 +4288,10 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>-710</v>
+        <v>-709</v>
       </c>
       <c r="K64" t="n">
-        <v>-23.7</v>
+        <v>-23.6</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>-528</v>
+        <v>-527</v>
       </c>
       <c r="K65" t="n">
         <v>-17.6</v>
@@ -4402,7 +4402,7 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>-436</v>
+        <v>-435</v>
       </c>
       <c r="K66" t="n">
         <v>-14.5</v>
@@ -4459,7 +4459,7 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>-436</v>
+        <v>-435</v>
       </c>
       <c r="K67" t="n">
         <v>-14.5</v>
@@ -4516,7 +4516,7 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>-436</v>
+        <v>-435</v>
       </c>
       <c r="K68" t="n">
         <v>-14.5</v>
@@ -4573,10 +4573,10 @@
         </is>
       </c>
       <c r="J69" t="n">
-        <v>-710</v>
+        <v>-709</v>
       </c>
       <c r="K69" t="n">
-        <v>-23.7</v>
+        <v>-23.6</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -4630,10 +4630,10 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>-467</v>
+        <v>-466</v>
       </c>
       <c r="K70" t="n">
-        <v>-15.6</v>
+        <v>-15.5</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -4687,10 +4687,10 @@
         </is>
       </c>
       <c r="J71" t="n">
-        <v>-710</v>
+        <v>-709</v>
       </c>
       <c r="K71" t="n">
-        <v>-23.7</v>
+        <v>-23.6</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -4744,10 +4744,10 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>-710</v>
+        <v>-709</v>
       </c>
       <c r="K72" t="n">
-        <v>-23.7</v>
+        <v>-23.6</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>-466</v>
+        <v>-465</v>
       </c>
       <c r="K73" t="n">
         <v>-15.5</v>
@@ -4858,7 +4858,7 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>-466</v>
+        <v>-465</v>
       </c>
       <c r="K74" t="n">
         <v>-15.5</v>
@@ -4915,7 +4915,7 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>-528</v>
+        <v>-527</v>
       </c>
       <c r="K75" t="n">
         <v>-17.6</v>
@@ -4972,10 +4972,10 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>-467</v>
+        <v>-466</v>
       </c>
       <c r="K76" t="n">
-        <v>-15.6</v>
+        <v>-15.5</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>-528</v>
+        <v>-527</v>
       </c>
       <c r="K77" t="n">
         <v>-17.6</v>
@@ -5086,10 +5086,10 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>-344</v>
+        <v>-343</v>
       </c>
       <c r="K78" t="n">
-        <v>-11.5</v>
+        <v>-11.4</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>-528</v>
+        <v>-527</v>
       </c>
       <c r="K79" t="n">
         <v>-17.6</v>
@@ -5200,10 +5200,10 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>-467</v>
+        <v>-466</v>
       </c>
       <c r="K80" t="n">
-        <v>-15.6</v>
+        <v>-15.5</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         </is>
       </c>
       <c r="J81" t="n">
-        <v>-528</v>
+        <v>-527</v>
       </c>
       <c r="K81" t="n">
         <v>-17.6</v>
@@ -5314,7 +5314,7 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>-528</v>
+        <v>-527</v>
       </c>
       <c r="K82" t="n">
         <v>-17.6</v>
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>-528</v>
+        <v>-527</v>
       </c>
       <c r="K83" t="n">
         <v>-17.6</v>
@@ -5428,10 +5428,10 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>-344</v>
+        <v>-343</v>
       </c>
       <c r="K84" t="n">
-        <v>-11.5</v>
+        <v>-11.4</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -5485,10 +5485,10 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>-344</v>
+        <v>-343</v>
       </c>
       <c r="K85" t="n">
-        <v>-11.5</v>
+        <v>-11.4</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         </is>
       </c>
       <c r="J86" t="n">
-        <v>-436</v>
+        <v>-435</v>
       </c>
       <c r="K86" t="n">
         <v>-14.5</v>
@@ -5599,7 +5599,7 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>-436</v>
+        <v>-435</v>
       </c>
       <c r="K87" t="n">
         <v>-14.5</v>
@@ -5656,7 +5656,7 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>-436</v>
+        <v>-435</v>
       </c>
       <c r="K88" t="n">
         <v>-14.5</v>
@@ -5713,10 +5713,10 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>-344</v>
+        <v>-343</v>
       </c>
       <c r="K89" t="n">
-        <v>-11.5</v>
+        <v>-11.4</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -5770,10 +5770,10 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>-344</v>
+        <v>-343</v>
       </c>
       <c r="K90" t="n">
-        <v>-11.5</v>
+        <v>-11.4</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -5827,10 +5827,10 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>-344</v>
+        <v>-343</v>
       </c>
       <c r="K91" t="n">
-        <v>-11.5</v>
+        <v>-11.4</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>-344</v>
+        <v>-343</v>
       </c>
       <c r="K92" t="n">
-        <v>-11.5</v>
+        <v>-11.4</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -5941,10 +5941,10 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>-344</v>
+        <v>-343</v>
       </c>
       <c r="K93" t="n">
-        <v>-11.5</v>
+        <v>-11.4</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>-194</v>
+        <v>-193</v>
       </c>
       <c r="K94" t="n">
-        <v>-6.5</v>
+        <v>-6.4</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>-283</v>
+        <v>-282</v>
       </c>
       <c r="K95" t="n">
         <v>-9.4</v>
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>-283</v>
+        <v>-282</v>
       </c>
       <c r="K96" t="n">
         <v>-9.4</v>
@@ -6169,7 +6169,7 @@
         </is>
       </c>
       <c r="J97" t="n">
-        <v>-283</v>
+        <v>-282</v>
       </c>
       <c r="K97" t="n">
         <v>-9.4</v>
@@ -6226,10 +6226,10 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>-344</v>
+        <v>-343</v>
       </c>
       <c r="K98" t="n">
-        <v>-11.5</v>
+        <v>-11.4</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>-194</v>
+        <v>-193</v>
       </c>
       <c r="K99" t="n">
-        <v>-6.5</v>
+        <v>-6.4</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>-283</v>
+        <v>-282</v>
       </c>
       <c r="K100" t="n">
         <v>-9.4</v>
@@ -6397,7 +6397,7 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>-283</v>
+        <v>-282</v>
       </c>
       <c r="K101" t="n">
         <v>-9.4</v>
@@ -6454,7 +6454,7 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>-283</v>
+        <v>-282</v>
       </c>
       <c r="K102" t="n">
         <v>-9.4</v>
@@ -6511,7 +6511,7 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>-283</v>
+        <v>-282</v>
       </c>
       <c r="K103" t="n">
         <v>-9.4</v>
@@ -6568,7 +6568,7 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>-283</v>
+        <v>-282</v>
       </c>
       <c r="K104" t="n">
         <v>-9.4</v>
@@ -6625,7 +6625,7 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>-163</v>
+        <v>-162</v>
       </c>
       <c r="K105" t="n">
         <v>-5.4</v>
@@ -6686,7 +6686,7 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>-163</v>
+        <v>-162</v>
       </c>
       <c r="K106" t="n">
         <v>-5.4</v>
@@ -6747,7 +6747,7 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>-253</v>
+        <v>-252</v>
       </c>
       <c r="K107" t="n">
         <v>-8.4</v>
@@ -6804,7 +6804,7 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>-253</v>
+        <v>-252</v>
       </c>
       <c r="K108" t="n">
         <v>-8.4</v>
@@ -6861,7 +6861,7 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>-102</v>
+        <v>-101</v>
       </c>
       <c r="K109" t="n">
         <v>-3.4</v>
@@ -6922,7 +6922,7 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>-102</v>
+        <v>-101</v>
       </c>
       <c r="K110" t="n">
         <v>-3.4</v>
@@ -6983,7 +6983,7 @@
         </is>
       </c>
       <c r="J111" t="n">
-        <v>-102</v>
+        <v>-101</v>
       </c>
       <c r="K111" t="n">
         <v>-3.4</v>
@@ -7044,7 +7044,7 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>-102</v>
+        <v>-101</v>
       </c>
       <c r="K112" t="n">
         <v>-3.4</v>
@@ -7105,7 +7105,7 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>-102</v>
+        <v>-101</v>
       </c>
       <c r="K113" t="n">
         <v>-3.4</v>
@@ -7166,7 +7166,7 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>-102</v>
+        <v>-101</v>
       </c>
       <c r="K114" t="n">
         <v>-3.4</v>
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="J115" t="n">
-        <v>-102</v>
+        <v>-101</v>
       </c>
       <c r="K115" t="n">
         <v>-3.4</v>
@@ -7288,7 +7288,7 @@
         </is>
       </c>
       <c r="J116" t="n">
-        <v>-102</v>
+        <v>-101</v>
       </c>
       <c r="K116" t="n">
         <v>-3.4</v>
@@ -7349,7 +7349,7 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K117" t="n">
         <v>-0.3</v>
@@ -7410,7 +7410,7 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K118" t="n">
         <v>-0.3</v>
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K119" t="n">
         <v>0.7</v>
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="J120" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K120" t="n">
         <v>-0.3</v>
@@ -7593,7 +7593,7 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K121" t="n">
         <v>-0.3</v>
@@ -7654,7 +7654,7 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K122" t="n">
         <v>0.7</v>
@@ -7715,7 +7715,7 @@
         </is>
       </c>
       <c r="J123" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K123" t="n">
         <v>0.7</v>
@@ -7776,7 +7776,7 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>-283</v>
+        <v>-282</v>
       </c>
       <c r="K124" t="n">
         <v>-9.4</v>
@@ -7839,7 +7839,7 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>-163</v>
+        <v>-162</v>
       </c>
       <c r="K125" t="n">
         <v>-5.4</v>
@@ -7906,7 +7906,7 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>-163</v>
+        <v>-162</v>
       </c>
       <c r="K126" t="n">
         <v>-5.4</v>
@@ -7973,10 +7973,10 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>-41</v>
+        <v>-40</v>
       </c>
       <c r="K127" t="n">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -8040,10 +8040,10 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="K128" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="L128" t="inlineStr">
         <is>
@@ -8101,7 +8101,7 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>-102</v>
+        <v>-101</v>
       </c>
       <c r="K129" t="n">
         <v>-3.4</v>
@@ -8162,10 +8162,10 @@
         </is>
       </c>
       <c r="J130" t="n">
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="K130" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K131" t="n">
         <v>-0.3</v>
@@ -8284,7 +8284,7 @@
         </is>
       </c>
       <c r="J132" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K132" t="n">
         <v>0.7</v>
@@ -8345,7 +8345,7 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K133" t="n">
         <v>0.7</v>
@@ -8406,7 +8406,7 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K134" t="n">
         <v>1.7</v>
@@ -8467,7 +8467,7 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K135" t="n">
         <v>1.7</v>
@@ -8528,7 +8528,7 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K136" t="n">
         <v>1.7</v>
@@ -8589,7 +8589,7 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K137" t="n">
         <v>1.7</v>
@@ -8650,7 +8650,7 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K138" t="n">
         <v>7.8</v>
@@ -8711,7 +8711,7 @@
         </is>
       </c>
       <c r="J139" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K139" t="n">
         <v>7.8</v>
@@ -8772,7 +8772,7 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K140" t="n">
         <v>8.800000000000001</v>
@@ -8833,7 +8833,7 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K141" t="n">
         <v>9.800000000000001</v>
@@ -8894,7 +8894,7 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K142" t="n">
         <v>9.800000000000001</v>
@@ -8955,7 +8955,7 @@
         </is>
       </c>
       <c r="J143" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K143" t="n">
         <v>10.8</v>
@@ -9016,7 +9016,7 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K144" t="n">
         <v>9.800000000000001</v>
@@ -9077,7 +9077,7 @@
         </is>
       </c>
       <c r="J145" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K145" t="n">
         <v>9.800000000000001</v>
@@ -9138,7 +9138,7 @@
         </is>
       </c>
       <c r="J146" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K146" t="n">
         <v>9.800000000000001</v>
@@ -9199,7 +9199,7 @@
         </is>
       </c>
       <c r="J147" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K147" t="n">
         <v>14.9</v>
@@ -9260,7 +9260,7 @@
         </is>
       </c>
       <c r="J148" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K148" t="n">
         <v>15.9</v>
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="J149" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K149" t="n">
         <v>14.9</v>
@@ -9382,7 +9382,7 @@
         </is>
       </c>
       <c r="J150" t="n">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="K150" t="n">
         <v>18.9</v>
@@ -9443,10 +9443,10 @@
         </is>
       </c>
       <c r="J151" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K151" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -9504,10 +9504,10 @@
         </is>
       </c>
       <c r="J152" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K152" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="L152" t="inlineStr">
         <is>
@@ -9565,10 +9565,10 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K153" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="L153" t="inlineStr">
         <is>
@@ -9626,10 +9626,10 @@
         </is>
       </c>
       <c r="J154" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K154" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -9687,10 +9687,10 @@
         </is>
       </c>
       <c r="J155" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K155" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="L155" t="inlineStr">
         <is>
@@ -9748,10 +9748,10 @@
         </is>
       </c>
       <c r="J156" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K156" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="L156" t="inlineStr">
         <is>
@@ -9809,7 +9809,7 @@
         </is>
       </c>
       <c r="J157" t="n">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="K157" t="n">
         <v>27.1</v>
@@ -9870,10 +9870,10 @@
         </is>
       </c>
       <c r="J158" t="n">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="K158" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
@@ -9931,10 +9931,10 @@
         </is>
       </c>
       <c r="J159" t="n">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="K159" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -9992,7 +9992,7 @@
         </is>
       </c>
       <c r="J160" t="n">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="K160" t="n">
         <v>24</v>
@@ -10053,7 +10053,7 @@
         </is>
       </c>
       <c r="J161" t="n">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="K161" t="n">
         <v>24</v>
@@ -10114,7 +10114,7 @@
         </is>
       </c>
       <c r="J162" t="n">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="K162" t="n">
         <v>24</v>
@@ -10175,7 +10175,7 @@
         </is>
       </c>
       <c r="J163" t="n">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="K163" t="n">
         <v>27.1</v>
@@ -10236,10 +10236,10 @@
         </is>
       </c>
       <c r="J164" t="n">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="K164" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="L164" t="inlineStr">
         <is>
@@ -10297,7 +10297,7 @@
         </is>
       </c>
       <c r="J165" t="n">
-        <v>-528</v>
+        <v>-527</v>
       </c>
       <c r="K165" t="n">
         <v>-17.6</v>
@@ -10360,7 +10360,7 @@
         </is>
       </c>
       <c r="J166" t="n">
-        <v>-406</v>
+        <v>-405</v>
       </c>
       <c r="K166" t="n">
         <v>-13.5</v>
@@ -10423,7 +10423,7 @@
         </is>
       </c>
       <c r="J167" t="n">
-        <v>-406</v>
+        <v>-405</v>
       </c>
       <c r="K167" t="n">
         <v>-13.5</v>
@@ -10486,7 +10486,7 @@
         </is>
       </c>
       <c r="J168" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K168" t="n">
         <v>1.7</v>
@@ -10547,10 +10547,10 @@
         </is>
       </c>
       <c r="J169" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K169" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="L169" t="inlineStr">
         <is>
@@ -10608,7 +10608,7 @@
         </is>
       </c>
       <c r="J170" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K170" t="n">
         <v>7.8</v>
@@ -10669,7 +10669,7 @@
         </is>
       </c>
       <c r="J171" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K171" t="n">
         <v>14.9</v>
@@ -10730,7 +10730,7 @@
         </is>
       </c>
       <c r="J172" t="n">
-        <v>-406</v>
+        <v>-405</v>
       </c>
       <c r="K172" t="n">
         <v>-13.5</v>
@@ -10793,7 +10793,7 @@
         </is>
       </c>
       <c r="J173" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K173" t="n">
         <v>14.9</v>
@@ -10860,7 +10860,7 @@
         </is>
       </c>
       <c r="J174" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K174" t="n">
         <v>7.8</v>
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="J175" t="n">
-        <v>-559</v>
+        <v>-558</v>
       </c>
       <c r="K175" t="n">
         <v>-18.6</v>
@@ -10984,10 +10984,10 @@
         </is>
       </c>
       <c r="J176" t="n">
-        <v>-587</v>
+        <v>-586</v>
       </c>
       <c r="K176" t="n">
-        <v>-19.6</v>
+        <v>-19.5</v>
       </c>
       <c r="L176" t="inlineStr">
         <is>
@@ -11047,7 +11047,7 @@
         </is>
       </c>
       <c r="J177" t="n">
-        <v>-163</v>
+        <v>-162</v>
       </c>
       <c r="K177" t="n">
         <v>-5.4</v>
@@ -11108,7 +11108,7 @@
         </is>
       </c>
       <c r="J178" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K178" t="n">
         <v>4.8</v>
@@ -11169,7 +11169,7 @@
         </is>
       </c>
       <c r="J179" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K179" t="n">
         <v>4.8</v>
@@ -11230,7 +11230,7 @@
         </is>
       </c>
       <c r="J180" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K180" t="n">
         <v>8.800000000000001</v>
@@ -11291,7 +11291,7 @@
         </is>
       </c>
       <c r="J181" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K181" t="n">
         <v>8.800000000000001</v>
@@ -11352,7 +11352,7 @@
         </is>
       </c>
       <c r="J182" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K182" t="n">
         <v>8.800000000000001</v>
@@ -11413,7 +11413,7 @@
         </is>
       </c>
       <c r="J183" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K183" t="n">
         <v>8.800000000000001</v>
@@ -11474,7 +11474,7 @@
         </is>
       </c>
       <c r="J184" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K184" t="n">
         <v>8.800000000000001</v>
@@ -11535,7 +11535,7 @@
         </is>
       </c>
       <c r="J185" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K185" t="n">
         <v>5.7</v>
@@ -11604,7 +11604,7 @@
         </is>
       </c>
       <c r="J186" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K186" t="n">
         <v>5.7</v>
@@ -11665,7 +11665,7 @@
         </is>
       </c>
       <c r="J187" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K187" t="n">
         <v>13.9</v>
@@ -11726,7 +11726,7 @@
         </is>
       </c>
       <c r="J188" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K188" t="n">
         <v>8.800000000000001</v>
@@ -11787,7 +11787,7 @@
         </is>
       </c>
       <c r="J189" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K189" t="n">
         <v>8.800000000000001</v>
@@ -11848,7 +11848,7 @@
         </is>
       </c>
       <c r="J190" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K190" t="n">
         <v>8.800000000000001</v>
@@ -11909,7 +11909,7 @@
         </is>
       </c>
       <c r="J191" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K191" t="n">
         <v>13.9</v>
@@ -11970,7 +11970,7 @@
         </is>
       </c>
       <c r="J192" t="n">
-        <v>-283</v>
+        <v>-282</v>
       </c>
       <c r="K192" t="n">
         <v>-9.4</v>
@@ -12033,7 +12033,7 @@
         </is>
       </c>
       <c r="J193" t="n">
-        <v>-253</v>
+        <v>-252</v>
       </c>
       <c r="K193" t="n">
         <v>-8.4</v>
@@ -12096,10 +12096,10 @@
         </is>
       </c>
       <c r="J194" t="n">
-        <v>-314</v>
+        <v>-313</v>
       </c>
       <c r="K194" t="n">
-        <v>-10.5</v>
+        <v>-10.4</v>
       </c>
       <c r="L194" t="inlineStr">
         <is>
@@ -12153,7 +12153,7 @@
         </is>
       </c>
       <c r="J195" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K195" t="n">
         <v>-0.3</v>
@@ -12214,7 +12214,7 @@
         </is>
       </c>
       <c r="J196" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K196" t="n">
         <v>-0.3</v>
@@ -12275,7 +12275,7 @@
         </is>
       </c>
       <c r="J197" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K197" t="n">
         <v>1.7</v>
@@ -12336,7 +12336,7 @@
         </is>
       </c>
       <c r="J198" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K198" t="n">
         <v>1.7</v>
@@ -12397,7 +12397,7 @@
         </is>
       </c>
       <c r="J199" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K199" t="n">
         <v>1.7</v>
@@ -12458,10 +12458,10 @@
         </is>
       </c>
       <c r="J200" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K200" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         </is>
       </c>
       <c r="J201" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K201" t="n">
         <v>1.7</v>
@@ -12580,10 +12580,10 @@
         </is>
       </c>
       <c r="J202" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K202" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L202" t="inlineStr">
         <is>
@@ -12641,10 +12641,10 @@
         </is>
       </c>
       <c r="J203" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K203" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="L203" t="inlineStr">
         <is>
@@ -12702,10 +12702,10 @@
         </is>
       </c>
       <c r="J204" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K204" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         </is>
       </c>
       <c r="J205" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K205" t="n">
         <v>4.8</v>
@@ -12824,7 +12824,7 @@
         </is>
       </c>
       <c r="J206" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K206" t="n">
         <v>7.8</v>
@@ -12885,7 +12885,7 @@
         </is>
       </c>
       <c r="J207" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K207" t="n">
         <v>7.8</v>
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="J208" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K208" t="n">
         <v>7.8</v>
@@ -13007,7 +13007,7 @@
         </is>
       </c>
       <c r="J209" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K209" t="n">
         <v>9.800000000000001</v>
@@ -13068,10 +13068,10 @@
         </is>
       </c>
       <c r="J210" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K210" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
@@ -13129,7 +13129,7 @@
         </is>
       </c>
       <c r="J211" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K211" t="n">
         <v>10.8</v>
@@ -13190,7 +13190,7 @@
         </is>
       </c>
       <c r="J212" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K212" t="n">
         <v>9.800000000000001</v>
@@ -13251,7 +13251,7 @@
         </is>
       </c>
       <c r="J213" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K213" t="n">
         <v>10.8</v>
@@ -13312,7 +13312,7 @@
         </is>
       </c>
       <c r="J214" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K214" t="n">
         <v>13.9</v>
@@ -13373,7 +13373,7 @@
         </is>
       </c>
       <c r="J215" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K215" t="n">
         <v>13.9</v>
@@ -13434,7 +13434,7 @@
         </is>
       </c>
       <c r="J216" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K216" t="n">
         <v>13.9</v>
@@ -13495,10 +13495,10 @@
         </is>
       </c>
       <c r="J217" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K217" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -13556,10 +13556,10 @@
         </is>
       </c>
       <c r="J218" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K218" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="L218" t="inlineStr">
         <is>
@@ -13617,10 +13617,10 @@
         </is>
       </c>
       <c r="J219" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K219" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="L219" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         </is>
       </c>
       <c r="J220" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K220" t="n">
         <v>17.9</v>
@@ -13739,7 +13739,7 @@
         </is>
       </c>
       <c r="J221" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K221" t="n">
         <v>17.9</v>
@@ -13800,10 +13800,10 @@
         </is>
       </c>
       <c r="J222" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K222" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="L222" t="inlineStr">
         <is>
@@ -13861,10 +13861,10 @@
         </is>
       </c>
       <c r="J223" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K223" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="L223" t="inlineStr">
         <is>
@@ -13922,7 +13922,7 @@
         </is>
       </c>
       <c r="J224" t="n">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="K224" t="n">
         <v>18.9</v>
@@ -13983,10 +13983,10 @@
         </is>
       </c>
       <c r="J225" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K225" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="L225" t="inlineStr">
         <is>
@@ -14044,10 +14044,10 @@
         </is>
       </c>
       <c r="J226" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K226" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="L226" t="inlineStr">
         <is>
@@ -14105,10 +14105,10 @@
         </is>
       </c>
       <c r="J227" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K227" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="L227" t="inlineStr">
         <is>
@@ -14166,10 +14166,10 @@
         </is>
       </c>
       <c r="J228" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K228" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="L228" t="inlineStr">
         <is>
@@ -14227,7 +14227,7 @@
         </is>
       </c>
       <c r="J229" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K229" t="n">
         <v>22</v>
@@ -14288,7 +14288,7 @@
         </is>
       </c>
       <c r="J230" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K230" t="n">
         <v>22</v>
@@ -14349,7 +14349,7 @@
         </is>
       </c>
       <c r="J231" t="n">
-        <v>-283</v>
+        <v>-282</v>
       </c>
       <c r="K231" t="n">
         <v>-9.4</v>
@@ -14412,7 +14412,7 @@
         </is>
       </c>
       <c r="J232" t="n">
-        <v>-102</v>
+        <v>-101</v>
       </c>
       <c r="K232" t="n">
         <v>-3.4</v>
@@ -14479,7 +14479,7 @@
         </is>
       </c>
       <c r="J233" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K233" t="n">
         <v>0.7</v>
@@ -14540,7 +14540,7 @@
         </is>
       </c>
       <c r="J234" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K234" t="n">
         <v>0.7</v>
@@ -14601,7 +14601,7 @@
         </is>
       </c>
       <c r="J235" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K235" t="n">
         <v>0.7</v>
@@ -14662,7 +14662,7 @@
         </is>
       </c>
       <c r="J236" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K236" t="n">
         <v>0.7</v>
@@ -14723,10 +14723,10 @@
         </is>
       </c>
       <c r="J237" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K237" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="L237" t="inlineStr">
         <is>
@@ -14784,7 +14784,7 @@
         </is>
       </c>
       <c r="J238" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K238" t="n">
         <v>9.800000000000001</v>
@@ -14845,7 +14845,7 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K239" t="n">
         <v>9.800000000000001</v>
@@ -14906,7 +14906,7 @@
         </is>
       </c>
       <c r="J240" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K240" t="n">
         <v>14.9</v>
@@ -14967,10 +14967,10 @@
         </is>
       </c>
       <c r="J241" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K241" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="L241" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         </is>
       </c>
       <c r="J242" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="K242" t="n">
         <v>23</v>
@@ -15089,7 +15089,7 @@
         </is>
       </c>
       <c r="J243" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="K243" t="n">
         <v>23</v>
@@ -15150,10 +15150,10 @@
         </is>
       </c>
       <c r="J244" t="n">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="K244" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="L244" t="inlineStr">
         <is>
@@ -15211,10 +15211,10 @@
         </is>
       </c>
       <c r="J245" t="n">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="K245" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="L245" t="inlineStr">
         <is>
@@ -15272,7 +15272,7 @@
         </is>
       </c>
       <c r="J246" t="n">
-        <v>-253</v>
+        <v>-252</v>
       </c>
       <c r="K246" t="n">
         <v>-8.4</v>
@@ -15335,7 +15335,7 @@
         </is>
       </c>
       <c r="J247" t="n">
-        <v>-253</v>
+        <v>-252</v>
       </c>
       <c r="K247" t="n">
         <v>-8.4</v>
@@ -15398,7 +15398,7 @@
         </is>
       </c>
       <c r="J248" t="n">
-        <v>-222</v>
+        <v>-221</v>
       </c>
       <c r="K248" t="n">
         <v>-7.4</v>
@@ -15461,7 +15461,7 @@
         </is>
       </c>
       <c r="J249" t="n">
-        <v>-283</v>
+        <v>-282</v>
       </c>
       <c r="K249" t="n">
         <v>-9.4</v>
@@ -15518,7 +15518,7 @@
         </is>
       </c>
       <c r="J250" t="n">
-        <v>-253</v>
+        <v>-252</v>
       </c>
       <c r="K250" t="n">
         <v>-8.4</v>
@@ -15575,7 +15575,7 @@
         </is>
       </c>
       <c r="J251" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K251" t="n">
         <v>-0.3</v>
@@ -15636,7 +15636,7 @@
         </is>
       </c>
       <c r="J252" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K252" t="n">
         <v>0.7</v>
@@ -15697,7 +15697,7 @@
         </is>
       </c>
       <c r="J253" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K253" t="n">
         <v>4.8</v>
@@ -15758,7 +15758,7 @@
         </is>
       </c>
       <c r="J254" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K254" t="n">
         <v>4.8</v>
@@ -15819,7 +15819,7 @@
         </is>
       </c>
       <c r="J255" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K255" t="n">
         <v>8.800000000000001</v>
@@ -15880,7 +15880,7 @@
         </is>
       </c>
       <c r="J256" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K256" t="n">
         <v>8.800000000000001</v>
@@ -15941,7 +15941,7 @@
         </is>
       </c>
       <c r="J257" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K257" t="n">
         <v>9.800000000000001</v>
@@ -16002,7 +16002,7 @@
         </is>
       </c>
       <c r="J258" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K258" t="n">
         <v>9.800000000000001</v>
@@ -16063,7 +16063,7 @@
         </is>
       </c>
       <c r="J259" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K259" t="n">
         <v>13.9</v>
@@ -16124,10 +16124,10 @@
         </is>
       </c>
       <c r="J260" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K260" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="L260" t="inlineStr">
         <is>
@@ -16185,7 +16185,7 @@
         </is>
       </c>
       <c r="J261" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K261" t="n">
         <v>10.8</v>
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="J262" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K262" t="n">
         <v>10.8</v>
@@ -16307,7 +16307,7 @@
         </is>
       </c>
       <c r="J263" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K263" t="n">
         <v>13.9</v>
@@ -16368,7 +16368,7 @@
         </is>
       </c>
       <c r="J264" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K264" t="n">
         <v>14.9</v>
@@ -16429,7 +16429,7 @@
         </is>
       </c>
       <c r="J265" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K265" t="n">
         <v>15.9</v>
@@ -16490,7 +16490,7 @@
         </is>
       </c>
       <c r="J266" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K266" t="n">
         <v>14.9</v>
@@ -16551,7 +16551,7 @@
         </is>
       </c>
       <c r="J267" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K267" t="n">
         <v>22</v>
@@ -16612,7 +16612,7 @@
         </is>
       </c>
       <c r="J268" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="K268" t="n">
         <v>23</v>
@@ -16673,7 +16673,7 @@
         </is>
       </c>
       <c r="J269" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="K269" t="n">
         <v>23</v>
@@ -16734,10 +16734,10 @@
         </is>
       </c>
       <c r="J270" t="n">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="K270" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="L270" t="inlineStr">
         <is>
@@ -16795,7 +16795,7 @@
         </is>
       </c>
       <c r="J271" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="K271" t="n">
         <v>23</v>
@@ -16856,7 +16856,7 @@
         </is>
       </c>
       <c r="J272" t="n">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="K272" t="n">
         <v>24</v>
@@ -16917,10 +16917,10 @@
         </is>
       </c>
       <c r="J273" t="n">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="K273" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="L273" t="inlineStr">
         <is>
@@ -16978,10 +16978,10 @@
         </is>
       </c>
       <c r="J274" t="n">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="K274" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="L274" t="inlineStr">
         <is>
@@ -17039,7 +17039,7 @@
         </is>
       </c>
       <c r="J275" t="n">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="K275" t="n">
         <v>24</v>
@@ -17100,7 +17100,7 @@
         </is>
       </c>
       <c r="J276" t="n">
-        <v>-222</v>
+        <v>-221</v>
       </c>
       <c r="K276" t="n">
         <v>-7.4</v>
@@ -17163,7 +17163,7 @@
         </is>
       </c>
       <c r="J277" t="n">
-        <v>-222</v>
+        <v>-221</v>
       </c>
       <c r="K277" t="n">
         <v>-7.4</v>
@@ -17226,7 +17226,7 @@
         </is>
       </c>
       <c r="J278" t="n">
-        <v>-102</v>
+        <v>-101</v>
       </c>
       <c r="K278" t="n">
         <v>-3.4</v>
@@ -17293,7 +17293,7 @@
         </is>
       </c>
       <c r="J279" t="n">
-        <v>-102</v>
+        <v>-101</v>
       </c>
       <c r="K279" t="n">
         <v>-3.4</v>
@@ -17360,7 +17360,7 @@
         </is>
       </c>
       <c r="J280" t="n">
-        <v>-102</v>
+        <v>-101</v>
       </c>
       <c r="K280" t="n">
         <v>-3.4</v>
@@ -17427,7 +17427,7 @@
         </is>
       </c>
       <c r="J281" t="n">
-        <v>-102</v>
+        <v>-101</v>
       </c>
       <c r="K281" t="n">
         <v>-3.4</v>
@@ -17494,10 +17494,10 @@
         </is>
       </c>
       <c r="J282" t="n">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="K282" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="L282" t="inlineStr">
         <is>
@@ -17561,7 +17561,7 @@
         </is>
       </c>
       <c r="J283" t="n">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="K283" t="n">
         <v>27.1</v>
@@ -17628,7 +17628,7 @@
         </is>
       </c>
       <c r="J284" t="n">
-        <v>-102</v>
+        <v>-101</v>
       </c>
       <c r="K284" t="n">
         <v>-3.4</v>
@@ -17689,7 +17689,7 @@
         </is>
       </c>
       <c r="J285" t="n">
-        <v>-102</v>
+        <v>-101</v>
       </c>
       <c r="K285" t="n">
         <v>-3.4</v>
@@ -17750,10 +17750,10 @@
         </is>
       </c>
       <c r="J286" t="n">
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="K286" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="L286" t="inlineStr">
         <is>
@@ -17811,10 +17811,10 @@
         </is>
       </c>
       <c r="J287" t="n">
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="K287" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="L287" t="inlineStr">
         <is>
@@ -17872,10 +17872,10 @@
         </is>
       </c>
       <c r="J288" t="n">
-        <v>-41</v>
+        <v>-40</v>
       </c>
       <c r="K288" t="n">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="L288" t="inlineStr">
         <is>
@@ -17933,10 +17933,10 @@
         </is>
       </c>
       <c r="J289" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K289" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="L289" t="inlineStr">
         <is>
@@ -17994,10 +17994,10 @@
         </is>
       </c>
       <c r="J290" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K290" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="L290" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         </is>
       </c>
       <c r="J291" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K291" t="n">
         <v>4.8</v>
@@ -18116,7 +18116,7 @@
         </is>
       </c>
       <c r="J292" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K292" t="n">
         <v>4.8</v>
@@ -18177,7 +18177,7 @@
         </is>
       </c>
       <c r="J293" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K293" t="n">
         <v>5.7</v>
@@ -18238,7 +18238,7 @@
         </is>
       </c>
       <c r="J294" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K294" t="n">
         <v>4.8</v>
@@ -18299,7 +18299,7 @@
         </is>
       </c>
       <c r="J295" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K295" t="n">
         <v>4.8</v>
@@ -18360,7 +18360,7 @@
         </is>
       </c>
       <c r="J296" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K296" t="n">
         <v>8.800000000000001</v>
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="J297" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K297" t="n">
         <v>8.800000000000001</v>
@@ -18482,7 +18482,7 @@
         </is>
       </c>
       <c r="J298" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K298" t="n">
         <v>8.800000000000001</v>
@@ -18543,7 +18543,7 @@
         </is>
       </c>
       <c r="J299" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K299" t="n">
         <v>10.8</v>
@@ -18604,7 +18604,7 @@
         </is>
       </c>
       <c r="J300" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K300" t="n">
         <v>10.8</v>
@@ -18665,7 +18665,7 @@
         </is>
       </c>
       <c r="J301" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K301" t="n">
         <v>12.9</v>
@@ -18726,7 +18726,7 @@
         </is>
       </c>
       <c r="J302" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K302" t="n">
         <v>13.9</v>
@@ -18787,7 +18787,7 @@
         </is>
       </c>
       <c r="J303" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K303" t="n">
         <v>13.9</v>
@@ -18848,7 +18848,7 @@
         </is>
       </c>
       <c r="J304" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K304" t="n">
         <v>15.9</v>
@@ -18909,7 +18909,7 @@
         </is>
       </c>
       <c r="J305" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K305" t="n">
         <v>15.9</v>
@@ -18970,7 +18970,7 @@
         </is>
       </c>
       <c r="J306" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K306" t="n">
         <v>17.9</v>
@@ -19031,7 +19031,7 @@
         </is>
       </c>
       <c r="J307" t="n">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K307" t="n">
         <v>17.9</v>
@@ -19092,10 +19092,10 @@
         </is>
       </c>
       <c r="J308" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K308" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="L308" t="inlineStr">
         <is>
@@ -19153,10 +19153,10 @@
         </is>
       </c>
       <c r="J309" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K309" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="L309" t="inlineStr">
         <is>
@@ -19214,7 +19214,7 @@
         </is>
       </c>
       <c r="J310" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K310" t="n">
         <v>22</v>
@@ -19275,7 +19275,7 @@
         </is>
       </c>
       <c r="J311" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="K311" t="n">
         <v>23</v>
@@ -19336,10 +19336,10 @@
         </is>
       </c>
       <c r="J312" t="n">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="K312" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="L312" t="inlineStr">
         <is>
@@ -19397,7 +19397,7 @@
         </is>
       </c>
       <c r="J313" t="n">
-        <v>-253</v>
+        <v>-252</v>
       </c>
       <c r="K313" t="n">
         <v>-8.4</v>
@@ -19460,7 +19460,7 @@
         </is>
       </c>
       <c r="J314" t="n">
-        <v>-253</v>
+        <v>-252</v>
       </c>
       <c r="K314" t="n">
         <v>-8.4</v>
@@ -19523,7 +19523,7 @@
         </is>
       </c>
       <c r="J315" t="n">
-        <v>-102</v>
+        <v>-101</v>
       </c>
       <c r="K315" t="n">
         <v>-3.4</v>
@@ -19590,7 +19590,7 @@
         </is>
       </c>
       <c r="J316" t="n">
-        <v>-253</v>
+        <v>-252</v>
       </c>
       <c r="K316" t="n">
         <v>-8.4</v>
@@ -19647,7 +19647,7 @@
         </is>
       </c>
       <c r="J317" t="n">
-        <v>-253</v>
+        <v>-252</v>
       </c>
       <c r="K317" t="n">
         <v>-8.4</v>
@@ -19704,7 +19704,7 @@
         </is>
       </c>
       <c r="J318" t="n">
-        <v>-253</v>
+        <v>-252</v>
       </c>
       <c r="K318" t="n">
         <v>-8.4</v>
@@ -19761,7 +19761,7 @@
         </is>
       </c>
       <c r="J319" t="n">
-        <v>-283</v>
+        <v>-282</v>
       </c>
       <c r="K319" t="n">
         <v>-9.4</v>
@@ -19818,7 +19818,7 @@
         </is>
       </c>
       <c r="J320" t="n">
-        <v>-132</v>
+        <v>-131</v>
       </c>
       <c r="K320" t="n">
         <v>-4.4</v>
@@ -19879,7 +19879,7 @@
         </is>
       </c>
       <c r="J321" t="n">
-        <v>-102</v>
+        <v>-101</v>
       </c>
       <c r="K321" t="n">
         <v>-3.4</v>
@@ -19940,10 +19940,10 @@
         </is>
       </c>
       <c r="J322" t="n">
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="K322" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="L322" t="inlineStr">
         <is>
@@ -20001,10 +20001,10 @@
         </is>
       </c>
       <c r="J323" t="n">
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="K323" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="L323" t="inlineStr">
         <is>
@@ -20062,7 +20062,7 @@
         </is>
       </c>
       <c r="J324" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K324" t="n">
         <v>-0.3</v>
@@ -20123,7 +20123,7 @@
         </is>
       </c>
       <c r="J325" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K325" t="n">
         <v>-0.3</v>
@@ -20184,7 +20184,7 @@
         </is>
       </c>
       <c r="J326" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K326" t="n">
         <v>-0.3</v>
@@ -20245,7 +20245,7 @@
         </is>
       </c>
       <c r="J327" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K327" t="n">
         <v>-0.3</v>
@@ -20306,7 +20306,7 @@
         </is>
       </c>
       <c r="J328" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K328" t="n">
         <v>0.7</v>
@@ -20367,7 +20367,7 @@
         </is>
       </c>
       <c r="J329" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K329" t="n">
         <v>4.8</v>
@@ -20428,7 +20428,7 @@
         </is>
       </c>
       <c r="J330" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K330" t="n">
         <v>4.8</v>
@@ -20489,7 +20489,7 @@
         </is>
       </c>
       <c r="J331" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K331" t="n">
         <v>5.7</v>
@@ -20550,7 +20550,7 @@
         </is>
       </c>
       <c r="J332" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K332" t="n">
         <v>5.7</v>
@@ -20611,7 +20611,7 @@
         </is>
       </c>
       <c r="J333" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K333" t="n">
         <v>5.7</v>
@@ -20672,7 +20672,7 @@
         </is>
       </c>
       <c r="J334" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K334" t="n">
         <v>1.6</v>
@@ -20733,7 +20733,7 @@
         </is>
       </c>
       <c r="J335" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K335" t="n">
         <v>5.7</v>
@@ -20794,7 +20794,7 @@
         </is>
       </c>
       <c r="J336" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K336" t="n">
         <v>5.7</v>
@@ -20855,7 +20855,7 @@
         </is>
       </c>
       <c r="J337" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K337" t="n">
         <v>7.8</v>
@@ -20916,7 +20916,7 @@
         </is>
       </c>
       <c r="J338" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K338" t="n">
         <v>7.8</v>
@@ -20977,7 +20977,7 @@
         </is>
       </c>
       <c r="J339" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K339" t="n">
         <v>7.8</v>
@@ -21038,7 +21038,7 @@
         </is>
       </c>
       <c r="J340" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K340" t="n">
         <v>8.800000000000001</v>
@@ -21099,7 +21099,7 @@
         </is>
       </c>
       <c r="J341" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K341" t="n">
         <v>12.9</v>
@@ -21160,7 +21160,7 @@
         </is>
       </c>
       <c r="J342" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K342" t="n">
         <v>8.800000000000001</v>
@@ -21221,10 +21221,10 @@
         </is>
       </c>
       <c r="J343" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K343" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="L343" t="inlineStr">
         <is>
@@ -21282,10 +21282,10 @@
         </is>
       </c>
       <c r="J344" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K344" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="L344" t="inlineStr">
         <is>
@@ -21343,7 +21343,7 @@
         </is>
       </c>
       <c r="J345" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K345" t="n">
         <v>12.9</v>
@@ -21404,7 +21404,7 @@
         </is>
       </c>
       <c r="J346" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K346" t="n">
         <v>17.9</v>
@@ -21465,10 +21465,10 @@
         </is>
       </c>
       <c r="J347" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K347" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="L347" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         </is>
       </c>
       <c r="J348" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K348" t="n">
         <v>17.9</v>
@@ -21587,7 +21587,7 @@
         </is>
       </c>
       <c r="J349" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K349" t="n">
         <v>17.9</v>
@@ -21648,7 +21648,7 @@
         </is>
       </c>
       <c r="J350" t="n">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="K350" t="n">
         <v>18.9</v>
@@ -21709,7 +21709,7 @@
         </is>
       </c>
       <c r="J351" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K351" t="n">
         <v>17.9</v>
@@ -21770,7 +21770,7 @@
         </is>
       </c>
       <c r="J352" t="n">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="K352" t="n">
         <v>18.9</v>
@@ -21831,7 +21831,7 @@
         </is>
       </c>
       <c r="J353" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K353" t="n">
         <v>17.9</v>
@@ -21892,7 +21892,7 @@
         </is>
       </c>
       <c r="J354" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K354" t="n">
         <v>17.9</v>
@@ -21953,7 +21953,7 @@
         </is>
       </c>
       <c r="J355" t="n">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="K355" t="n">
         <v>18.9</v>
@@ -22014,10 +22014,10 @@
         </is>
       </c>
       <c r="J356" t="n">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="K356" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="L356" t="inlineStr">
         <is>
@@ -22075,10 +22075,10 @@
         </is>
       </c>
       <c r="J357" t="n">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="K357" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="L357" t="inlineStr">
         <is>
@@ -22136,7 +22136,7 @@
         </is>
       </c>
       <c r="J358" t="n">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="K358" t="n">
         <v>30.1</v>
@@ -22197,10 +22197,10 @@
         </is>
       </c>
       <c r="J359" t="n">
-        <v>-194</v>
+        <v>-193</v>
       </c>
       <c r="K359" t="n">
-        <v>-6.5</v>
+        <v>-6.4</v>
       </c>
       <c r="L359" t="inlineStr">
         <is>
@@ -22260,7 +22260,7 @@
         </is>
       </c>
       <c r="J360" t="n">
-        <v>-132</v>
+        <v>-131</v>
       </c>
       <c r="K360" t="n">
         <v>-4.4</v>
@@ -22327,7 +22327,7 @@
         </is>
       </c>
       <c r="J361" t="n">
-        <v>-253</v>
+        <v>-252</v>
       </c>
       <c r="K361" t="n">
         <v>-8.4</v>
@@ -22384,7 +22384,7 @@
         </is>
       </c>
       <c r="J362" t="n">
-        <v>-132</v>
+        <v>-131</v>
       </c>
       <c r="K362" t="n">
         <v>-4.4</v>
@@ -22445,10 +22445,10 @@
         </is>
       </c>
       <c r="J363" t="n">
-        <v>-41</v>
+        <v>-40</v>
       </c>
       <c r="K363" t="n">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="L363" t="inlineStr">
         <is>
@@ -22506,10 +22506,10 @@
         </is>
       </c>
       <c r="J364" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K364" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L364" t="inlineStr">
         <is>
@@ -22567,10 +22567,10 @@
         </is>
       </c>
       <c r="J365" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K365" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L365" t="inlineStr">
         <is>
@@ -22628,7 +22628,7 @@
         </is>
       </c>
       <c r="J366" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K366" t="n">
         <v>9.800000000000001</v>
@@ -22689,7 +22689,7 @@
         </is>
       </c>
       <c r="J367" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K367" t="n">
         <v>12.9</v>
@@ -22750,10 +22750,10 @@
         </is>
       </c>
       <c r="J368" t="n">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="K368" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="L368" t="inlineStr">
         <is>
@@ -22811,7 +22811,7 @@
         </is>
       </c>
       <c r="J369" t="n">
-        <v>-132</v>
+        <v>-131</v>
       </c>
       <c r="K369" t="n">
         <v>-4.4</v>
@@ -22878,7 +22878,7 @@
         </is>
       </c>
       <c r="J370" t="n">
-        <v>-132</v>
+        <v>-131</v>
       </c>
       <c r="K370" t="n">
         <v>-4.4</v>
@@ -22945,7 +22945,7 @@
         </is>
       </c>
       <c r="J371" t="n">
-        <v>-132</v>
+        <v>-131</v>
       </c>
       <c r="K371" t="n">
         <v>-4.4</v>
@@ -23012,7 +23012,7 @@
         </is>
       </c>
       <c r="J372" t="n">
-        <v>-283</v>
+        <v>-282</v>
       </c>
       <c r="K372" t="n">
         <v>-9.4</v>
@@ -23069,7 +23069,7 @@
         </is>
       </c>
       <c r="J373" t="n">
-        <v>-132</v>
+        <v>-131</v>
       </c>
       <c r="K373" t="n">
         <v>-4.4</v>
@@ -23130,10 +23130,10 @@
         </is>
       </c>
       <c r="J374" t="n">
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="K374" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="L374" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         </is>
       </c>
       <c r="J375" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K375" t="n">
         <v>-0.3</v>
@@ -23252,7 +23252,7 @@
         </is>
       </c>
       <c r="J376" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K376" t="n">
         <v>-0.3</v>
@@ -23313,10 +23313,10 @@
         </is>
       </c>
       <c r="J377" t="n">
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="K377" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="L377" t="inlineStr">
         <is>
@@ -23374,10 +23374,10 @@
         </is>
       </c>
       <c r="J378" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K378" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="L378" t="inlineStr">
         <is>
@@ -23435,10 +23435,10 @@
         </is>
       </c>
       <c r="J379" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K379" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L379" t="inlineStr">
         <is>
@@ -23496,10 +23496,10 @@
         </is>
       </c>
       <c r="J380" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K380" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="L380" t="inlineStr">
         <is>
@@ -23557,10 +23557,10 @@
         </is>
       </c>
       <c r="J381" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K381" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L381" t="inlineStr">
         <is>
@@ -23618,10 +23618,10 @@
         </is>
       </c>
       <c r="J382" t="n">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="K382" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="L382" t="inlineStr">
         <is>
@@ -23679,7 +23679,7 @@
         </is>
       </c>
       <c r="J383" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K383" t="n">
         <v>4.8</v>
@@ -23740,7 +23740,7 @@
         </is>
       </c>
       <c r="J384" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K384" t="n">
         <v>5.7</v>
@@ -23801,7 +23801,7 @@
         </is>
       </c>
       <c r="J385" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K385" t="n">
         <v>5.7</v>
@@ -23862,7 +23862,7 @@
         </is>
       </c>
       <c r="J386" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K386" t="n">
         <v>5.7</v>
@@ -23923,7 +23923,7 @@
         </is>
       </c>
       <c r="J387" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K387" t="n">
         <v>10.8</v>
@@ -23984,7 +23984,7 @@
         </is>
       </c>
       <c r="J388" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K388" t="n">
         <v>10.8</v>
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="J389" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K389" t="n">
         <v>10.8</v>
@@ -24106,7 +24106,7 @@
         </is>
       </c>
       <c r="J390" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K390" t="n">
         <v>15.9</v>
@@ -24167,7 +24167,7 @@
         </is>
       </c>
       <c r="J391" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K391" t="n">
         <v>14.9</v>
@@ -24228,10 +24228,10 @@
         </is>
       </c>
       <c r="J392" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K392" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="L392" t="inlineStr">
         <is>
@@ -24289,10 +24289,10 @@
         </is>
       </c>
       <c r="J393" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K393" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="L393" t="inlineStr">
         <is>
@@ -24350,10 +24350,10 @@
         </is>
       </c>
       <c r="J394" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K394" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="L394" t="inlineStr">
         <is>
@@ -24411,7 +24411,7 @@
         </is>
       </c>
       <c r="J395" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K395" t="n">
         <v>22</v>
@@ -24472,7 +24472,7 @@
         </is>
       </c>
       <c r="J396" t="n">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="K396" t="n">
         <v>27.1</v>
@@ -24533,7 +24533,7 @@
         </is>
       </c>
       <c r="J397" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="K397" t="n">
         <v>23</v>
@@ -24594,7 +24594,7 @@
         </is>
       </c>
       <c r="J398" t="n">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="K398" t="n">
         <v>27.1</v>
@@ -24655,10 +24655,10 @@
         </is>
       </c>
       <c r="J399" t="n">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="K399" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="L399" t="inlineStr">
         <is>
@@ -24716,10 +24716,10 @@
         </is>
       </c>
       <c r="J400" t="n">
-        <v>-194</v>
+        <v>-193</v>
       </c>
       <c r="K400" t="n">
-        <v>-6.5</v>
+        <v>-6.4</v>
       </c>
       <c r="L400" t="inlineStr">
         <is>
@@ -24779,7 +24779,7 @@
         </is>
       </c>
       <c r="J401" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K401" t="n">
         <v>0.7</v>
@@ -24848,7 +24848,7 @@
         </is>
       </c>
       <c r="J402" t="n">
-        <v>-253</v>
+        <v>-252</v>
       </c>
       <c r="K402" t="n">
         <v>-8.4</v>
@@ -24905,7 +24905,7 @@
         </is>
       </c>
       <c r="J403" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K403" t="n">
         <v>1.7</v>
@@ -24966,10 +24966,10 @@
         </is>
       </c>
       <c r="J404" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K404" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="L404" t="inlineStr">
         <is>
@@ -25027,7 +25027,7 @@
         </is>
       </c>
       <c r="J405" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K405" t="n">
         <v>1.7</v>
@@ -25088,10 +25088,10 @@
         </is>
       </c>
       <c r="J406" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K406" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="L406" t="inlineStr">
         <is>
@@ -25149,7 +25149,7 @@
         </is>
       </c>
       <c r="J407" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K407" t="n">
         <v>5.7</v>
@@ -25210,7 +25210,7 @@
         </is>
       </c>
       <c r="J408" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K408" t="n">
         <v>5.7</v>
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="J409" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K409" t="n">
         <v>10.8</v>
@@ -25332,7 +25332,7 @@
         </is>
       </c>
       <c r="J410" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K410" t="n">
         <v>10.8</v>
@@ -25393,7 +25393,7 @@
         </is>
       </c>
       <c r="J411" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K411" t="n">
         <v>14.9</v>
@@ -25454,7 +25454,7 @@
         </is>
       </c>
       <c r="J412" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K412" t="n">
         <v>17.9</v>
@@ -25515,7 +25515,7 @@
         </is>
       </c>
       <c r="J413" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K413" t="n">
         <v>17.9</v>
@@ -25576,10 +25576,10 @@
         </is>
       </c>
       <c r="J414" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K414" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="L414" t="inlineStr">
         <is>
@@ -25637,7 +25637,7 @@
         </is>
       </c>
       <c r="J415" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="K415" t="n">
         <v>23</v>
@@ -25698,7 +25698,7 @@
         </is>
       </c>
       <c r="J416" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="K416" t="n">
         <v>23</v>
@@ -25759,7 +25759,7 @@
         </is>
       </c>
       <c r="J417" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="K417" t="n">
         <v>23</v>
@@ -25820,7 +25820,7 @@
         </is>
       </c>
       <c r="J418" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="K418" t="n">
         <v>23</v>
@@ -25881,7 +25881,7 @@
         </is>
       </c>
       <c r="J419" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="K419" t="n">
         <v>23</v>
@@ -25942,10 +25942,10 @@
         </is>
       </c>
       <c r="J420" t="n">
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="K420" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="L420" t="inlineStr">
         <is>
@@ -26011,7 +26011,7 @@
         </is>
       </c>
       <c r="J421" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K421" t="n">
         <v>-0.3</v>
@@ -26080,7 +26080,7 @@
         </is>
       </c>
       <c r="J422" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="K422" t="n">
         <v>-0.3</v>
@@ -26147,10 +26147,10 @@
         </is>
       </c>
       <c r="J423" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K423" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L423" t="inlineStr">
         <is>
@@ -26216,10 +26216,10 @@
         </is>
       </c>
       <c r="J424" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K424" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L424" t="inlineStr">
         <is>
@@ -26285,7 +26285,7 @@
         </is>
       </c>
       <c r="J425" t="n">
-        <v>-222</v>
+        <v>-221</v>
       </c>
       <c r="K425" t="n">
         <v>-7.4</v>
@@ -26342,10 +26342,10 @@
         </is>
       </c>
       <c r="J426" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K426" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L426" t="inlineStr">
         <is>
@@ -26403,7 +26403,7 @@
         </is>
       </c>
       <c r="J427" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K427" t="n">
         <v>7.8</v>
@@ -26464,7 +26464,7 @@
         </is>
       </c>
       <c r="J428" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K428" t="n">
         <v>13.9</v>
@@ -26525,7 +26525,7 @@
         </is>
       </c>
       <c r="J429" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K429" t="n">
         <v>13.9</v>
@@ -26586,7 +26586,7 @@
         </is>
       </c>
       <c r="J430" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K430" t="n">
         <v>13.9</v>
@@ -26647,7 +26647,7 @@
         </is>
       </c>
       <c r="J431" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K431" t="n">
         <v>14.9</v>
@@ -26708,7 +26708,7 @@
         </is>
       </c>
       <c r="J432" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K432" t="n">
         <v>14.9</v>
@@ -26769,7 +26769,7 @@
         </is>
       </c>
       <c r="J433" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K433" t="n">
         <v>14.9</v>
@@ -26830,10 +26830,10 @@
         </is>
       </c>
       <c r="J434" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K434" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="L434" t="inlineStr">
         <is>
@@ -26891,10 +26891,10 @@
         </is>
       </c>
       <c r="J435" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K435" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="L435" t="inlineStr">
         <is>
@@ -26952,10 +26952,10 @@
         </is>
       </c>
       <c r="J436" t="n">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="K436" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="L436" t="inlineStr">
         <is>
@@ -27013,10 +27013,10 @@
         </is>
       </c>
       <c r="J437" t="n">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="K437" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="L437" t="inlineStr">
         <is>
@@ -27074,7 +27074,7 @@
         </is>
       </c>
       <c r="J438" t="n">
-        <v>-102</v>
+        <v>-101</v>
       </c>
       <c r="K438" t="n">
         <v>-3.4</v>
@@ -27141,7 +27141,7 @@
         </is>
       </c>
       <c r="J439" t="n">
-        <v>-102</v>
+        <v>-101</v>
       </c>
       <c r="K439" t="n">
         <v>-3.4</v>
@@ -27208,7 +27208,7 @@
         </is>
       </c>
       <c r="J440" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K440" t="n">
         <v>1.7</v>
@@ -27269,7 +27269,7 @@
         </is>
       </c>
       <c r="J441" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K441" t="n">
         <v>1.7</v>
@@ -27330,7 +27330,7 @@
         </is>
       </c>
       <c r="J442" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K442" t="n">
         <v>1.7</v>
@@ -27391,7 +27391,7 @@
         </is>
       </c>
       <c r="J443" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K443" t="n">
         <v>1.7</v>
@@ -27452,10 +27452,10 @@
         </is>
       </c>
       <c r="J444" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K444" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L444" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         </is>
       </c>
       <c r="J445" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K445" t="n">
         <v>4.8</v>
@@ -27574,7 +27574,7 @@
         </is>
       </c>
       <c r="J446" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K446" t="n">
         <v>5.7</v>
@@ -27635,7 +27635,7 @@
         </is>
       </c>
       <c r="J447" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K447" t="n">
         <v>5.7</v>
@@ -27696,7 +27696,7 @@
         </is>
       </c>
       <c r="J448" t="n">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K448" t="n">
         <v>8.800000000000001</v>
@@ -27757,7 +27757,7 @@
         </is>
       </c>
       <c r="J449" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K449" t="n">
         <v>10.8</v>
@@ -27818,7 +27818,7 @@
         </is>
       </c>
       <c r="J450" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K450" t="n">
         <v>9.800000000000001</v>
@@ -27879,10 +27879,10 @@
         </is>
       </c>
       <c r="J451" t="n">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="K451" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="L451" t="inlineStr">
         <is>
@@ -27940,10 +27940,10 @@
         </is>
       </c>
       <c r="J452" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K452" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="L452" t="inlineStr">
         <is>
@@ -28001,10 +28001,10 @@
         </is>
       </c>
       <c r="J453" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K453" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="L453" t="inlineStr">
         <is>
@@ -28062,10 +28062,10 @@
         </is>
       </c>
       <c r="J454" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K454" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="L454" t="inlineStr">
         <is>
@@ -28123,10 +28123,10 @@
         </is>
       </c>
       <c r="J455" t="n">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="K455" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="L455" t="inlineStr">
         <is>
@@ -28184,7 +28184,7 @@
         </is>
       </c>
       <c r="J456" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K456" t="n">
         <v>22</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="J457" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K457" t="n">
         <v>22</v>
@@ -28306,10 +28306,10 @@
         </is>
       </c>
       <c r="J458" t="n">
-        <v>-194</v>
+        <v>-193</v>
       </c>
       <c r="K458" t="n">
-        <v>-6.5</v>
+        <v>-6.4</v>
       </c>
       <c r="L458" t="inlineStr">
         <is>
@@ -28369,7 +28369,7 @@
         </is>
       </c>
       <c r="J459" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K459" t="n">
         <v>4.8</v>
@@ -28438,7 +28438,7 @@
         </is>
       </c>
       <c r="J460" t="n">
-        <v>-102</v>
+        <v>-101</v>
       </c>
       <c r="K460" t="n">
         <v>-3.4</v>
@@ -28499,7 +28499,7 @@
         </is>
       </c>
       <c r="J461" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K461" t="n">
         <v>4.8</v>
@@ -28560,7 +28560,7 @@
         </is>
       </c>
       <c r="J462" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K462" t="n">
         <v>4.8</v>
@@ -28621,7 +28621,7 @@
         </is>
       </c>
       <c r="J463" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K463" t="n">
         <v>9.800000000000001</v>
@@ -28682,7 +28682,7 @@
         </is>
       </c>
       <c r="J464" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K464" t="n">
         <v>10.8</v>
@@ -28743,7 +28743,7 @@
         </is>
       </c>
       <c r="J465" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K465" t="n">
         <v>10.8</v>
@@ -28804,7 +28804,7 @@
         </is>
       </c>
       <c r="J466" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K466" t="n">
         <v>10.8</v>
@@ -28865,10 +28865,10 @@
         </is>
       </c>
       <c r="J467" t="n">
-        <v>-41</v>
+        <v>-40</v>
       </c>
       <c r="K467" t="n">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="L467" t="inlineStr">
         <is>
@@ -28926,7 +28926,7 @@
         </is>
       </c>
       <c r="J468" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K468" t="n">
         <v>14.9</v>
@@ -28987,7 +28987,7 @@
         </is>
       </c>
       <c r="J469" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K469" t="n">
         <v>14.9</v>
@@ -29048,7 +29048,7 @@
         </is>
       </c>
       <c r="J470" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K470" t="n">
         <v>14.9</v>
@@ -29109,7 +29109,7 @@
         </is>
       </c>
       <c r="J471" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K471" t="n">
         <v>14.9</v>
@@ -29170,7 +29170,7 @@
         </is>
       </c>
       <c r="J472" t="n">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K472" t="n">
         <v>14.9</v>
@@ -29231,7 +29231,7 @@
         </is>
       </c>
       <c r="J473" t="n">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="K473" t="n">
         <v>24</v>
@@ -29292,10 +29292,10 @@
         </is>
       </c>
       <c r="J474" t="n">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="K474" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="L474" t="inlineStr">
         <is>
@@ -29353,7 +29353,7 @@
         </is>
       </c>
       <c r="J475" t="n">
-        <v>-283</v>
+        <v>-282</v>
       </c>
       <c r="K475" t="n">
         <v>-9.4</v>
@@ -29416,7 +29416,7 @@
         </is>
       </c>
       <c r="J476" t="n">
-        <v>-163</v>
+        <v>-162</v>
       </c>
       <c r="K476" t="n">
         <v>-5.4</v>
@@ -29485,10 +29485,10 @@
         </is>
       </c>
       <c r="J477" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K477" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L477" t="inlineStr">
         <is>
@@ -29546,7 +29546,7 @@
         </is>
       </c>
       <c r="J478" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K478" t="n">
         <v>22</v>
@@ -29607,10 +29607,10 @@
         </is>
       </c>
       <c r="J479" t="n">
-        <v>-467</v>
+        <v>-466</v>
       </c>
       <c r="K479" t="n">
-        <v>-15.6</v>
+        <v>-15.5</v>
       </c>
       <c r="L479" t="inlineStr">
         <is>
@@ -29670,10 +29670,10 @@
         </is>
       </c>
       <c r="J480" t="n">
-        <v>-467</v>
+        <v>-466</v>
       </c>
       <c r="K480" t="n">
-        <v>-15.6</v>
+        <v>-15.5</v>
       </c>
       <c r="L480" t="inlineStr">
         <is>
@@ -29733,10 +29733,10 @@
         </is>
       </c>
       <c r="J481" t="n">
-        <v>-467</v>
+        <v>-466</v>
       </c>
       <c r="K481" t="n">
-        <v>-15.6</v>
+        <v>-15.5</v>
       </c>
       <c r="L481" t="inlineStr">
         <is>
@@ -29796,7 +29796,7 @@
         </is>
       </c>
       <c r="J482" t="n">
-        <v>-406</v>
+        <v>-405</v>
       </c>
       <c r="K482" t="n">
         <v>-13.5</v>
@@ -29853,10 +29853,10 @@
         </is>
       </c>
       <c r="J483" t="n">
-        <v>-314</v>
+        <v>-313</v>
       </c>
       <c r="K483" t="n">
-        <v>-10.5</v>
+        <v>-10.4</v>
       </c>
       <c r="L483" t="inlineStr">
         <is>
@@ -29910,7 +29910,7 @@
         </is>
       </c>
       <c r="J484" t="n">
-        <v>-253</v>
+        <v>-252</v>
       </c>
       <c r="K484" t="n">
         <v>-8.4</v>
@@ -29967,10 +29967,10 @@
         </is>
       </c>
       <c r="J485" t="n">
-        <v>-41</v>
+        <v>-40</v>
       </c>
       <c r="K485" t="n">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="L485" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         </is>
       </c>
       <c r="J486" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K486" t="n">
         <v>10.8</v>
@@ -30089,10 +30089,10 @@
         </is>
       </c>
       <c r="J487" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K487" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="L487" t="inlineStr">
         <is>
@@ -30150,7 +30150,7 @@
         </is>
       </c>
       <c r="J488" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K488" t="n">
         <v>10.8</v>
@@ -30211,7 +30211,7 @@
         </is>
       </c>
       <c r="J489" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K489" t="n">
         <v>10.8</v>
@@ -30272,7 +30272,7 @@
         </is>
       </c>
       <c r="J490" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K490" t="n">
         <v>15.9</v>
@@ -30333,7 +30333,7 @@
         </is>
       </c>
       <c r="J491" t="n">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K491" t="n">
         <v>15.9</v>
@@ -30394,7 +30394,7 @@
         </is>
       </c>
       <c r="J492" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K492" t="n">
         <v>17.9</v>
@@ -30455,7 +30455,7 @@
         </is>
       </c>
       <c r="J493" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K493" t="n">
         <v>17.9</v>
@@ -30516,7 +30516,7 @@
         </is>
       </c>
       <c r="J494" t="n">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="K494" t="n">
         <v>17.9</v>
@@ -30577,7 +30577,7 @@
         </is>
       </c>
       <c r="J495" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="K495" t="n">
         <v>23</v>
@@ -30638,7 +30638,7 @@
         </is>
       </c>
       <c r="J496" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="K496" t="n">
         <v>23</v>
@@ -30699,7 +30699,7 @@
         </is>
       </c>
       <c r="J497" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="K497" t="n">
         <v>23</v>
@@ -30760,7 +30760,7 @@
         </is>
       </c>
       <c r="J498" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="K498" t="n">
         <v>23</v>
@@ -30821,10 +30821,10 @@
         </is>
       </c>
       <c r="J499" t="n">
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="K499" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="L499" t="inlineStr">
         <is>
@@ -30888,10 +30888,10 @@
         </is>
       </c>
       <c r="J500" t="n">
-        <v>-71</v>
+        <v>-70</v>
       </c>
       <c r="K500" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="L500" t="inlineStr">
         <is>
@@ -30955,7 +30955,7 @@
         </is>
       </c>
       <c r="J501" t="n">
-        <v>-132</v>
+        <v>-131</v>
       </c>
       <c r="K501" t="n">
         <v>-4.4</v>
@@ -31016,10 +31016,10 @@
         </is>
       </c>
       <c r="J502" t="n">
-        <v>-41</v>
+        <v>-40</v>
       </c>
       <c r="K502" t="n">
-        <v>-1.4</v>
+        <v>-1.3</v>
       </c>
       <c r="L502" t="inlineStr">
         <is>
@@ -31077,7 +31077,7 @@
         </is>
       </c>
       <c r="J503" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K503" t="n">
         <v>0.7</v>
@@ -31138,10 +31138,10 @@
         </is>
       </c>
       <c r="J504" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K504" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="L504" t="inlineStr">
         <is>
@@ -31199,7 +31199,7 @@
         </is>
       </c>
       <c r="J505" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K505" t="n">
         <v>5.7</v>
@@ -31260,7 +31260,7 @@
         </is>
       </c>
       <c r="J506" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K506" t="n">
         <v>5.7</v>
@@ -31321,7 +31321,7 @@
         </is>
       </c>
       <c r="J507" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K507" t="n">
         <v>10.8</v>
@@ -31382,7 +31382,7 @@
         </is>
       </c>
       <c r="J508" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K508" t="n">
         <v>13.9</v>
@@ -31443,7 +31443,7 @@
         </is>
       </c>
       <c r="J509" t="n">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K509" t="n">
         <v>13.9</v>
@@ -31504,10 +31504,10 @@
         </is>
       </c>
       <c r="J510" t="n">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="K510" t="n">
-        <v>26</v>
+        <v>26.1</v>
       </c>
       <c r="L510" t="inlineStr">
         <is>
@@ -31565,7 +31565,7 @@
         </is>
       </c>
       <c r="J511" t="n">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="K511" t="n">
         <v>23</v>
@@ -31626,7 +31626,7 @@
         </is>
       </c>
       <c r="J512" t="n">
-        <v>-132</v>
+        <v>-131</v>
       </c>
       <c r="K512" t="n">
         <v>-4.4</v>
@@ -31693,7 +31693,7 @@
         </is>
       </c>
       <c r="J513" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K513" t="n">
         <v>4.8</v>
@@ -31754,7 +31754,7 @@
         </is>
       </c>
       <c r="J514" t="n">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K514" t="n">
         <v>9.800000000000001</v>
@@ -31815,7 +31815,7 @@
         </is>
       </c>
       <c r="J515" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K515" t="n">
         <v>10.8</v>
